--- a/CoreRulebook/Data/Potions/potions.xlsx
+++ b/CoreRulebook/Data/Potions/potions.xlsx
@@ -1562,9 +1562,9 @@
   <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
       <selection pane="bottomRight" activeCell="O53" activeCellId="0" sqref="O53"/>
     </sheetView>

--- a/CoreRulebook/Data/Potions/potions.xlsx
+++ b/CoreRulebook/Data/Potions/potions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Potions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1FB458-C6C7-40B5-8D6D-186A1847175F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F2852-70CB-427D-8A8B-17DDDEEBD031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -858,9 +860,6 @@
     <t>Horklump Juice</t>
   </si>
   <si>
-    <t>Hero’s Brew</t>
-  </si>
-  <si>
     <t>A thick golden concoction. Smell is hard to describe, but is often described as `smelling like victory\apos{}</t>
   </si>
   <si>
@@ -1596,9 +1595,6 @@
     <t>Add to another potion to increase the potency by</t>
   </si>
   <si>
-    <t>Ulgard\apos{} Unstable Catalyst</t>
-  </si>
-  <si>
     <t>Sends the consumer into a dreamless sleep for at least 1 hour if they fail a DV</t>
   </si>
   <si>
@@ -1609,6 +1605,12 @@
   </si>
   <si>
     <t>For 2 minutes, the drinker is forced to answer all questions fully and truthfully, if they fail a DV</t>
+  </si>
+  <si>
+    <t>Ulgard\apos{}s Unstable Catalyst</t>
+  </si>
+  <si>
+    <t>Hero\apos{}s Brew</t>
   </si>
 </sst>
 </file>
@@ -1831,6 +1833,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1857,15 +1868,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2255,10 +2257,10 @@
   <dimension ref="A1:AML94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
-      <selection pane="bottomRight" activeCell="U68" sqref="U68"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2296,100 +2298,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="29" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="30" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="31" t="s">
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AE1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="38"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2426,36 +2428,36 @@
       <c r="AA2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
     </row>
     <row r="3" spans="1:31" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D34" si="0">ROUND((J3*150/8 +(I3/1.5)^2)/ E3,0)</f>
+        <v>46</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="1">
-        <f>ROUND((J3*150/8 +(I3/1.5)^2)/ E3,0)</f>
-        <v>46</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I3" s="4">
         <v>10</v>
@@ -2464,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>55</v>
@@ -2476,7 +2478,7 @@
         <v>240</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>248</v>
@@ -2485,7 +2487,7 @@
         <v>50</v>
       </c>
       <c r="R3" s="21">
-        <f>IF(Q3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Q3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="R3:R34" si="1">IF(Q3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Q3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="S3" s="9" t="s">
@@ -2495,7 +2497,7 @@
         <v>100</v>
       </c>
       <c r="U3" s="10">
-        <f>IF(T3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*T3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="U3:U34" si="2">IF(T3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*T3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>3</v>
       </c>
       <c r="V3" s="11" t="s">
@@ -2505,7 +2507,7 @@
         <v>50</v>
       </c>
       <c r="X3" s="22">
-        <f>IF(W3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*W3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="X3:X34" si="3">IF(W3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*W3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="Y3" s="13" t="s">
@@ -2515,19 +2517,19 @@
         <v>75</v>
       </c>
       <c r="AA3" s="14">
-        <f>IF(Z3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Z3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="AA3:AA34" si="4">IF(Z3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Z3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>2</v>
       </c>
       <c r="AC3" s="3">
-        <f>(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100)*100</f>
+        <f t="shared" ref="AC3:AC34" si="5">(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100)*100</f>
         <v>787.5</v>
       </c>
       <c r="AD3" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I3,AC3/100))</f>
+        <f t="shared" ref="AD3:AD34" si="6">_xlfn.CEILING.MATH(MIN(I3,AC3/100))</f>
         <v>8</v>
       </c>
       <c r="AE3" s="3">
-        <f>ROUND(G3*(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100),1)</f>
+        <f t="shared" ref="AE3:AE34" si="7">ROUND(G3*(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100),1)</f>
         <v>7.9</v>
       </c>
     </row>
@@ -2539,10 +2541,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" s="1">
-        <f>ROUND((J4*150/8 +(I4/1.5)^2)/ E4,0)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E4" s="1">
@@ -2585,7 +2587,7 @@
         <v>200</v>
       </c>
       <c r="R4" s="21">
-        <f>IF(Q4&gt;0,IF($Q4+$T4+$W4+$Z4 &gt; 0,MAX(1,ROUND($AD4*Q4/($Q4+$T4+$W4+$Z4),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="S4" s="9" t="s">
@@ -2595,7 +2597,7 @@
         <v>25</v>
       </c>
       <c r="U4" s="10">
-        <f>IF(T4&gt;0,IF($Q4+$T4+$W4+$Z4 &gt; 0,MAX(1,ROUND($AD4*T4/($Q4+$T4+$W4+$Z4),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V4" s="11" t="s">
@@ -2605,7 +2607,7 @@
         <v>200</v>
       </c>
       <c r="X4" s="22">
-        <f>IF(W4&gt;0,IF($Q4+$T4+$W4+$Z4 &gt; 0,MAX(1,ROUND($AD4*W4/($Q4+$T4+$W4+$Z4),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Y4" s="13" t="s">
@@ -2615,19 +2617,19 @@
         <v>25</v>
       </c>
       <c r="AA4" s="14">
-        <f>IF(Z4&gt;0,IF($Q4+$T4+$W4+$Z4 &gt; 0,MAX(1,ROUND($AD4*Z4/($Q4+$T4+$W4+$Z4),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC4" s="3">
-        <f>(1+Q4/100)*(1+T4/100)*(1+W4/100)*(1+Z4/100)*100</f>
+        <f t="shared" si="5"/>
         <v>1406.25</v>
       </c>
       <c r="AD4" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I4,AC4/100))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AE4" s="3">
-        <f>ROUND(G4*(1+Q4/100)*(1+T4/100)*(1+W4/100)*(1+Z4/100),1)</f>
+        <f t="shared" si="7"/>
         <v>28.1</v>
       </c>
     </row>
@@ -2639,10 +2641,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5" s="1">
-        <f>ROUND((J5*150/8 +(I5/1.5)^2)/ E5,0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E5" s="1">
@@ -2679,7 +2681,7 @@
         <v>100</v>
       </c>
       <c r="R5" s="21">
-        <f>IF(Q5&gt;0,IF($Q5+$T5+$W5+$Z5 &gt; 0,MAX(1,ROUND($AD5*Q5/($Q5+$T5+$W5+$Z5),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S5" s="9" t="s">
@@ -2689,7 +2691,7 @@
         <v>100</v>
       </c>
       <c r="U5" s="10">
-        <f>IF(T5&gt;0,IF($Q5+$T5+$W5+$Z5 &gt; 0,MAX(1,ROUND($AD5*T5/($Q5+$T5+$W5+$Z5),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V5" s="11" t="s">
@@ -2699,23 +2701,23 @@
         <v>25</v>
       </c>
       <c r="X5" s="22">
-        <f>IF(W5&gt;0,IF($Q5+$T5+$W5+$Z5 &gt; 0,MAX(1,ROUND($AD5*W5/($Q5+$T5+$W5+$Z5),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA5" s="14" t="str">
-        <f>IF(Z5&gt;0,IF($Q5+$T5+$W5+$Z5 &gt; 0,MAX(1,ROUND($AD5*Z5/($Q5+$T5+$W5+$Z5),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC5" s="3">
-        <f>(1+Q5/100)*(1+T5/100)*(1+W5/100)*(1+Z5/100)*100</f>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="AD5" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I5,AC5/100))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AE5" s="3">
-        <f>ROUND(G5*(1+Q5/100)*(1+T5/100)*(1+W5/100)*(1+Z5/100),1)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -2727,17 +2729,17 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1">
-        <f>ROUND((J6*150/8 +(I6/1.5)^2)/ E6,0)</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -2770,7 +2772,7 @@
         <v>150</v>
       </c>
       <c r="R6" s="21">
-        <f>IF(Q6&gt;0,IF($Q6+$T6+$W6+$Z6 &gt; 0,MAX(1,ROUND($AD6*Q6/($Q6+$T6+$W6+$Z6),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S6" s="9" t="s">
@@ -2780,7 +2782,7 @@
         <v>75</v>
       </c>
       <c r="U6" s="10">
-        <f>IF(T6&gt;0,IF($Q6+$T6+$W6+$Z6 &gt; 0,MAX(1,ROUND($AD6*T6/($Q6+$T6+$W6+$Z6),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V6" s="11" t="s">
@@ -2790,7 +2792,7 @@
         <v>200</v>
       </c>
       <c r="X6" s="22">
-        <f>IF(W6&gt;0,IF($Q6+$T6+$W6+$Z6 &gt; 0,MAX(1,ROUND($AD6*W6/($Q6+$T6+$W6+$Z6),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Y6" s="23" t="s">
@@ -2800,19 +2802,19 @@
         <v>50</v>
       </c>
       <c r="AA6" s="14">
-        <f>IF(Z6&gt;0,IF($Q6+$T6+$W6+$Z6 &gt; 0,MAX(1,ROUND($AD6*Z6/($Q6+$T6+$W6+$Z6),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AC6" s="3">
-        <f>(1+Q6/100)*(1+T6/100)*(1+W6/100)*(1+Z6/100)*100</f>
+        <f t="shared" si="5"/>
         <v>1968.75</v>
       </c>
       <c r="AD6" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I6,AC6/100))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AE6" s="3">
-        <f>ROUND(G6*(1+Q6/100)*(1+T6/100)*(1+W6/100)*(1+Z6/100),1)</f>
+        <f t="shared" si="7"/>
         <v>59.1</v>
       </c>
     </row>
@@ -2824,17 +2826,17 @@
         <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" s="1">
-        <f>ROUND((J7*150/8 +(I7/1.5)^2)/ E7,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G7" s="3">
         <v>25</v>
@@ -2864,7 +2866,7 @@
         <v>200</v>
       </c>
       <c r="R7" s="21">
-        <f>IF(Q7&gt;0,IF($Q7+$T7+$W7+$Z7 &gt; 0,MAX(1,ROUND($AD7*Q7/($Q7+$T7+$W7+$Z7),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S7" s="9" t="s">
@@ -2874,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="U7" s="10">
-        <f>IF(T7&gt;0,IF($Q7+$T7+$W7+$Z7 &gt; 0,MAX(1,ROUND($AD7*T7/($Q7+$T7+$W7+$Z7),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V7" s="11" t="s">
@@ -2884,26 +2886,26 @@
         <v>25</v>
       </c>
       <c r="X7" s="22">
-        <f>IF(W7&gt;0,IF($Q7+$T7+$W7+$Z7 &gt; 0,MAX(1,ROUND($AD7*W7/($Q7+$T7+$W7+$Z7),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA7" s="14" t="str">
-        <f>IF(Z7&gt;0,IF($Q7+$T7+$W7+$Z7 &gt; 0,MAX(1,ROUND($AD7*Z7/($Q7+$T7+$W7+$Z7),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB7" s="15">
         <v>1</v>
       </c>
       <c r="AC7" s="3">
-        <f>(1+Q7/100)*(1+T7/100)*(1+W7/100)*(1+Z7/100)*100</f>
+        <f t="shared" si="5"/>
         <v>468.75</v>
       </c>
       <c r="AD7" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I7,AC7/100))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AE7" s="3">
-        <f>ROUND(G7*(1+Q7/100)*(1+T7/100)*(1+W7/100)*(1+Z7/100),1)</f>
+        <f t="shared" si="7"/>
         <v>117.2</v>
       </c>
     </row>
@@ -2915,17 +2917,17 @@
         <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" s="1">
-        <f>ROUND((J8*150/8 +(I8/1.5)^2)/ E8,0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G8" s="3">
         <v>4</v>
@@ -2958,7 +2960,7 @@
         <v>25</v>
       </c>
       <c r="R8" s="21">
-        <f>IF(Q8&gt;0,IF($Q8+$T8+$W8+$Z8 &gt; 0,MAX(1,ROUND($AD8*Q8/($Q8+$T8+$W8+$Z8),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S8" s="9" t="s">
@@ -2968,7 +2970,7 @@
         <v>25</v>
       </c>
       <c r="U8" s="24">
-        <f>IF(T8&gt;0,IF($Q8+$T8+$W8+$Z8 &gt; 0,MAX(1,ROUND($AD8*T8/($Q8+$T8+$W8+$Z8),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V8" s="11" t="s">
@@ -2978,51 +2980,51 @@
         <v>100</v>
       </c>
       <c r="X8" s="22">
-        <f>IF(W8&gt;0,IF($Q8+$T8+$W8+$Z8 &gt; 0,MAX(1,ROUND($AD8*W8/($Q8+$T8+$W8+$Z8),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AA8" s="14" t="str">
-        <f>IF(Z8&gt;0,IF($Q8+$T8+$W8+$Z8 &gt; 0,MAX(1,ROUND($AD8*Z8/($Q8+$T8+$W8+$Z8),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC8" s="3">
-        <f>(1+Q8/100)*(1+T8/100)*(1+W8/100)*(1+Z8/100)*100</f>
+        <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
       <c r="AD8" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I8,AC8/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE8" s="3">
-        <f>ROUND(G8*(1+Q8/100)*(1+T8/100)*(1+W8/100)*(1+Z8/100),1)</f>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="D9" s="1">
-        <f>ROUND((J9*150/8 +(I9/1.5)^2)/ E9,0)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="I9" s="4">
         <v>10</v>
@@ -3031,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>44</v>
@@ -3040,7 +3042,7 @@
         <v>97</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>31</v>
@@ -3049,7 +3051,7 @@
         <v>50</v>
       </c>
       <c r="R9" s="21">
-        <f>IF(Q9&gt;0,IF($Q9+$T9+$W9+$Z9 &gt; 0,MAX(1,ROUND($AD9*Q9/($Q9+$T9+$W9+$Z9),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S9" s="9" t="s">
@@ -3059,17 +3061,17 @@
         <v>75</v>
       </c>
       <c r="U9" s="10">
-        <f>IF(T9&gt;0,IF($Q9+$T9+$W9+$Z9 &gt; 0,MAX(1,ROUND($AD9*T9/($Q9+$T9+$W9+$Z9),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W9" s="12">
         <v>75</v>
       </c>
       <c r="X9" s="22">
-        <f>IF(W9&gt;0,IF($Q9+$T9+$W9+$Z9 &gt; 0,MAX(1,ROUND($AD9*W9/($Q9+$T9+$W9+$Z9),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y9" s="13" t="s">
@@ -3079,19 +3081,19 @@
         <v>100</v>
       </c>
       <c r="AA9" s="14">
-        <f>IF(Z9&gt;0,IF($Q9+$T9+$W9+$Z9 &gt; 0,MAX(1,ROUND($AD9*Z9/($Q9+$T9+$W9+$Z9),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AC9" s="3">
-        <f>(1+Q9/100)*(1+T9/100)*(1+W9/100)*(1+Z9/100)*100</f>
+        <f t="shared" si="5"/>
         <v>918.75</v>
       </c>
       <c r="AD9" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I9,AC9/100))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AE9" s="3">
-        <f>ROUND(G9*(1+Q9/100)*(1+T9/100)*(1+W9/100)*(1+Z9/100),1)</f>
+        <f t="shared" si="7"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3103,10 +3105,10 @@
         <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" s="1">
-        <f>ROUND((J10*150/8 +(I10/1.5)^2)/ E10,0)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E10" s="1">
@@ -3146,7 +3148,7 @@
         <v>200</v>
       </c>
       <c r="R10" s="21">
-        <f>IF(Q10&gt;0,IF($Q10+$T10+$W10+$Z10 &gt; 0,MAX(1,ROUND($AD10*Q10/($Q10+$T10+$W10+$Z10),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S10" s="9" t="s">
@@ -3156,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="10">
-        <f>IF(T10&gt;0,IF($Q10+$T10+$W10+$Z10 &gt; 0,MAX(1,ROUND($AD10*T10/($Q10+$T10+$W10+$Z10),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V10" s="11" t="s">
@@ -3166,23 +3168,23 @@
         <v>25</v>
       </c>
       <c r="X10" s="22">
-        <f>IF(W10&gt;0,IF($Q10+$T10+$W10+$Z10 &gt; 0,MAX(1,ROUND($AD10*W10/($Q10+$T10+$W10+$Z10),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA10" s="14" t="str">
-        <f>IF(Z10&gt;0,IF($Q10+$T10+$W10+$Z10 &gt; 0,MAX(1,ROUND($AD10*Z10/($Q10+$T10+$W10+$Z10),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC10" s="3">
-        <f>(1+Q10/100)*(1+T10/100)*(1+W10/100)*(1+Z10/100)*100</f>
+        <f t="shared" si="5"/>
         <v>378.75000000000006</v>
       </c>
       <c r="AD10" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I10,AC10/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE10" s="3">
-        <f>ROUND(G10*(1+Q10/100)*(1+T10/100)*(1+W10/100)*(1+Z10/100),1)</f>
+        <f t="shared" si="7"/>
         <v>7.6</v>
       </c>
     </row>
@@ -3194,10 +3196,10 @@
         <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11" s="1">
-        <f>ROUND((J11*150/8 +(I11/1.5)^2)/ E11,0)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="E11" s="1">
@@ -3237,7 +3239,7 @@
         <v>100</v>
       </c>
       <c r="R11" s="21">
-        <f>IF(Q11&gt;0,IF($Q11+$T11+$W11+$Z11 &gt; 0,MAX(1,ROUND($AD11*Q11/($Q11+$T11+$W11+$Z11),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S11" s="9" t="s">
@@ -3247,7 +3249,7 @@
         <v>75</v>
       </c>
       <c r="U11" s="10">
-        <f>IF(T11&gt;0,IF($Q11+$T11+$W11+$Z11 &gt; 0,MAX(1,ROUND($AD11*T11/($Q11+$T11+$W11+$Z11),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V11" s="11" t="s">
@@ -3257,23 +3259,23 @@
         <v>25</v>
       </c>
       <c r="X11" s="22">
-        <f>IF(W11&gt;0,IF($Q11+$T11+$W11+$Z11 &gt; 0,MAX(1,ROUND($AD11*W11/($Q11+$T11+$W11+$Z11),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA11" s="14" t="str">
-        <f>IF(Z11&gt;0,IF($Q11+$T11+$W11+$Z11 &gt; 0,MAX(1,ROUND($AD11*Z11/($Q11+$T11+$W11+$Z11),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC11" s="3">
-        <f>(1+Q11/100)*(1+T11/100)*(1+W11/100)*(1+Z11/100)*100</f>
+        <f t="shared" si="5"/>
         <v>437.5</v>
       </c>
       <c r="AD11" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I11,AC11/100))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AE11" s="3">
-        <f>ROUND(G11*(1+Q11/100)*(1+T11/100)*(1+W11/100)*(1+Z11/100),1)</f>
+        <f t="shared" si="7"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -3285,10 +3287,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D12" s="1">
-        <f>ROUND((J12*150/8 +(I12/1.5)^2)/ E12,0)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="E12" s="1">
@@ -3328,7 +3330,7 @@
         <v>75</v>
       </c>
       <c r="R12" s="21">
-        <f>IF(Q12&gt;0,IF($Q12+$T12+$W12+$Z12 &gt; 0,MAX(1,ROUND($AD12*Q12/($Q12+$T12+$W12+$Z12),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S12" s="9" t="s">
@@ -3338,7 +3340,7 @@
         <v>150</v>
       </c>
       <c r="U12" s="10">
-        <f>IF(T12&gt;0,IF($Q12+$T12+$W12+$Z12 &gt; 0,MAX(1,ROUND($AD12*T12/($Q12+$T12+$W12+$Z12),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V12" s="11" t="s">
@@ -3348,7 +3350,7 @@
         <v>50</v>
       </c>
       <c r="X12" s="22">
-        <f>IF(W12&gt;0,IF($Q12+$T12+$W12+$Z12 &gt; 0,MAX(1,ROUND($AD12*W12/($Q12+$T12+$W12+$Z12),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y12" s="13" t="s">
@@ -3358,19 +3360,19 @@
         <v>50</v>
       </c>
       <c r="AA12" s="14">
-        <f>IF(Z12&gt;0,IF($Q12+$T12+$W12+$Z12 &gt; 0,MAX(1,ROUND($AD12*Z12/($Q12+$T12+$W12+$Z12),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AC12" s="3">
-        <f>(1+Q12/100)*(1+T12/100)*(1+W12/100)*(1+Z12/100)*100</f>
+        <f t="shared" si="5"/>
         <v>984.375</v>
       </c>
       <c r="AD12" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I12,AC12/100))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AE12" s="3">
-        <f>ROUND(G12*(1+Q12/100)*(1+T12/100)*(1+W12/100)*(1+Z12/100),1)</f>
+        <f t="shared" si="7"/>
         <v>49.2</v>
       </c>
     </row>
@@ -3382,10 +3384,10 @@
         <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D13" s="1">
-        <f>ROUND((J13*150/8 +(I13/1.5)^2)/ E13,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E13" s="1">
@@ -3425,7 +3427,7 @@
         <v>50</v>
       </c>
       <c r="R13" s="21">
-        <f>IF(Q13&gt;0,IF($Q13+$T13+$W13+$Z13 &gt; 0,MAX(1,ROUND($AD13*Q13/($Q13+$T13+$W13+$Z13),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S13" s="9" t="s">
@@ -3435,7 +3437,7 @@
         <v>75</v>
       </c>
       <c r="U13" s="10">
-        <f>IF(T13&gt;0,IF($Q13+$T13+$W13+$Z13 &gt; 0,MAX(1,ROUND($AD13*T13/($Q13+$T13+$W13+$Z13),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V13" s="11" t="s">
@@ -3445,23 +3447,23 @@
         <v>200</v>
       </c>
       <c r="X13" s="22">
-        <f>IF(W13&gt;0,IF($Q13+$T13+$W13+$Z13 &gt; 0,MAX(1,ROUND($AD13*W13/($Q13+$T13+$W13+$Z13),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AA13" s="14" t="str">
-        <f>IF(Z13&gt;0,IF($Q13+$T13+$W13+$Z13 &gt; 0,MAX(1,ROUND($AD13*Z13/($Q13+$T13+$W13+$Z13),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC13" s="3">
-        <f>(1+Q13/100)*(1+T13/100)*(1+W13/100)*(1+Z13/100)*100</f>
+        <f t="shared" si="5"/>
         <v>787.5</v>
       </c>
       <c r="AD13" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I13,AC13/100))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AE13" s="3">
-        <f>ROUND(G13*(1+Q13/100)*(1+T13/100)*(1+W13/100)*(1+Z13/100),1)</f>
+        <f t="shared" si="7"/>
         <v>15.8</v>
       </c>
     </row>
@@ -3473,17 +3475,17 @@
         <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D14" s="1">
-        <f>ROUND((J14*150/8 +(I14/1.5)^2)/ E14,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -3516,7 +3518,7 @@
         <v>50</v>
       </c>
       <c r="R14" s="21">
-        <f>IF(Q14&gt;0,IF($Q14+$T14+$W14+$Z14 &gt; 0,MAX(1,ROUND($AD14*Q14/($Q14+$T14+$W14+$Z14),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S14" s="9" t="s">
@@ -3526,7 +3528,7 @@
         <v>150</v>
       </c>
       <c r="U14" s="10">
-        <f>IF(T14&gt;0,IF($Q14+$T14+$W14+$Z14 &gt; 0,MAX(1,ROUND($AD14*T14/($Q14+$T14+$W14+$Z14),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="V14" s="11" t="s">
@@ -3536,23 +3538,23 @@
         <v>50</v>
       </c>
       <c r="X14" s="22">
-        <f>IF(W14&gt;0,IF($Q14+$T14+$W14+$Z14 &gt; 0,MAX(1,ROUND($AD14*W14/($Q14+$T14+$W14+$Z14),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA14" s="14" t="str">
-        <f>IF(Z14&gt;0,IF($Q14+$T14+$W14+$Z14 &gt; 0,MAX(1,ROUND($AD14*Z14/($Q14+$T14+$W14+$Z14),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC14" s="3">
-        <f>(1+Q14/100)*(1+T14/100)*(1+W14/100)*(1+Z14/100)*100</f>
+        <f t="shared" si="5"/>
         <v>562.5</v>
       </c>
       <c r="AD14" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I14,AC14/100))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AE14" s="3">
-        <f>ROUND(G14*(1+Q14/100)*(1+T14/100)*(1+W14/100)*(1+Z14/100),1)</f>
+        <f t="shared" si="7"/>
         <v>11.3</v>
       </c>
     </row>
@@ -3564,10 +3566,10 @@
         <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D15" s="1">
-        <f>ROUND((J15*150/8 +(I15/1.5)^2)/ E15,0)</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="E15" s="1">
@@ -3607,7 +3609,7 @@
         <v>200</v>
       </c>
       <c r="R15" s="21">
-        <f>IF(Q15&gt;0,IF($Q15+$T15+$W15+$Z15 &gt; 0,MAX(1,ROUND($AD15*Q15/($Q15+$T15+$W15+$Z15),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="S15" s="9" t="s">
@@ -3617,7 +3619,7 @@
         <v>25</v>
       </c>
       <c r="U15" s="10">
-        <f>IF(T15&gt;0,IF($Q15+$T15+$W15+$Z15 &gt; 0,MAX(1,ROUND($AD15*T15/($Q15+$T15+$W15+$Z15),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V15" s="11" t="s">
@@ -3627,7 +3629,7 @@
         <v>50</v>
       </c>
       <c r="X15" s="22">
-        <f>IF(W15&gt;0,IF($Q15+$T15+$W15+$Z15 &gt; 0,MAX(1,ROUND($AD15*W15/($Q15+$T15+$W15+$Z15),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y15" s="13" t="s">
@@ -3637,19 +3639,19 @@
         <v>100</v>
       </c>
       <c r="AA15" s="14">
-        <f>IF(Z15&gt;0,IF($Q15+$T15+$W15+$Z15 &gt; 0,MAX(1,ROUND($AD15*Z15/($Q15+$T15+$W15+$Z15),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AC15" s="3">
-        <f>(1+Q15/100)*(1+T15/100)*(1+W15/100)*(1+Z15/100)*100</f>
+        <f t="shared" si="5"/>
         <v>1125</v>
       </c>
       <c r="AD15" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I15,AC15/100))</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AE15" s="3">
-        <f>ROUND(G15*(1+Q15/100)*(1+T15/100)*(1+W15/100)*(1+Z15/100),1)</f>
+        <f t="shared" si="7"/>
         <v>22.5</v>
       </c>
     </row>
@@ -3661,10 +3663,10 @@
         <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D16" s="1">
-        <f>ROUND((J16*150/8 +(I16/1.5)^2)/ E16,0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E16" s="1">
@@ -3704,7 +3706,7 @@
         <v>100</v>
       </c>
       <c r="R16" s="21">
-        <f>IF(Q16&gt;0,IF($Q16+$T16+$W16+$Z16 &gt; 0,MAX(1,ROUND($AD16*Q16/($Q16+$T16+$W16+$Z16),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S16" s="9" t="s">
@@ -3714,7 +3716,7 @@
         <v>150</v>
       </c>
       <c r="U16" s="10">
-        <f>IF(T16&gt;0,IF($Q16+$T16+$W16+$Z16 &gt; 0,MAX(1,ROUND($AD16*T16/($Q16+$T16+$W16+$Z16),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="V16" s="11" t="s">
@@ -3724,7 +3726,7 @@
         <v>50</v>
       </c>
       <c r="X16" s="22">
-        <f>IF(W16&gt;0,IF($Q16+$T16+$W16+$Z16 &gt; 0,MAX(1,ROUND($AD16*W16/($Q16+$T16+$W16+$Z16),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y16" s="13" t="s">
@@ -3734,19 +3736,19 @@
         <v>25</v>
       </c>
       <c r="AA16" s="14">
-        <f>IF(Z16&gt;0,IF($Q16+$T16+$W16+$Z16 &gt; 0,MAX(1,ROUND($AD16*Z16/($Q16+$T16+$W16+$Z16),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AC16" s="3">
-        <f>(1+Q16/100)*(1+T16/100)*(1+W16/100)*(1+Z16/100)*100</f>
+        <f t="shared" si="5"/>
         <v>937.5</v>
       </c>
       <c r="AD16" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I16,AC16/100))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AE16" s="3">
-        <f>ROUND(G16*(1+Q16/100)*(1+T16/100)*(1+W16/100)*(1+Z16/100),1)</f>
+        <f t="shared" si="7"/>
         <v>18.8</v>
       </c>
     </row>
@@ -3758,17 +3760,17 @@
         <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D17" s="1">
-        <f>ROUND((J17*150/8 +(I17/1.5)^2)/ E17,0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -3801,7 +3803,7 @@
         <v>200</v>
       </c>
       <c r="R17" s="21">
-        <f>IF(Q17&gt;0,IF($Q17+$T17+$W17+$Z17 &gt; 0,MAX(1,ROUND($AD17*Q17/($Q17+$T17+$W17+$Z17),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S17" s="9" t="s">
@@ -3811,7 +3813,7 @@
         <v>75</v>
       </c>
       <c r="U17" s="10">
-        <f>IF(T17&gt;0,IF($Q17+$T17+$W17+$Z17 &gt; 0,MAX(1,ROUND($AD17*T17/($Q17+$T17+$W17+$Z17),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V17" s="11" t="s">
@@ -3821,7 +3823,7 @@
         <v>25</v>
       </c>
       <c r="X17" s="22">
-        <f>IF(W17&gt;0,IF($Q17+$T17+$W17+$Z17 &gt; 0,MAX(1,ROUND($AD17*W17/($Q17+$T17+$W17+$Z17),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y17" s="13" t="s">
@@ -3831,19 +3833,19 @@
         <v>75</v>
       </c>
       <c r="AA17" s="14">
-        <f>IF(Z17&gt;0,IF($Q17+$T17+$W17+$Z17 &gt; 0,MAX(1,ROUND($AD17*Z17/($Q17+$T17+$W17+$Z17),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AC17" s="3">
-        <f>(1+Q17/100)*(1+T17/100)*(1+W17/100)*(1+Z17/100)*100</f>
+        <f t="shared" si="5"/>
         <v>1148.4375</v>
       </c>
       <c r="AD17" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I17,AC17/100))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AE17" s="3">
-        <f>ROUND(G17*(1+Q17/100)*(1+T17/100)*(1+W17/100)*(1+Z17/100),1)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
@@ -3855,10 +3857,10 @@
         <v>152</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D18" s="1">
-        <f>ROUND((J18*150/8 +(I18/1.5)^2)/ E18,0)</f>
+        <f t="shared" si="0"/>
         <v>3328</v>
       </c>
       <c r="E18" s="1">
@@ -3898,7 +3900,7 @@
         <v>100</v>
       </c>
       <c r="R18" s="21">
-        <f>IF(Q18&gt;0,IF($Q18+$T18+$W18+$Z18 &gt; 0,MAX(1,ROUND($AD18*Q18/($Q18+$T18+$W18+$Z18),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S18" s="9" t="s">
@@ -3908,7 +3910,7 @@
         <v>100</v>
       </c>
       <c r="U18" s="24">
-        <f>IF(T18&gt;0,IF($Q18+$T18+$W18+$Z18 &gt; 0,MAX(1,ROUND($AD18*T18/($Q18+$T18+$W18+$Z18),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V18" s="11" t="s">
@@ -3918,23 +3920,23 @@
         <v>75</v>
       </c>
       <c r="X18" s="22">
-        <f>IF(W18&gt;0,IF($Q18+$T18+$W18+$Z18 &gt; 0,MAX(1,ROUND($AD18*W18/($Q18+$T18+$W18+$Z18),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA18" s="14" t="str">
-        <f>IF(Z18&gt;0,IF($Q18+$T18+$W18+$Z18 &gt; 0,MAX(1,ROUND($AD18*Z18/($Q18+$T18+$W18+$Z18),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC18" s="3">
-        <f>(1+Q18/100)*(1+T18/100)*(1+W18/100)*(1+Z18/100)*100</f>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
       <c r="AD18" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I18,AC18/100))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE18" s="3">
-        <f>ROUND(G18*(1+Q18/100)*(1+T18/100)*(1+W18/100)*(1+Z18/100),1)</f>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
     </row>
@@ -3946,17 +3948,17 @@
         <v>159</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D19" s="1">
-        <f>ROUND((J19*150/8 +(I19/1.5)^2)/ E19,0)</f>
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -3989,7 +3991,7 @@
         <v>25</v>
       </c>
       <c r="R19" s="21">
-        <f>IF(Q19&gt;0,IF($Q19+$T19+$W19+$Z19 &gt; 0,MAX(1,ROUND($AD19*Q19/($Q19+$T19+$W19+$Z19),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S19" s="9" t="s">
@@ -3999,7 +4001,7 @@
         <v>50</v>
       </c>
       <c r="U19" s="24">
-        <f>IF(T19&gt;0,IF($Q19+$T19+$W19+$Z19 &gt; 0,MAX(1,ROUND($AD19*T19/($Q19+$T19+$W19+$Z19),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V19" s="11" t="s">
@@ -4009,23 +4011,23 @@
         <v>100</v>
       </c>
       <c r="X19" s="22">
-        <f>IF(W19&gt;0,IF($Q19+$T19+$W19+$Z19 &gt; 0,MAX(1,ROUND($AD19*W19/($Q19+$T19+$W19+$Z19),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA19" s="14" t="str">
-        <f>IF(Z19&gt;0,IF($Q19+$T19+$W19+$Z19 &gt; 0,MAX(1,ROUND($AD19*Z19/($Q19+$T19+$W19+$Z19),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC19" s="3">
-        <f>(1+Q19/100)*(1+T19/100)*(1+W19/100)*(1+Z19/100)*100</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="AD19" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I19,AC19/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE19" s="3">
-        <f>ROUND(G19*(1+Q19/100)*(1+T19/100)*(1+W19/100)*(1+Z19/100),1)</f>
+        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
     </row>
@@ -4037,10 +4039,10 @@
         <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D20" s="1">
-        <f>ROUND((J20*150/8 +(I20/1.5)^2)/ E20,0)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E20" s="1">
@@ -4080,7 +4082,7 @@
         <v>50</v>
       </c>
       <c r="R20" s="21">
-        <f>IF(Q20&gt;0,IF($Q20+$T20+$W20+$Z20 &gt; 0,MAX(1,ROUND($AD20*Q20/($Q20+$T20+$W20+$Z20),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S20" s="9" t="s">
@@ -4090,7 +4092,7 @@
         <v>25</v>
       </c>
       <c r="U20" s="10">
-        <f>IF(T20&gt;0,IF($Q20+$T20+$W20+$Z20 &gt; 0,MAX(1,ROUND($AD20*T20/($Q20+$T20+$W20+$Z20),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V20" s="11" t="s">
@@ -4100,23 +4102,23 @@
         <v>150</v>
       </c>
       <c r="X20" s="22">
-        <f>IF(W20&gt;0,IF($Q20+$T20+$W20+$Z20 &gt; 0,MAX(1,ROUND($AD20*W20/($Q20+$T20+$W20+$Z20),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AA20" s="14" t="str">
-        <f>IF(Z20&gt;0,IF($Q20+$T20+$W20+$Z20 &gt; 0,MAX(1,ROUND($AD20*Z20/($Q20+$T20+$W20+$Z20),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC20" s="3">
-        <f>(1+Q20/100)*(1+T20/100)*(1+W20/100)*(1+Z20/100)*100</f>
+        <f t="shared" si="5"/>
         <v>468.75</v>
       </c>
       <c r="AD20" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I20,AC20/100))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AE20" s="3">
-        <f>ROUND(G20*(1+Q20/100)*(1+T20/100)*(1+W20/100)*(1+Z20/100),1)</f>
+        <f t="shared" si="7"/>
         <v>9.4</v>
       </c>
     </row>
@@ -4128,10 +4130,10 @@
         <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D21" s="1">
-        <f>ROUND((J21*150/8 +(I21/1.5)^2)/ E21,0)</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="E21" s="1">
@@ -4174,7 +4176,7 @@
         <v>100</v>
       </c>
       <c r="R21" s="21">
-        <f>IF(Q21&gt;0,IF($Q21+$T21+$W21+$Z21 &gt; 0,MAX(1,ROUND($AD21*Q21/($Q21+$T21+$W21+$Z21),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S21" s="9" t="s">
@@ -4184,7 +4186,7 @@
         <v>75</v>
       </c>
       <c r="U21" s="10">
-        <f>IF(T21&gt;0,IF($Q21+$T21+$W21+$Z21 &gt; 0,MAX(1,ROUND($AD21*T21/($Q21+$T21+$W21+$Z21),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V21" s="11" t="s">
@@ -4194,23 +4196,23 @@
         <v>75</v>
       </c>
       <c r="X21" s="22">
-        <f>IF(W21&gt;0,IF($Q21+$T21+$W21+$Z21 &gt; 0,MAX(1,ROUND($AD21*W21/($Q21+$T21+$W21+$Z21),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA21" s="14" t="str">
-        <f>IF(Z21&gt;0,IF($Q21+$T21+$W21+$Z21 &gt; 0,MAX(1,ROUND($AD21*Z21/($Q21+$T21+$W21+$Z21),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC21" s="3">
-        <f>(1+Q21/100)*(1+T21/100)*(1+W21/100)*(1+Z21/100)*100</f>
+        <f t="shared" si="5"/>
         <v>612.5</v>
       </c>
       <c r="AD21" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I21,AC21/100))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AE21" s="3">
-        <f>ROUND(G21*(1+Q21/100)*(1+T21/100)*(1+W21/100)*(1+Z21/100),1)</f>
+        <f t="shared" si="7"/>
         <v>183.8</v>
       </c>
     </row>
@@ -4222,10 +4224,10 @@
         <v>181</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D22" s="1">
-        <f>ROUND((J22*150/8 +(I22/1.5)^2)/ E22,0)</f>
+        <f t="shared" si="0"/>
         <v>194</v>
       </c>
       <c r="E22" s="1">
@@ -4265,7 +4267,7 @@
         <v>25</v>
       </c>
       <c r="R22" s="21">
-        <f>IF(Q22&gt;0,IF($Q22+$T22+$W22+$Z22 &gt; 0,MAX(1,ROUND($AD22*Q22/($Q22+$T22+$W22+$Z22),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S22" s="9" t="s">
@@ -4275,7 +4277,7 @@
         <v>200</v>
       </c>
       <c r="U22" s="10">
-        <f>IF(T22&gt;0,IF($Q22+$T22+$W22+$Z22 &gt; 0,MAX(1,ROUND($AD22*T22/($Q22+$T22+$W22+$Z22),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="V22" s="11" t="s">
@@ -4285,7 +4287,7 @@
         <v>50</v>
       </c>
       <c r="X22" s="22">
-        <f>IF(W22&gt;0,IF($Q22+$T22+$W22+$Z22 &gt; 0,MAX(1,ROUND($AD22*W22/($Q22+$T22+$W22+$Z22),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y22" s="23" t="s">
@@ -4295,22 +4297,22 @@
         <v>75</v>
       </c>
       <c r="AA22" s="14">
-        <f>IF(Z22&gt;0,IF($Q22+$T22+$W22+$Z22 &gt; 0,MAX(1,ROUND($AD22*Z22/($Q22+$T22+$W22+$Z22),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AB22" s="15">
         <v>1</v>
       </c>
       <c r="AC22" s="3">
-        <f>(1+Q22/100)*(1+T22/100)*(1+W22/100)*(1+Z22/100)*100</f>
+        <f t="shared" si="5"/>
         <v>984.375</v>
       </c>
       <c r="AD22" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I22,AC22/100))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AE22" s="3">
-        <f>ROUND(G22*(1+Q22/100)*(1+T22/100)*(1+W22/100)*(1+Z22/100),1)</f>
+        <f t="shared" si="7"/>
         <v>49.2</v>
       </c>
     </row>
@@ -4322,10 +4324,10 @@
         <v>187</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D23" s="1">
-        <f>ROUND((J23*150/8 +(I23/1.5)^2)/ E23,0)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="E23" s="1">
@@ -4368,7 +4370,7 @@
         <v>200</v>
       </c>
       <c r="R23" s="21">
-        <f>IF(Q23&gt;0,IF($Q23+$T23+$W23+$Z23 &gt; 0,MAX(1,ROUND($AD23*Q23/($Q23+$T23+$W23+$Z23),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S23" s="9" t="s">
@@ -4378,27 +4380,27 @@
         <v>75</v>
       </c>
       <c r="U23" s="10">
-        <f>IF(T23&gt;0,IF($Q23+$T23+$W23+$Z23 &gt; 0,MAX(1,ROUND($AD23*T23/($Q23+$T23+$W23+$Z23),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X23" s="22" t="str">
-        <f>IF(W23&gt;0,IF($Q23+$T23+$W23+$Z23 &gt; 0,MAX(1,ROUND($AD23*W23/($Q23+$T23+$W23+$Z23),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA23" s="14" t="str">
-        <f>IF(Z23&gt;0,IF($Q23+$T23+$W23+$Z23 &gt; 0,MAX(1,ROUND($AD23*Z23/($Q23+$T23+$W23+$Z23),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC23" s="3">
-        <f>(1+Q23/100)*(1+T23/100)*(1+W23/100)*(1+Z23/100)*100</f>
+        <f t="shared" si="5"/>
         <v>525</v>
       </c>
       <c r="AD23" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I23,AC23/100))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AE23" s="3">
-        <f>ROUND(G23*(1+Q23/100)*(1+T23/100)*(1+W23/100)*(1+Z23/100),1)</f>
+        <f t="shared" si="7"/>
         <v>26.3</v>
       </c>
     </row>
@@ -4410,10 +4412,10 @@
         <v>194</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D24" s="1">
-        <f>ROUND((J24*150/8 +(I24/1.5)^2)/ E24,0)</f>
+        <f t="shared" si="0"/>
         <v>1450</v>
       </c>
       <c r="E24" s="1">
@@ -4426,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I24" s="4">
         <v>15</v>
@@ -4453,7 +4455,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="21">
-        <f>IF(Q24&gt;0,IF($Q24+$T24+$W24+$Z24 &gt; 0,MAX(1,ROUND($AD24*Q24/($Q24+$T24+$W24+$Z24),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S24" s="9" t="s">
@@ -4463,7 +4465,7 @@
         <v>50</v>
       </c>
       <c r="U24" s="24">
-        <f>IF(T24&gt;0,IF($Q24+$T24+$W24+$Z24 &gt; 0,MAX(1,ROUND($AD24*T24/($Q24+$T24+$W24+$Z24),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V24" s="11" t="s">
@@ -4473,23 +4475,23 @@
         <v>75</v>
       </c>
       <c r="X24" s="22">
-        <f>IF(W24&gt;0,IF($Q24+$T24+$W24+$Z24 &gt; 0,MAX(1,ROUND($AD24*W24/($Q24+$T24+$W24+$Z24),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA24" s="14" t="str">
-        <f>IF(Z24&gt;0,IF($Q24+$T24+$W24+$Z24 &gt; 0,MAX(1,ROUND($AD24*Z24/($Q24+$T24+$W24+$Z24),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC24" s="3">
-        <f>(1+Q24/100)*(1+T24/100)*(1+W24/100)*(1+Z24/100)*100</f>
+        <f t="shared" si="5"/>
         <v>525</v>
       </c>
       <c r="AD24" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I24,AC24/100))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AE24" s="3">
-        <f>ROUND(G24*(1+Q24/100)*(1+T24/100)*(1+W24/100)*(1+Z24/100),1)</f>
+        <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
     </row>
@@ -4501,17 +4503,17 @@
         <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D25" s="1">
-        <f>ROUND((J25*150/8 +(I25/1.5)^2)/ E25,0)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
@@ -4544,7 +4546,7 @@
         <v>75</v>
       </c>
       <c r="R25" s="21">
-        <f>IF(Q25&gt;0,IF($Q25+$T25+$W25+$Z25 &gt; 0,MAX(1,ROUND($AD25*Q25/($Q25+$T25+$W25+$Z25),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S25" s="9" t="s">
@@ -4554,7 +4556,7 @@
         <v>50</v>
       </c>
       <c r="U25" s="10">
-        <f>IF(T25&gt;0,IF($Q25+$T25+$W25+$Z25 &gt; 0,MAX(1,ROUND($AD25*T25/($Q25+$T25+$W25+$Z25),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V25" s="11" t="s">
@@ -4564,23 +4566,23 @@
         <v>50</v>
       </c>
       <c r="X25" s="22">
-        <f>IF(W25&gt;0,IF($Q25+$T25+$W25+$Z25 &gt; 0,MAX(1,ROUND($AD25*W25/($Q25+$T25+$W25+$Z25),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA25" s="14" t="str">
-        <f>IF(Z25&gt;0,IF($Q25+$T25+$W25+$Z25 &gt; 0,MAX(1,ROUND($AD25*Z25/($Q25+$T25+$W25+$Z25),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC25" s="3">
-        <f>(1+Q25/100)*(1+T25/100)*(1+W25/100)*(1+Z25/100)*100</f>
+        <f t="shared" si="5"/>
         <v>393.75</v>
       </c>
       <c r="AD25" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I25,AC25/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE25" s="3">
-        <f>ROUND(G25*(1+Q25/100)*(1+T25/100)*(1+W25/100)*(1+Z25/100),1)</f>
+        <f t="shared" si="7"/>
         <v>19.7</v>
       </c>
     </row>
@@ -4592,10 +4594,10 @@
         <v>203</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D26" s="1">
-        <f>ROUND((J26*150/8 +(I26/1.5)^2)/ E26,0)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E26" s="1">
@@ -4635,7 +4637,7 @@
         <v>100</v>
       </c>
       <c r="R26" s="21">
-        <f>IF(Q26&gt;0,IF($Q26+$T26+$W26+$Z26 &gt; 0,MAX(1,ROUND($AD26*Q26/($Q26+$T26+$W26+$Z26),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="S26" s="9" t="s">
@@ -4645,7 +4647,7 @@
         <v>75</v>
       </c>
       <c r="U26" s="24">
-        <f>IF(T26&gt;0,IF($Q26+$T26+$W26+$Z26 &gt; 0,MAX(1,ROUND($AD26*T26/($Q26+$T26+$W26+$Z26),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V26" s="11" t="s">
@@ -4655,23 +4657,23 @@
         <v>50</v>
       </c>
       <c r="X26" s="22">
-        <f>IF(W26&gt;0,IF($Q26+$T26+$W26+$Z26 &gt; 0,MAX(1,ROUND($AD26*W26/($Q26+$T26+$W26+$Z26),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA26" s="14" t="str">
-        <f>IF(Z26&gt;0,IF($Q26+$T26+$W26+$Z26 &gt; 0,MAX(1,ROUND($AD26*Z26/($Q26+$T26+$W26+$Z26),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC26" s="3">
-        <f>(1+Q26/100)*(1+T26/100)*(1+W26/100)*(1+Z26/100)*100</f>
+        <f t="shared" si="5"/>
         <v>525</v>
       </c>
       <c r="AD26" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I26,AC26/100))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AE26" s="3">
-        <f>ROUND(G26*(1+Q26/100)*(1+T26/100)*(1+W26/100)*(1+Z26/100),1)</f>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
     </row>
@@ -4683,10 +4685,10 @@
         <v>210</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D27" s="1">
-        <f>ROUND((J27*150/8 +(I27/1.5)^2)/ E27,0)</f>
+        <f t="shared" si="0"/>
         <v>6478</v>
       </c>
       <c r="E27" s="1">
@@ -4727,7 +4729,7 @@
         <v>150</v>
       </c>
       <c r="R27" s="21">
-        <f>IF(Q27&gt;0,IF($Q27+$T27+$W27+$Z27 &gt; 0,MAX(1,ROUND($AD27*Q27/($Q27+$T27+$W27+$Z27),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -4737,7 +4739,7 @@
         <v>50</v>
       </c>
       <c r="U27" s="10">
-        <f>IF(T27&gt;0,IF($Q27+$T27+$W27+$Z27 &gt; 0,MAX(1,ROUND($AD27*T27/($Q27+$T27+$W27+$Z27),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V27" s="11" t="s">
@@ -4747,23 +4749,23 @@
         <v>100</v>
       </c>
       <c r="X27" s="22">
-        <f>IF(W27&gt;0,IF($Q27+$T27+$W27+$Z27 &gt; 0,MAX(1,ROUND($AD27*W27/($Q27+$T27+$W27+$Z27),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AA27" s="14" t="str">
-        <f>IF(Z27&gt;0,IF($Q27+$T27+$W27+$Z27 &gt; 0,MAX(1,ROUND($AD27*Z27/($Q27+$T27+$W27+$Z27),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC27" s="3">
-        <f>(1+Q27/100)*(1+T27/100)*(1+W27/100)*(1+Z27/100)*100</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="AD27" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I27,AC27/100))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AE27" s="3">
-        <f>ROUND(G27*(1+Q27/100)*(1+T27/100)*(1+W27/100)*(1+Z27/100),1)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -4775,10 +4777,10 @@
         <v>216</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D28" s="1">
-        <f>ROUND((J28*150/8 +(I28/1.5)^2)/ E28,0)</f>
+        <f t="shared" si="0"/>
         <v>3328</v>
       </c>
       <c r="E28" s="1">
@@ -4821,7 +4823,7 @@
         <v>200</v>
       </c>
       <c r="R28" s="21">
-        <f>IF(Q28&gt;0,IF($Q28+$T28+$W28+$Z28 &gt; 0,MAX(1,ROUND($AD28*Q28/($Q28+$T28+$W28+$Z28),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S28" s="9" t="s">
@@ -4831,7 +4833,7 @@
         <v>50</v>
       </c>
       <c r="U28" s="10">
-        <f>IF(T28&gt;0,IF($Q28+$T28+$W28+$Z28 &gt; 0,MAX(1,ROUND($AD28*T28/($Q28+$T28+$W28+$Z28),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V28" s="11" t="s">
@@ -4841,23 +4843,23 @@
         <v>75</v>
       </c>
       <c r="X28" s="22">
-        <f>IF(W28&gt;0,IF($Q28+$T28+$W28+$Z28 &gt; 0,MAX(1,ROUND($AD28*W28/($Q28+$T28+$W28+$Z28),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AA28" s="14" t="str">
-        <f>IF(Z28&gt;0,IF($Q28+$T28+$W28+$Z28 &gt; 0,MAX(1,ROUND($AD28*Z28/($Q28+$T28+$W28+$Z28),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC28" s="3">
-        <f>(1+Q28/100)*(1+T28/100)*(1+W28/100)*(1+Z28/100)*100</f>
+        <f t="shared" si="5"/>
         <v>787.5</v>
       </c>
       <c r="AD28" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I28,AC28/100))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AE28" s="3">
-        <f>ROUND(G28*(1+Q28/100)*(1+T28/100)*(1+W28/100)*(1+Z28/100),1)</f>
+        <f t="shared" si="7"/>
         <v>393.8</v>
       </c>
     </row>
@@ -4869,10 +4871,10 @@
         <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D29" s="1">
-        <f>ROUND((J29*150/8 +(I29/1.5)^2)/ E29,0)</f>
+        <f t="shared" si="0"/>
         <v>971</v>
       </c>
       <c r="E29" s="1">
@@ -4912,7 +4914,7 @@
         <v>75</v>
       </c>
       <c r="R29" s="21">
-        <f>IF(Q29&gt;0,IF($Q29+$T29+$W29+$Z29 &gt; 0,MAX(1,ROUND($AD29*Q29/($Q29+$T29+$W29+$Z29),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S29" s="9" t="s">
@@ -4922,7 +4924,7 @@
         <v>25</v>
       </c>
       <c r="U29" s="10">
-        <f>IF(T29&gt;0,IF($Q29+$T29+$W29+$Z29 &gt; 0,MAX(1,ROUND($AD29*T29/($Q29+$T29+$W29+$Z29),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V29" s="11" t="s">
@@ -4932,45 +4934,45 @@
         <v>50</v>
       </c>
       <c r="X29" s="22">
-        <f>IF(W29&gt;0,IF($Q29+$T29+$W29+$Z29 &gt; 0,MAX(1,ROUND($AD29*W29/($Q29+$T29+$W29+$Z29),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA29" s="14" t="str">
-        <f>IF(Z29&gt;0,IF($Q29+$T29+$W29+$Z29 &gt; 0,MAX(1,ROUND($AD29*Z29/($Q29+$T29+$W29+$Z29),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC29" s="3">
-        <f>(1+Q29/100)*(1+T29/100)*(1+W29/100)*(1+Z29/100)*100</f>
+        <f t="shared" si="5"/>
         <v>328.125</v>
       </c>
       <c r="AD29" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I29,AC29/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE29" s="3">
-        <f>ROUND(G29*(1+Q29/100)*(1+T29/100)*(1+W29/100)*(1+Z29/100),1)</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="D30" s="1">
-        <f>ROUND((J30*150/8 +(I30/1.5)^2)/ E30,0)</f>
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G30" s="3">
         <v>4</v>
@@ -4985,7 +4987,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>207</v>
@@ -4997,13 +4999,13 @@
         <v>101</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q30" s="8">
         <v>25</v>
       </c>
       <c r="R30" s="21">
-        <f>IF(Q30&gt;0,IF($Q30+$T30+$W30+$Z30 &gt; 0,MAX(1,ROUND($AD30*Q30/($Q30+$T30+$W30+$Z30),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S30" s="9" t="s">
@@ -5013,7 +5015,7 @@
         <v>50</v>
       </c>
       <c r="U30" s="10">
-        <f>IF(T30&gt;0,IF($Q30+$T30+$W30+$Z30 &gt; 0,MAX(1,ROUND($AD30*T30/($Q30+$T30+$W30+$Z30),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V30" s="11" t="s">
@@ -5023,29 +5025,29 @@
         <v>100</v>
       </c>
       <c r="X30" s="22">
-        <f>IF(W30&gt;0,IF($Q30+$T30+$W30+$Z30 &gt; 0,MAX(1,ROUND($AD30*W30/($Q30+$T30+$W30+$Z30),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z30" s="14">
         <v>100</v>
       </c>
       <c r="AA30" s="14">
-        <f>IF(Z30&gt;0,IF($Q30+$T30+$W30+$Z30 &gt; 0,MAX(1,ROUND($AD30*Z30/($Q30+$T30+$W30+$Z30),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AC30" s="3">
-        <f>(1+Q30/100)*(1+T30/100)*(1+W30/100)*(1+Z30/100)*100</f>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="AD30" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I30,AC30/100))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AE30" s="3">
-        <f>ROUND(G30*(1+Q30/100)*(1+T30/100)*(1+W30/100)*(1+Z30/100),1)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -5057,10 +5059,10 @@
         <v>227</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D31" s="1">
-        <f>ROUND((J31*150/8 +(I31/1.5)^2)/ E31,0)</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="E31" s="1">
@@ -5100,7 +5102,7 @@
         <v>50</v>
       </c>
       <c r="R31" s="21">
-        <f>IF(Q31&gt;0,IF($Q31+$T31+$W31+$Z31 &gt; 0,MAX(1,ROUND($AD31*Q31/($Q31+$T31+$W31+$Z31),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S31" s="9" t="s">
@@ -5110,7 +5112,7 @@
         <v>75</v>
       </c>
       <c r="U31" s="10">
-        <f>IF(T31&gt;0,IF($Q31+$T31+$W31+$Z31 &gt; 0,MAX(1,ROUND($AD31*T31/($Q31+$T31+$W31+$Z31),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V31" s="11" t="s">
@@ -5120,23 +5122,23 @@
         <v>50</v>
       </c>
       <c r="X31" s="22">
-        <f>IF(W31&gt;0,IF($Q31+$T31+$W31+$Z31 &gt; 0,MAX(1,ROUND($AD31*W31/($Q31+$T31+$W31+$Z31),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA31" s="14" t="str">
-        <f>IF(Z31&gt;0,IF($Q31+$T31+$W31+$Z31 &gt; 0,MAX(1,ROUND($AD31*Z31/($Q31+$T31+$W31+$Z31),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC31" s="3">
-        <f>(1+Q31/100)*(1+T31/100)*(1+W31/100)*(1+Z31/100)*100</f>
+        <f t="shared" si="5"/>
         <v>393.75</v>
       </c>
       <c r="AD31" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I31,AC31/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE31" s="3">
-        <f>ROUND(G31*(1+Q31/100)*(1+T31/100)*(1+W31/100)*(1+Z31/100),1)</f>
+        <f t="shared" si="7"/>
         <v>118.1</v>
       </c>
     </row>
@@ -5148,10 +5150,10 @@
         <v>231</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D32" s="1">
-        <f>ROUND((J32*150/8 +(I32/1.5)^2)/ E32,0)</f>
+        <f t="shared" si="0"/>
         <v>1528</v>
       </c>
       <c r="E32" s="1">
@@ -5191,7 +5193,7 @@
         <v>75</v>
       </c>
       <c r="R32" s="21">
-        <f>IF(Q32&gt;0,IF($Q32+$T32+$W32+$Z32 &gt; 0,MAX(1,ROUND($AD32*Q32/($Q32+$T32+$W32+$Z32),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S32" s="9" t="s">
@@ -5201,27 +5203,27 @@
         <v>100</v>
       </c>
       <c r="U32" s="24">
-        <f>IF(T32&gt;0,IF($Q32+$T32+$W32+$Z32 &gt; 0,MAX(1,ROUND($AD32*T32/($Q32+$T32+$W32+$Z32),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X32" s="22" t="str">
-        <f>IF(W32&gt;0,IF($Q32+$T32+$W32+$Z32 &gt; 0,MAX(1,ROUND($AD32*W32/($Q32+$T32+$W32+$Z32),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA32" s="14" t="str">
-        <f>IF(Z32&gt;0,IF($Q32+$T32+$W32+$Z32 &gt; 0,MAX(1,ROUND($AD32*Z32/($Q32+$T32+$W32+$Z32),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC32" s="3">
-        <f>(1+Q32/100)*(1+T32/100)*(1+W32/100)*(1+Z32/100)*100</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="AD32" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I32,AC32/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE32" s="3">
-        <f>ROUND(G32*(1+Q32/100)*(1+T32/100)*(1+W32/100)*(1+Z32/100),1)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
@@ -5233,10 +5235,10 @@
         <v>236</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D33" s="1">
-        <f>ROUND((J33*150/8 +(I33/1.5)^2)/ E33,0)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="E33" s="1">
@@ -5276,7 +5278,7 @@
         <v>50</v>
       </c>
       <c r="R33" s="21">
-        <f>IF(Q33&gt;0,IF($Q33+$T33+$W33+$Z33 &gt; 0,MAX(1,ROUND($AD33*Q33/($Q33+$T33+$W33+$Z33),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S33" s="9" t="s">
@@ -5286,7 +5288,7 @@
         <v>75</v>
       </c>
       <c r="U33" s="10">
-        <f>IF(T33&gt;0,IF($Q33+$T33+$W33+$Z33 &gt; 0,MAX(1,ROUND($AD33*T33/($Q33+$T33+$W33+$Z33),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="V33" s="11" t="s">
@@ -5296,7 +5298,7 @@
         <v>100</v>
       </c>
       <c r="X33" s="22">
-        <f>IF(W33&gt;0,IF($Q33+$T33+$W33+$Z33 &gt; 0,MAX(1,ROUND($AD33*W33/($Q33+$T33+$W33+$Z33),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Y33" s="13" t="s">
@@ -5306,19 +5308,19 @@
         <v>75</v>
       </c>
       <c r="AA33" s="14">
-        <f>IF(Z33&gt;0,IF($Q33+$T33+$W33+$Z33 &gt; 0,MAX(1,ROUND($AD33*Z33/($Q33+$T33+$W33+$Z33),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AC33" s="3">
-        <f>(1+Q33/100)*(1+T33/100)*(1+W33/100)*(1+Z33/100)*100</f>
+        <f t="shared" si="5"/>
         <v>918.75</v>
       </c>
       <c r="AD33" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I33,AC33/100))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AE33" s="3">
-        <f>ROUND(G33*(1+Q33/100)*(1+T33/100)*(1+W33/100)*(1+Z33/100),1)</f>
+        <f t="shared" si="7"/>
         <v>275.60000000000002</v>
       </c>
     </row>
@@ -5330,10 +5332,10 @@
         <v>242</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D34" s="1">
-        <f>ROUND((J34*150/8 +(I34/1.5)^2)/ E34,0)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E34" s="1">
@@ -5376,7 +5378,7 @@
         <v>50</v>
       </c>
       <c r="R34" s="21">
-        <f>IF(Q34&gt;0,IF($Q34+$T34+$W34+$Z34 &gt; 0,MAX(1,ROUND($AD34*Q34/($Q34+$T34+$W34+$Z34),0)),""),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S34" s="9" t="s">
@@ -5386,7 +5388,7 @@
         <v>100</v>
       </c>
       <c r="U34" s="10">
-        <f>IF(T34&gt;0,IF($Q34+$T34+$W34+$Z34 &gt; 0,MAX(1,ROUND($AD34*T34/($Q34+$T34+$W34+$Z34),0)),""),"")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="V34" s="11" t="s">
@@ -5396,23 +5398,23 @@
         <v>25</v>
       </c>
       <c r="X34" s="22">
-        <f>IF(W34&gt;0,IF($Q34+$T34+$W34+$Z34 &gt; 0,MAX(1,ROUND($AD34*W34/($Q34+$T34+$W34+$Z34),0)),""),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA34" s="14" t="str">
-        <f>IF(Z34&gt;0,IF($Q34+$T34+$W34+$Z34 &gt; 0,MAX(1,ROUND($AD34*Z34/($Q34+$T34+$W34+$Z34),0)),""),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC34" s="3">
-        <f>(1+Q34/100)*(1+T34/100)*(1+W34/100)*(1+Z34/100)*100</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="AD34" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I34,AC34/100))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AE34" s="3">
-        <f>ROUND(G34*(1+Q34/100)*(1+T34/100)*(1+W34/100)*(1+Z34/100),1)</f>
+        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
     </row>
@@ -5424,10 +5426,10 @@
         <v>250</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D35" s="1">
-        <f>ROUND((J35*150/8 +(I35/1.5)^2)/ E35,0)</f>
+        <f t="shared" ref="D35:D66" si="8">ROUND((J35*150/8 +(I35/1.5)^2)/ E35,0)</f>
         <v>54</v>
       </c>
       <c r="E35" s="1">
@@ -5461,7 +5463,7 @@
         <v>100</v>
       </c>
       <c r="R35" s="21">
-        <f>IF(Q35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Q35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="R35:R66" si="9">IF(Q35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Q35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>3</v>
       </c>
       <c r="S35" s="9" t="s">
@@ -5471,7 +5473,7 @@
         <v>25</v>
       </c>
       <c r="U35" s="10">
-        <f>IF(T35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*T35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="U35:U66" si="10">IF(T35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*T35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="V35" s="11" t="s">
@@ -5481,7 +5483,7 @@
         <v>25</v>
       </c>
       <c r="X35" s="22">
-        <f>IF(W35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*W35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="X35:X66" si="11">IF(W35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*W35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="Y35" s="13" t="s">
@@ -5491,19 +5493,19 @@
         <v>100</v>
       </c>
       <c r="AA35" s="14">
-        <f>IF(Z35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Z35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="AA35:AA66" si="12">IF(Z35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Z35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>3</v>
       </c>
       <c r="AC35" s="3">
-        <f>(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100)*100</f>
+        <f t="shared" ref="AC35:AC66" si="13">(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100)*100</f>
         <v>625</v>
       </c>
       <c r="AD35" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I35,AC35/100))</f>
+        <f t="shared" ref="AD35:AD66" si="14">_xlfn.CEILING.MATH(MIN(I35,AC35/100))</f>
         <v>7</v>
       </c>
       <c r="AE35" s="3">
-        <f>ROUND(G35*(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100),1)</f>
+        <f t="shared" ref="AE35:AE66" si="15">ROUND(G35*(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100),1)</f>
         <v>3.1</v>
       </c>
     </row>
@@ -5515,10 +5517,10 @@
         <v>257</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D36" s="1">
-        <f>ROUND((J36*150/8 +(I36/1.5)^2)/ E36,0)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
       <c r="E36" s="1">
@@ -5558,7 +5560,7 @@
         <v>100</v>
       </c>
       <c r="R36" s="21">
-        <f>IF(Q36&gt;0,IF($Q36+$T36+$W36+$Z36 &gt; 0,MAX(1,ROUND($AD36*Q36/($Q36+$T36+$W36+$Z36),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S36" s="9" t="s">
@@ -5568,30 +5570,30 @@
         <v>100</v>
       </c>
       <c r="U36" s="10">
-        <f>IF(T36&gt;0,IF($Q36+$T36+$W36+$Z36 &gt; 0,MAX(1,ROUND($AD36*T36/($Q36+$T36+$W36+$Z36),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X36" s="22" t="str">
-        <f>IF(W36&gt;0,IF($Q36+$T36+$W36+$Z36 &gt; 0,MAX(1,ROUND($AD36*W36/($Q36+$T36+$W36+$Z36),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA36" s="14" t="str">
-        <f>IF(Z36&gt;0,IF($Q36+$T36+$W36+$Z36 &gt; 0,MAX(1,ROUND($AD36*Z36/($Q36+$T36+$W36+$Z36),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AB36" s="15">
         <v>1</v>
       </c>
       <c r="AC36" s="3">
-        <f>(1+Q36/100)*(1+T36/100)*(1+W36/100)*(1+Z36/100)*100</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="AD36" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I36,AC36/100))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AE36" s="3">
-        <f>ROUND(G36*(1+Q36/100)*(1+T36/100)*(1+W36/100)*(1+Z36/100),1)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
@@ -5603,10 +5605,10 @@
         <v>262</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D37" s="1">
-        <f>ROUND((J37*150/8 +(I37/1.5)^2)/ E37,0)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="E37" s="1">
@@ -5640,7 +5642,7 @@
         <v>50</v>
       </c>
       <c r="R37" s="21">
-        <f>IF(Q37&gt;0,IF($Q37+$T37+$W37+$Z37 &gt; 0,MAX(1,ROUND($AD37*Q37/($Q37+$T37+$W37+$Z37),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S37" s="9" t="s">
@@ -5650,7 +5652,7 @@
         <v>100</v>
       </c>
       <c r="U37" s="10">
-        <f>IF(T37&gt;0,IF($Q37+$T37+$W37+$Z37 &gt; 0,MAX(1,ROUND($AD37*T37/($Q37+$T37+$W37+$Z37),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V37" s="11" t="s">
@@ -5660,23 +5662,23 @@
         <v>50</v>
       </c>
       <c r="X37" s="22">
-        <f>IF(W37&gt;0,IF($Q37+$T37+$W37+$Z37 &gt; 0,MAX(1,ROUND($AD37*W37/($Q37+$T37+$W37+$Z37),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA37" s="14" t="str">
-        <f>IF(Z37&gt;0,IF($Q37+$T37+$W37+$Z37 &gt; 0,MAX(1,ROUND($AD37*Z37/($Q37+$T37+$W37+$Z37),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC37" s="3">
-        <f>(1+Q37/100)*(1+T37/100)*(1+W37/100)*(1+Z37/100)*100</f>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="AD37" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I37,AC37/100))</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="AE37" s="3">
-        <f>ROUND(G37*(1+Q37/100)*(1+T37/100)*(1+W37/100)*(1+Z37/100),1)</f>
+        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
     </row>
@@ -5688,10 +5690,10 @@
         <v>266</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D38" s="1">
-        <f>ROUND((J38*150/8 +(I38/1.5)^2)/ E38,0)</f>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="E38" s="1">
@@ -5731,7 +5733,7 @@
         <v>50</v>
       </c>
       <c r="R38" s="21">
-        <f>IF(Q38&gt;0,IF($Q38+$T38+$W38+$Z38 &gt; 0,MAX(1,ROUND($AD38*Q38/($Q38+$T38+$W38+$Z38),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S38" s="9" t="s">
@@ -5741,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="U38" s="24">
-        <f>IF(T38&gt;0,IF($Q38+$T38+$W38+$Z38 &gt; 0,MAX(1,ROUND($AD38*T38/($Q38+$T38+$W38+$Z38),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V38" s="11" t="s">
@@ -5751,7 +5753,7 @@
         <v>100</v>
       </c>
       <c r="X38" s="22">
-        <f>IF(W38&gt;0,IF($Q38+$T38+$W38+$Z38 &gt; 0,MAX(1,ROUND($AD38*W38/($Q38+$T38+$W38+$Z38),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Y38" s="13" t="s">
@@ -5761,19 +5763,19 @@
         <v>100</v>
       </c>
       <c r="AA38" s="25">
-        <f>IF(Z38&gt;0,IF($Q38+$T38+$W38+$Z38 &gt; 0,MAX(1,ROUND($AD38*Z38/($Q38+$T38+$W38+$Z38),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC38" s="3">
-        <f>(1+Q38/100)*(1+T38/100)*(1+W38/100)*(1+Z38/100)*100</f>
+        <f t="shared" si="13"/>
         <v>750</v>
       </c>
       <c r="AD38" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I38,AC38/100))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AE38" s="3">
-        <f>ROUND(G38*(1+Q38/100)*(1+T38/100)*(1+W38/100)*(1+Z38/100),1)</f>
+        <f t="shared" si="15"/>
         <v>375</v>
       </c>
     </row>
@@ -5785,10 +5787,10 @@
         <v>270</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D39" s="1">
-        <f>ROUND((J39*150/8 +(I39/1.5)^2)/ E39,0)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="E39" s="1">
@@ -5828,7 +5830,7 @@
         <v>300</v>
       </c>
       <c r="R39" s="21">
-        <f>IF(Q39&gt;0,IF($Q39+$T39+$W39+$Z39 &gt; 0,MAX(1,ROUND($AD39*Q39/($Q39+$T39+$W39+$Z39),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="S39" s="9" t="s">
@@ -5838,7 +5840,7 @@
         <v>50</v>
       </c>
       <c r="U39" s="10">
-        <f>IF(T39&gt;0,IF($Q39+$T39+$W39+$Z39 &gt; 0,MAX(1,ROUND($AD39*T39/($Q39+$T39+$W39+$Z39),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V39" s="11" t="s">
@@ -5848,45 +5850,45 @@
         <v>100</v>
       </c>
       <c r="X39" s="22">
-        <f>IF(W39&gt;0,IF($Q39+$T39+$W39+$Z39 &gt; 0,MAX(1,ROUND($AD39*W39/($Q39+$T39+$W39+$Z39),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA39" s="14" t="str">
-        <f>IF(Z39&gt;0,IF($Q39+$T39+$W39+$Z39 &gt; 0,MAX(1,ROUND($AD39*Z39/($Q39+$T39+$W39+$Z39),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC39" s="3">
-        <f>(1+Q39/100)*(1+T39/100)*(1+W39/100)*(1+Z39/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1200</v>
       </c>
       <c r="AD39" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I39,AC39/100))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AE39" s="3">
-        <f>ROUND(G39*(1+Q39/100)*(1+T39/100)*(1+W39/100)*(1+Z39/100),1)</f>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D40" s="1">
-        <f>ROUND((J40*150/8 +(I40/1.5)^2)/ E40,0)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G40" s="3">
         <v>10</v>
@@ -5901,10 +5903,10 @@
         <v>2</v>
       </c>
       <c r="K40" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>111</v>
@@ -5919,7 +5921,7 @@
         <v>100</v>
       </c>
       <c r="R40" s="21">
-        <f>IF(Q40&gt;0,IF($Q40+$T40+$W40+$Z40 &gt; 0,MAX(1,ROUND($AD40*Q40/($Q40+$T40+$W40+$Z40),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S40" s="9" t="s">
@@ -5929,7 +5931,7 @@
         <v>25</v>
       </c>
       <c r="U40" s="10">
-        <f>IF(T40&gt;0,IF($Q40+$T40+$W40+$Z40 &gt; 0,MAX(1,ROUND($AD40*T40/($Q40+$T40+$W40+$Z40),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V40" s="11" t="s">
@@ -5939,51 +5941,51 @@
         <v>100</v>
       </c>
       <c r="X40" s="22">
-        <f>IF(W40&gt;0,IF($Q40+$T40+$W40+$Z40 &gt; 0,MAX(1,ROUND($AD40*W40/($Q40+$T40+$W40+$Z40),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Y40" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z40" s="14">
         <v>10</v>
       </c>
       <c r="AA40" s="14">
-        <f>IF(Z40&gt;0,IF($Q40+$T40+$W40+$Z40 &gt; 0,MAX(1,ROUND($AD40*Z40/($Q40+$T40+$W40+$Z40),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC40" s="3">
-        <f>(1+Q40/100)*(1+T40/100)*(1+W40/100)*(1+Z40/100)*100</f>
+        <f t="shared" si="13"/>
         <v>550</v>
       </c>
       <c r="AD40" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I40,AC40/100))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AE40" s="3">
-        <f>ROUND(G40*(1+Q40/100)*(1+T40/100)*(1+W40/100)*(1+Z40/100),1)</f>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="8"/>
+        <v>183</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D41" s="1">
-        <f>ROUND((J41*150/8 +(I41/1.5)^2)/ E41,0)</f>
-        <v>183</v>
-      </c>
-      <c r="E41" s="1">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="G41" s="3">
         <v>2</v>
@@ -5998,7 +6000,7 @@
         <v>24</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>157</v>
@@ -6007,7 +6009,7 @@
         <v>35</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>111</v>
@@ -6016,17 +6018,17 @@
         <v>100</v>
       </c>
       <c r="R41" s="21">
-        <f>IF(Q41&gt;0,IF($Q41+$T41+$W41+$Z41 &gt; 0,MAX(1,ROUND($AD41*Q41/($Q41+$T41+$W41+$Z41),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T41" s="10">
         <v>25</v>
       </c>
       <c r="U41" s="10">
-        <f>IF(T41&gt;0,IF($Q41+$T41+$W41+$Z41 &gt; 0,MAX(1,ROUND($AD41*T41/($Q41+$T41+$W41+$Z41),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V41" s="11" t="s">
@@ -6036,45 +6038,45 @@
         <v>25</v>
       </c>
       <c r="X41" s="22">
-        <f>IF(W41&gt;0,IF($Q41+$T41+$W41+$Z41 &gt; 0,MAX(1,ROUND($AD41*W41/($Q41+$T41+$W41+$Z41),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA41" s="14" t="str">
-        <f>IF(Z41&gt;0,IF($Q41+$T41+$W41+$Z41 &gt; 0,MAX(1,ROUND($AD41*Z41/($Q41+$T41+$W41+$Z41),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC41" s="3">
-        <f>(1+Q41/100)*(1+T41/100)*(1+W41/100)*(1+Z41/100)*100</f>
+        <f t="shared" si="13"/>
         <v>312.5</v>
       </c>
       <c r="AD41" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I41,AC41/100))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AE41" s="3">
-        <f>ROUND(G41*(1+Q41/100)*(1+T41/100)*(1+W41/100)*(1+Z41/100),1)</f>
+        <f t="shared" si="15"/>
         <v>6.3</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="D42" s="1">
-        <f>ROUND((J42*150/8 +(I42/1.5)^2)/ E42,0)</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G42" s="3">
         <v>10</v>
@@ -6089,7 +6091,7 @@
         <v>5</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>55</v>
@@ -6098,7 +6100,7 @@
         <v>116</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>178</v>
@@ -6107,7 +6109,7 @@
         <v>75</v>
       </c>
       <c r="R42" s="21">
-        <f>IF(Q42&gt;0,IF($Q42+$T42+$W42+$Z42 &gt; 0,MAX(1,ROUND($AD42*Q42/($Q42+$T42+$W42+$Z42),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S42" s="9" t="s">
@@ -6117,7 +6119,7 @@
         <v>50</v>
       </c>
       <c r="U42" s="10">
-        <f>IF(T42&gt;0,IF($Q42+$T42+$W42+$Z42 &gt; 0,MAX(1,ROUND($AD42*T42/($Q42+$T42+$W42+$Z42),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V42" s="11" t="s">
@@ -6127,51 +6129,51 @@
         <v>75</v>
       </c>
       <c r="X42" s="22">
-        <f>IF(W42&gt;0,IF($Q42+$T42+$W42+$Z42 &gt; 0,MAX(1,ROUND($AD42*W42/($Q42+$T42+$W42+$Z42),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Y42" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z42" s="14">
         <v>100</v>
       </c>
       <c r="AA42" s="14">
-        <f>IF(Z42&gt;0,IF($Q42+$T42+$W42+$Z42 &gt; 0,MAX(1,ROUND($AD42*Z42/($Q42+$T42+$W42+$Z42),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC42" s="3">
-        <f>(1+Q42/100)*(1+T42/100)*(1+W42/100)*(1+Z42/100)*100</f>
+        <f t="shared" si="13"/>
         <v>918.75</v>
       </c>
       <c r="AD42" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I42,AC42/100))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AE42" s="3">
-        <f>ROUND(G42*(1+Q42/100)*(1+T42/100)*(1+W42/100)*(1+Z42/100),1)</f>
+        <f t="shared" si="15"/>
         <v>91.9</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D43" s="1">
-        <f>ROUND((J43*150/8 +(I43/1.5)^2)/ E43,0)</f>
-        <v>240</v>
-      </c>
-      <c r="E43" s="1">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="G43" s="3">
         <v>2</v>
@@ -6186,7 +6188,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>157</v>
@@ -6207,7 +6209,7 @@
         <v>100</v>
       </c>
       <c r="R43" s="21">
-        <f>IF(Q43&gt;0,IF($Q43+$T43+$W43+$Z43 &gt; 0,MAX(1,ROUND($AD43*Q43/($Q43+$T43+$W43+$Z43),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S43" s="9" t="s">
@@ -6217,7 +6219,7 @@
         <v>100</v>
       </c>
       <c r="U43" s="10">
-        <f>IF(T43&gt;0,IF($Q43+$T43+$W43+$Z43 &gt; 0,MAX(1,ROUND($AD43*T43/($Q43+$T43+$W43+$Z43),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V43" s="11" t="s">
@@ -6227,51 +6229,51 @@
         <v>75</v>
       </c>
       <c r="X43" s="22">
-        <f>IF(W43&gt;0,IF($Q43+$T43+$W43+$Z43 &gt; 0,MAX(1,ROUND($AD43*W43/($Q43+$T43+$W43+$Z43),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA43" s="14" t="str">
-        <f>IF(Z43&gt;0,IF($Q43+$T43+$W43+$Z43 &gt; 0,MAX(1,ROUND($AD43*Z43/($Q43+$T43+$W43+$Z43),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC43" s="3">
-        <f>(1+Q43/100)*(1+T43/100)*(1+W43/100)*(1+Z43/100)*100</f>
+        <f t="shared" si="13"/>
         <v>700</v>
       </c>
       <c r="AD43" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I43,AC43/100))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AE43" s="3">
-        <f>ROUND(G43*(1+Q43/100)*(1+T43/100)*(1+W43/100)*(1+Z43/100),1)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="8"/>
+        <v>333</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D44" s="1">
-        <f>ROUND((J44*150/8 +(I44/1.5)^2)/ E44,0)</f>
-        <v>333</v>
-      </c>
-      <c r="E44" s="1">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="G44" s="3">
         <v>1</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I44" s="4">
         <v>15</v>
@@ -6280,7 +6282,7 @@
         <v>48</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>191</v>
@@ -6298,7 +6300,7 @@
         <v>150</v>
       </c>
       <c r="R44" s="21">
-        <f>IF(Q44&gt;0,IF($Q44+$T44+$W44+$Z44 &gt; 0,MAX(1,ROUND($AD44*Q44/($Q44+$T44+$W44+$Z44),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="S44" s="9" t="s">
@@ -6308,7 +6310,7 @@
         <v>75</v>
       </c>
       <c r="U44" s="10">
-        <f>IF(T44&gt;0,IF($Q44+$T44+$W44+$Z44 &gt; 0,MAX(1,ROUND($AD44*T44/($Q44+$T44+$W44+$Z44),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V44" s="11" t="s">
@@ -6318,7 +6320,7 @@
         <v>50</v>
       </c>
       <c r="X44" s="22">
-        <f>IF(W44&gt;0,IF($Q44+$T44+$W44+$Z44 &gt; 0,MAX(1,ROUND($AD44*W44/($Q44+$T44+$W44+$Z44),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Y44" s="13" t="s">
@@ -6328,47 +6330,47 @@
         <v>75</v>
       </c>
       <c r="AA44" s="14">
-        <f>IF(Z44&gt;0,IF($Q44+$T44+$W44+$Z44 &gt; 0,MAX(1,ROUND($AD44*Z44/($Q44+$T44+$W44+$Z44),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC44" s="3">
-        <f>(1+Q44/100)*(1+T44/100)*(1+W44/100)*(1+Z44/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1148.4375</v>
       </c>
       <c r="AD44" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I44,AC44/100))</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="AE44" s="3">
-        <f>ROUND(G44*(1+Q44/100)*(1+T44/100)*(1+W44/100)*(1+Z44/100),1)</f>
+        <f t="shared" si="15"/>
         <v>11.5</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D45" s="1">
-        <f>ROUND((J45*150/8 +(I45/1.5)^2)/ E45,0)</f>
-        <v>1000</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I45" s="4">
         <v>15</v>
@@ -6377,7 +6379,7 @@
         <v>48</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>54</v>
@@ -6398,7 +6400,7 @@
         <v>50</v>
       </c>
       <c r="R45" s="21">
-        <f>IF(Q45&gt;0,IF($Q45+$T45+$W45+$Z45 &gt; 0,MAX(1,ROUND($AD45*Q45/($Q45+$T45+$W45+$Z45),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S45" s="9" t="s">
@@ -6408,17 +6410,17 @@
         <v>25</v>
       </c>
       <c r="U45" s="10">
-        <f>IF(T45&gt;0,IF($Q45+$T45+$W45+$Z45 &gt; 0,MAX(1,ROUND($AD45*T45/($Q45+$T45+$W45+$Z45),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W45" s="12">
         <v>100</v>
       </c>
       <c r="X45" s="22">
-        <f>IF(W45&gt;0,IF($Q45+$T45+$W45+$Z45 &gt; 0,MAX(1,ROUND($AD45*W45/($Q45+$T45+$W45+$Z45),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Y45" s="13" t="s">
@@ -6428,47 +6430,47 @@
         <v>150</v>
       </c>
       <c r="AA45" s="14">
-        <f>IF(Z45&gt;0,IF($Q45+$T45+$W45+$Z45 &gt; 0,MAX(1,ROUND($AD45*Z45/($Q45+$T45+$W45+$Z45),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AC45" s="3">
-        <f>(1+Q45/100)*(1+T45/100)*(1+W45/100)*(1+Z45/100)*100</f>
+        <f t="shared" si="13"/>
         <v>937.5</v>
       </c>
       <c r="AD45" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I45,AC45/100))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AE45" s="3">
-        <f>ROUND(G45*(1+Q45/100)*(1+T45/100)*(1+W45/100)*(1+Z45/100),1)</f>
+        <f t="shared" si="15"/>
         <v>9.4</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1">
+        <f t="shared" si="8"/>
+        <v>4903</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C46" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="D46" s="1">
-        <f>ROUND((J46*150/8 +(I46/1.5)^2)/ E46,0)</f>
-        <v>4903</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="I46" s="4">
         <v>20</v>
@@ -6478,7 +6480,7 @@
         <v>252</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>47</v>
@@ -6490,7 +6492,7 @@
         <v>134</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>99</v>
@@ -6499,7 +6501,7 @@
         <v>150</v>
       </c>
       <c r="R46" s="21">
-        <f>IF(Q46&gt;0,IF($Q46+$T46+$W46+$Z46 &gt; 0,MAX(1,ROUND($AD46*Q46/($Q46+$T46+$W46+$Z46),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="S46" s="9" t="s">
@@ -6509,7 +6511,7 @@
         <v>25</v>
       </c>
       <c r="U46" s="10">
-        <f>IF(T46&gt;0,IF($Q46+$T46+$W46+$Z46 &gt; 0,MAX(1,ROUND($AD46*T46/($Q46+$T46+$W46+$Z46),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V46" s="11" t="s">
@@ -6519,7 +6521,7 @@
         <v>75</v>
       </c>
       <c r="X46" s="22">
-        <f>IF(W46&gt;0,IF($Q46+$T46+$W46+$Z46 &gt; 0,MAX(1,ROUND($AD46*W46/($Q46+$T46+$W46+$Z46),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Y46" s="13" t="s">
@@ -6529,41 +6531,41 @@
         <v>25</v>
       </c>
       <c r="AA46" s="14">
-        <f>IF(Z46&gt;0,IF($Q46+$T46+$W46+$Z46 &gt; 0,MAX(1,ROUND($AD46*Z46/($Q46+$T46+$W46+$Z46),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC46" s="3">
-        <f>(1+Q46/100)*(1+T46/100)*(1+W46/100)*(1+Z46/100)*100</f>
+        <f t="shared" si="13"/>
         <v>683.59375</v>
       </c>
       <c r="AD46" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I46,AC46/100))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AE46" s="3">
-        <f>ROUND(G46*(1+Q46/100)*(1+T46/100)*(1+W46/100)*(1+Z46/100),1)</f>
+        <f t="shared" si="15"/>
         <v>6.8</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D47" s="1">
-        <f>ROUND((J47*150/8 +(I47/1.5)^2)/ E47,0)</f>
-        <v>165</v>
-      </c>
-      <c r="E47" s="1">
-        <v>3</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>2</v>
@@ -6578,7 +6580,7 @@
         <v>24</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>97</v>
@@ -6596,7 +6598,7 @@
         <v>50</v>
       </c>
       <c r="R47" s="21">
-        <f>IF(Q47&gt;0,IF($Q47+$T47+$W47+$Z47 &gt; 0,MAX(1,ROUND($AD47*Q47/($Q47+$T47+$W47+$Z47),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S47" s="9" t="s">
@@ -6606,61 +6608,61 @@
         <v>100</v>
       </c>
       <c r="U47" s="10">
-        <f>IF(T47&gt;0,IF($Q47+$T47+$W47+$Z47 &gt; 0,MAX(1,ROUND($AD47*T47/($Q47+$T47+$W47+$Z47),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W47" s="12">
         <v>75</v>
       </c>
       <c r="X47" s="22">
-        <f>IF(W47&gt;0,IF($Q47+$T47+$W47+$Z47 &gt; 0,MAX(1,ROUND($AD47*W47/($Q47+$T47+$W47+$Z47),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA47" s="14" t="str">
-        <f>IF(Z47&gt;0,IF($Q47+$T47+$W47+$Z47 &gt; 0,MAX(1,ROUND($AD47*Z47/($Q47+$T47+$W47+$Z47),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC47" s="3">
-        <f>(1+Q47/100)*(1+T47/100)*(1+W47/100)*(1+Z47/100)*100</f>
+        <f t="shared" si="13"/>
         <v>525</v>
       </c>
       <c r="AD47" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I47,AC47/100))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AE47" s="3">
-        <f>ROUND(G47*(1+Q47/100)*(1+T47/100)*(1+W47/100)*(1+Z47/100),1)</f>
+        <f t="shared" si="15"/>
         <v>10.5</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="D48" s="1">
-        <f>ROUND((J48*150/8 +(I48/1.5)^2)/ E48,0)</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I48" s="4">
         <v>10</v>
@@ -6669,7 +6671,7 @@
         <v>12</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>92</v>
@@ -6687,17 +6689,17 @@
         <v>25</v>
       </c>
       <c r="R48" s="21">
-        <f>IF(Q48&gt;0,IF($Q48+$T48+$W48+$Z48 &gt; 0,MAX(1,ROUND($AD48*Q48/($Q48+$T48+$W48+$Z48),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T48" s="10">
         <v>100</v>
       </c>
       <c r="U48" s="10">
-        <f>IF(T48&gt;0,IF($Q48+$T48+$W48+$Z48 &gt; 0,MAX(1,ROUND($AD48*T48/($Q48+$T48+$W48+$Z48),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V48" s="11" t="s">
@@ -6707,7 +6709,7 @@
         <v>150</v>
       </c>
       <c r="X48" s="22">
-        <f>IF(W48&gt;0,IF($Q48+$T48+$W48+$Z48 &gt; 0,MAX(1,ROUND($AD48*W48/($Q48+$T48+$W48+$Z48),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="Y48" s="13" t="s">
@@ -6717,41 +6719,41 @@
         <v>75</v>
       </c>
       <c r="AA48" s="14">
-        <f>IF(Z48&gt;0,IF($Q48+$T48+$W48+$Z48 &gt; 0,MAX(1,ROUND($AD48*Z48/($Q48+$T48+$W48+$Z48),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AC48" s="3">
-        <f>(1+Q48/100)*(1+T48/100)*(1+W48/100)*(1+Z48/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1093.75</v>
       </c>
       <c r="AD48" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I48,AC48/100))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AE48" s="3">
-        <f>ROUND(G48*(1+Q48/100)*(1+T48/100)*(1+W48/100)*(1+Z48/100),1)</f>
+        <f t="shared" si="15"/>
         <v>10.9</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D49" s="1">
-        <f>ROUND((J49*150/8 +(I49/1.5)^2)/ E49,0)</f>
-        <v>52</v>
-      </c>
-      <c r="E49" s="1">
-        <v>3</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G49" s="3">
         <v>15</v>
@@ -6766,10 +6768,10 @@
         <v>3</v>
       </c>
       <c r="K49" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="L49" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M49" s="6" t="s">
         <v>110</v>
@@ -6778,23 +6780,23 @@
         <v>65</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q49" s="8">
         <v>50</v>
       </c>
       <c r="R49" s="21">
-        <f>IF(Q49&gt;0,IF($Q49+$T49+$W49+$Z49 &gt; 0,MAX(1,ROUND($AD49*Q49/($Q49+$T49+$W49+$Z49),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T49" s="10">
         <v>75</v>
       </c>
       <c r="U49" s="10">
-        <f>IF(T49&gt;0,IF($Q49+$T49+$W49+$Z49 &gt; 0,MAX(1,ROUND($AD49*T49/($Q49+$T49+$W49+$Z49),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V49" s="11" t="s">
@@ -6804,7 +6806,7 @@
         <v>25</v>
       </c>
       <c r="X49" s="22">
-        <f>IF(W49&gt;0,IF($Q49+$T49+$W49+$Z49 &gt; 0,MAX(1,ROUND($AD49*W49/($Q49+$T49+$W49+$Z49),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y49" s="13" t="s">
@@ -6814,41 +6816,41 @@
         <v>150</v>
       </c>
       <c r="AA49" s="14">
-        <f>IF(Z49&gt;0,IF($Q49+$T49+$W49+$Z49 &gt; 0,MAX(1,ROUND($AD49*Z49/($Q49+$T49+$W49+$Z49),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AC49" s="3">
-        <f>(1+Q49/100)*(1+T49/100)*(1+W49/100)*(1+Z49/100)*100</f>
+        <f t="shared" si="13"/>
         <v>820.3125</v>
       </c>
       <c r="AD49" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I49,AC49/100))</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AE49" s="3">
-        <f>ROUND(G49*(1+Q49/100)*(1+T49/100)*(1+W49/100)*(1+Z49/100),1)</f>
+        <f t="shared" si="15"/>
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D50" s="1">
-        <f>ROUND((J50*150/8 +(I50/1.5)^2)/ E50,0)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G50" s="3">
         <v>10</v>
@@ -6863,16 +6865,16 @@
         <v>1</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>90</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>179</v>
@@ -6881,7 +6883,7 @@
         <v>100</v>
       </c>
       <c r="R50" s="21">
-        <f>IF(Q50&gt;0,IF($Q50+$T50+$W50+$Z50 &gt; 0,MAX(1,ROUND($AD50*Q50/($Q50+$T50+$W50+$Z50),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S50" s="9" t="s">
@@ -6891,7 +6893,7 @@
         <v>25</v>
       </c>
       <c r="U50" s="10">
-        <f>IF(T50&gt;0,IF($Q50+$T50+$W50+$Z50 &gt; 0,MAX(1,ROUND($AD50*T50/($Q50+$T50+$W50+$Z50),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V50" s="11" t="s">
@@ -6901,7 +6903,7 @@
         <v>150</v>
       </c>
       <c r="X50" s="22">
-        <f>IF(W50&gt;0,IF($Q50+$T50+$W50+$Z50 &gt; 0,MAX(1,ROUND($AD50*W50/($Q50+$T50+$W50+$Z50),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Y50" s="23" t="s">
@@ -6911,50 +6913,50 @@
         <v>50</v>
       </c>
       <c r="AA50" s="14">
-        <f>IF(Z50&gt;0,IF($Q50+$T50+$W50+$Z50 &gt; 0,MAX(1,ROUND($AD50*Z50/($Q50+$T50+$W50+$Z50),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AB50" s="15">
         <v>1</v>
       </c>
       <c r="AC50" s="3">
-        <f>(1+Q50/100)*(1+T50/100)*(1+W50/100)*(1+Z50/100)*100</f>
+        <f t="shared" si="13"/>
         <v>937.5</v>
       </c>
       <c r="AD50" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I50,AC50/100))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AE50" s="3">
-        <f>ROUND(G50*(1+Q50/100)*(1+T50/100)*(1+W50/100)*(1+Z50/100),1)</f>
+        <f t="shared" si="15"/>
         <v>93.8</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D51" s="1">
-        <f>ROUND((J51*150/8 +(I51/1.5)^2)/ E51,0)</f>
+        <f t="shared" si="8"/>
         <v>493150</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I51" s="4">
         <v>30</v>
@@ -6964,7 +6966,7 @@
         <v>26280</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>110</v>
@@ -6985,59 +6987,59 @@
         <v>50</v>
       </c>
       <c r="R51" s="21">
-        <f>IF(Q51&gt;0,IF($Q51+$T51+$W51+$Z51 &gt; 0,MAX(1,ROUND($AD51*Q51/($Q51+$T51+$W51+$Z51),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U51" s="10" t="str">
-        <f>IF(T51&gt;0,IF($Q51+$T51+$W51+$Z51 &gt; 0,MAX(1,ROUND($AD51*T51/($Q51+$T51+$W51+$Z51),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X51" s="22" t="str">
-        <f>IF(W51&gt;0,IF($Q51+$T51+$W51+$Z51 &gt; 0,MAX(1,ROUND($AD51*W51/($Q51+$T51+$W51+$Z51),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA51" s="14" t="str">
-        <f>IF(Z51&gt;0,IF($Q51+$T51+$W51+$Z51 &gt; 0,MAX(1,ROUND($AD51*Z51/($Q51+$T51+$W51+$Z51),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC51" s="3">
-        <f>(1+Q51/100)*(1+T51/100)*(1+W51/100)*(1+Z51/100)*100</f>
+        <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="AD51" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I51,AC51/100))</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="AE51" s="3">
-        <f>ROUND(G51*(1+Q51/100)*(1+T51/100)*(1+W51/100)*(1+Z51/100),1)</f>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D52" s="1">
-        <f>ROUND((J52*150/8 +(I52/1.5)^2)/ E52,0)</f>
-        <v>550</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="G52" s="3">
         <v>1</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I52" s="4">
         <v>15</v>
@@ -7046,7 +7048,7 @@
         <v>24</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>99</v>
@@ -7055,29 +7057,29 @@
         <v>240</v>
       </c>
       <c r="N52" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="O52" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="O52" s="6" t="s">
+      <c r="P52" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="Q52" s="8">
         <v>25</v>
       </c>
       <c r="R52" s="21">
-        <f>IF(Q52&gt;0,IF($Q52+$T52+$W52+$Z52 &gt; 0,MAX(1,ROUND($AD52*Q52/($Q52+$T52+$W52+$Z52),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S52" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T52" s="10">
         <v>50</v>
       </c>
       <c r="U52" s="10">
-        <f>IF(T52&gt;0,IF($Q52+$T52+$W52+$Z52 &gt; 0,MAX(1,ROUND($AD52*T52/($Q52+$T52+$W52+$Z52),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V52" s="11" t="s">
@@ -7087,54 +7089,54 @@
         <v>100</v>
       </c>
       <c r="X52" s="22">
-        <f>IF(W52&gt;0,IF($Q52+$T52+$W52+$Z52 &gt; 0,MAX(1,ROUND($AD52*W52/($Q52+$T52+$W52+$Z52),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="AA52" s="14" t="str">
-        <f>IF(Z52&gt;0,IF($Q52+$T52+$W52+$Z52 &gt; 0,MAX(1,ROUND($AD52*Z52/($Q52+$T52+$W52+$Z52),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AB52" s="15">
         <v>1</v>
       </c>
       <c r="AC52" s="3">
-        <f>(1+Q52/100)*(1+T52/100)*(1+W52/100)*(1+Z52/100)*100</f>
+        <f t="shared" si="13"/>
         <v>375</v>
       </c>
       <c r="AD52" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I52,AC52/100))</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AE52" s="3">
-        <f>ROUND(G52*(1+Q52/100)*(1+T52/100)*(1+W52/100)*(1+Z52/100),1)</f>
+        <f t="shared" si="15"/>
         <v>3.8</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D53" s="1">
-        <f>ROUND((J53*150/8 +(I53/1.5)^2)/ E53,0)</f>
-        <v>27</v>
-      </c>
-      <c r="E53" s="1">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="3">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="G53" s="3">
-        <v>2</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I53" s="4">
         <v>10</v>
@@ -7143,16 +7145,16 @@
         <v>2</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>88</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>45</v>
@@ -7161,7 +7163,7 @@
         <v>100</v>
       </c>
       <c r="R53" s="21">
-        <f>IF(Q53&gt;0,IF($Q53+$T53+$W53+$Z53 &gt; 0,MAX(1,ROUND($AD53*Q53/($Q53+$T53+$W53+$Z53),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S53" s="9" t="s">
@@ -7171,7 +7173,7 @@
         <v>50</v>
       </c>
       <c r="U53" s="10">
-        <f>IF(T53&gt;0,IF($Q53+$T53+$W53+$Z53 &gt; 0,MAX(1,ROUND($AD53*T53/($Q53+$T53+$W53+$Z53),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V53" s="11" t="s">
@@ -7181,7 +7183,7 @@
         <v>75</v>
       </c>
       <c r="X53" s="22">
-        <f>IF(W53&gt;0,IF($Q53+$T53+$W53+$Z53 &gt; 0,MAX(1,ROUND($AD53*W53/($Q53+$T53+$W53+$Z53),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Y53" s="13" t="s">
@@ -7191,41 +7193,41 @@
         <v>25</v>
       </c>
       <c r="AA53" s="14">
-        <f>IF(Z53&gt;0,IF($Q53+$T53+$W53+$Z53 &gt; 0,MAX(1,ROUND($AD53*Z53/($Q53+$T53+$W53+$Z53),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC53" s="3">
-        <f>(1+Q53/100)*(1+T53/100)*(1+W53/100)*(1+Z53/100)*100</f>
+        <f t="shared" si="13"/>
         <v>656.25</v>
       </c>
       <c r="AD53" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I53,AC53/100))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AE53" s="3">
-        <f>ROUND(G53*(1+Q53/100)*(1+T53/100)*(1+W53/100)*(1+Z53/100),1)</f>
+        <f t="shared" si="15"/>
         <v>13.1</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1">
+        <f t="shared" si="8"/>
+        <v>333</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="D54" s="1">
-        <f>ROUND((J54*150/8 +(I54/1.5)^2)/ E54,0)</f>
-        <v>333</v>
-      </c>
-      <c r="E54" s="1">
-        <v>3</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="G54" s="3">
         <v>5</v>
@@ -7240,13 +7242,13 @@
         <v>48</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>255</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>81</v>
@@ -7258,7 +7260,7 @@
         <v>150</v>
       </c>
       <c r="R54" s="21">
-        <f>IF(Q54&gt;0,IF($Q54+$T54+$W54+$Z54 &gt; 0,MAX(1,ROUND($AD54*Q54/($Q54+$T54+$W54+$Z54),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="S54" s="9" t="s">
@@ -7268,7 +7270,7 @@
         <v>75</v>
       </c>
       <c r="U54" s="10">
-        <f>IF(T54&gt;0,IF($Q54+$T54+$W54+$Z54 &gt; 0,MAX(1,ROUND($AD54*T54/($Q54+$T54+$W54+$Z54),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V54" s="11" t="s">
@@ -7278,51 +7280,51 @@
         <v>50</v>
       </c>
       <c r="X54" s="22">
-        <f>IF(W54&gt;0,IF($Q54+$T54+$W54+$Z54 &gt; 0,MAX(1,ROUND($AD54*W54/($Q54+$T54+$W54+$Z54),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA54" s="14" t="str">
-        <f>IF(Z54&gt;0,IF($Q54+$T54+$W54+$Z54 &gt; 0,MAX(1,ROUND($AD54*Z54/($Q54+$T54+$W54+$Z54),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC54" s="3">
-        <f>(1+Q54/100)*(1+T54/100)*(1+W54/100)*(1+Z54/100)*100</f>
+        <f t="shared" si="13"/>
         <v>656.25</v>
       </c>
       <c r="AD54" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I54,AC54/100))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AE54" s="3">
-        <f>ROUND(G54*(1+Q54/100)*(1+T54/100)*(1+W54/100)*(1+Z54/100),1)</f>
+        <f t="shared" si="15"/>
         <v>32.799999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="102" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="D55" s="1">
-        <f>ROUND((J55*150/8 +(I55/1.5)^2)/ E55,0)</f>
+        <f t="shared" si="8"/>
         <v>509</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G55" s="3">
         <v>2</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I55" s="4">
         <v>20</v>
@@ -7331,7 +7333,7 @@
         <v>72</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>162</v>
@@ -7349,17 +7351,17 @@
         <v>75</v>
       </c>
       <c r="R55" s="21">
-        <f>IF(Q55&gt;0,IF($Q55+$T55+$W55+$Z55 &gt; 0,MAX(1,ROUND($AD55*Q55/($Q55+$T55+$W55+$Z55),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T55" s="10">
         <v>25</v>
       </c>
       <c r="U55" s="24">
-        <f>IF(T55&gt;0,IF($Q55+$T55+$W55+$Z55 &gt; 0,MAX(1,ROUND($AD55*T55/($Q55+$T55+$W55+$Z55),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V55" s="11" t="s">
@@ -7369,7 +7371,7 @@
         <v>150</v>
       </c>
       <c r="X55" s="22">
-        <f>IF(W55&gt;0,IF($Q55+$T55+$W55+$Z55 &gt; 0,MAX(1,ROUND($AD55*W55/($Q55+$T55+$W55+$Z55),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="Y55" s="13" t="s">
@@ -7379,47 +7381,47 @@
         <v>150</v>
       </c>
       <c r="AA55" s="25">
-        <f>IF(Z55&gt;0,IF($Q55+$T55+$W55+$Z55 &gt; 0,MAX(1,ROUND($AD55*Z55/($Q55+$T55+$W55+$Z55),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AC55" s="3">
-        <f>(1+Q55/100)*(1+T55/100)*(1+W55/100)*(1+Z55/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1367.1875</v>
       </c>
       <c r="AD55" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I55,AC55/100))</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="AE55" s="3">
-        <f>ROUND(G55*(1+Q55/100)*(1+T55/100)*(1+W55/100)*(1+Z55/100),1)</f>
+        <f t="shared" si="15"/>
         <v>27.3</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>373</v>
-      </c>
       <c r="D56" s="1">
-        <f>ROUND((J56*150/8 +(I56/1.5)^2)/ E56,0)</f>
+        <f t="shared" si="8"/>
         <v>2350</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G56" s="3">
         <v>3</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I56" s="4">
         <v>15</v>
@@ -7429,10 +7431,10 @@
         <v>120</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>63</v>
@@ -7450,7 +7452,7 @@
         <v>100</v>
       </c>
       <c r="R56" s="21">
-        <f>IF(Q56&gt;0,IF($Q56+$T56+$W56+$Z56 &gt; 0,MAX(1,ROUND($AD56*Q56/($Q56+$T56+$W56+$Z56),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S56" s="9" t="s">
@@ -7460,17 +7462,17 @@
         <v>50</v>
       </c>
       <c r="U56" s="24">
-        <f>IF(T56&gt;0,IF($Q56+$T56+$W56+$Z56 &gt; 0,MAX(1,ROUND($AD56*T56/($Q56+$T56+$W56+$Z56),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V56" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W56" s="12">
         <v>25</v>
       </c>
       <c r="X56" s="22">
-        <f>IF(W56&gt;0,IF($Q56+$T56+$W56+$Z56 &gt; 0,MAX(1,ROUND($AD56*W56/($Q56+$T56+$W56+$Z56),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y56" s="13" t="s">
@@ -7480,41 +7482,41 @@
         <v>75</v>
       </c>
       <c r="AA56" s="25">
-        <f>IF(Z56&gt;0,IF($Q56+$T56+$W56+$Z56 &gt; 0,MAX(1,ROUND($AD56*Z56/($Q56+$T56+$W56+$Z56),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AC56" s="3">
-        <f>(1+Q56/100)*(1+T56/100)*(1+W56/100)*(1+Z56/100)*100</f>
+        <f t="shared" si="13"/>
         <v>656.25</v>
       </c>
       <c r="AD56" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I56,AC56/100))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AE56" s="3">
-        <f>ROUND(G56*(1+Q56/100)*(1+T56/100)*(1+W56/100)*(1+Z56/100),1)</f>
+        <f t="shared" si="15"/>
         <v>19.7</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D57" s="1">
-        <f>ROUND((J57*150/8 +(I57/1.5)^2)/ E57,0)</f>
-        <v>550</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="G57" s="3">
         <v>2</v>
@@ -7529,7 +7531,7 @@
         <v>24</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>246</v>
@@ -7547,7 +7549,7 @@
         <v>75</v>
       </c>
       <c r="R57" s="21">
-        <f>IF(Q57&gt;0,IF($Q57+$T57+$W57+$Z57 &gt; 0,MAX(1,ROUND($AD57*Q57/($Q57+$T57+$W57+$Z57),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S57" s="9" t="s">
@@ -7557,7 +7559,7 @@
         <v>50</v>
       </c>
       <c r="U57" s="10">
-        <f>IF(T57&gt;0,IF($Q57+$T57+$W57+$Z57 &gt; 0,MAX(1,ROUND($AD57*T57/($Q57+$T57+$W57+$Z57),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V57" s="11" t="s">
@@ -7567,23 +7569,23 @@
         <v>150</v>
       </c>
       <c r="X57" s="22">
-        <f>IF(W57&gt;0,IF($Q57+$T57+$W57+$Z57 &gt; 0,MAX(1,ROUND($AD57*W57/($Q57+$T57+$W57+$Z57),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AA57" s="14" t="str">
-        <f>IF(Z57&gt;0,IF($Q57+$T57+$W57+$Z57 &gt; 0,MAX(1,ROUND($AD57*Z57/($Q57+$T57+$W57+$Z57),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC57" s="3">
-        <f>(1+Q57/100)*(1+T57/100)*(1+W57/100)*(1+Z57/100)*100</f>
+        <f t="shared" si="13"/>
         <v>656.25</v>
       </c>
       <c r="AD57" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I57,AC57/100))</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="AE57" s="3">
-        <f>ROUND(G57*(1+Q57/100)*(1+T57/100)*(1+W57/100)*(1+Z57/100),1)</f>
+        <f t="shared" si="15"/>
         <v>13.1</v>
       </c>
     </row>
@@ -7595,10 +7597,10 @@
         <v>139</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D58" s="1">
-        <f>ROUND((J58*150/8 +(I58/1.5)^2)/ E58,0)</f>
+        <f t="shared" si="8"/>
         <v>333</v>
       </c>
       <c r="E58" s="1">
@@ -7638,7 +7640,7 @@
         <v>150</v>
       </c>
       <c r="R58" s="21">
-        <f>IF(Q58&gt;0,IF($Q58+$T58+$W58+$Z58 &gt; 0,MAX(1,ROUND($AD58*Q58/($Q58+$T58+$W58+$Z58),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="S58" s="9" t="s">
@@ -7648,7 +7650,7 @@
         <v>150</v>
       </c>
       <c r="U58" s="10">
-        <f>IF(T58&gt;0,IF($Q58+$T58+$W58+$Z58 &gt; 0,MAX(1,ROUND($AD58*T58/($Q58+$T58+$W58+$Z58),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="V58" s="11" t="s">
@@ -7658,7 +7660,7 @@
         <v>25</v>
       </c>
       <c r="X58" s="22">
-        <f>IF(W58&gt;0,IF($Q58+$T58+$W58+$Z58 &gt; 0,MAX(1,ROUND($AD58*W58/($Q58+$T58+$W58+$Z58),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y58" s="13" t="s">
@@ -7668,41 +7670,41 @@
         <v>75</v>
       </c>
       <c r="AA58" s="14">
-        <f>IF(Z58&gt;0,IF($Q58+$T58+$W58+$Z58 &gt; 0,MAX(1,ROUND($AD58*Z58/($Q58+$T58+$W58+$Z58),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC58" s="3">
-        <f>(1+Q58/100)*(1+T58/100)*(1+W58/100)*(1+Z58/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1367.1875</v>
       </c>
       <c r="AD58" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I58,AC58/100))</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="AE58" s="3">
-        <f>ROUND(G58*(1+Q58/100)*(1+T58/100)*(1+W58/100)*(1+Z58/100),1)</f>
+        <f t="shared" si="15"/>
         <v>136.69999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="E59" s="1">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D59" s="1">
-        <f>ROUND((J59*150/8 +(I59/1.5)^2)/ E59,0)</f>
-        <v>65</v>
-      </c>
-      <c r="E59" s="1">
-        <v>3</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="G59" s="3">
         <v>50</v>
@@ -7717,25 +7719,25 @@
         <v>5</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>214</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>110</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q59" s="8">
         <v>100</v>
       </c>
       <c r="R59" s="21">
-        <f>IF(Q59&gt;0,IF($Q59+$T59+$W59+$Z59 &gt; 0,MAX(1,ROUND($AD59*Q59/($Q59+$T59+$W59+$Z59),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S59" s="9" t="s">
@@ -7745,7 +7747,7 @@
         <v>25</v>
       </c>
       <c r="U59" s="10">
-        <f>IF(T59&gt;0,IF($Q59+$T59+$W59+$Z59 &gt; 0,MAX(1,ROUND($AD59*T59/($Q59+$T59+$W59+$Z59),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V59" s="11" t="s">
@@ -7755,7 +7757,7 @@
         <v>50</v>
       </c>
       <c r="X59" s="22">
-        <f>IF(W59&gt;0,IF($Q59+$T59+$W59+$Z59 &gt; 0,MAX(1,ROUND($AD59*W59/($Q59+$T59+$W59+$Z59),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y59" s="13" t="s">
@@ -7765,41 +7767,41 @@
         <v>100</v>
       </c>
       <c r="AA59" s="14">
-        <f>IF(Z59&gt;0,IF($Q59+$T59+$W59+$Z59 &gt; 0,MAX(1,ROUND($AD59*Z59/($Q59+$T59+$W59+$Z59),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AC59" s="3">
-        <f>(1+Q59/100)*(1+T59/100)*(1+W59/100)*(1+Z59/100)*100</f>
+        <f t="shared" si="13"/>
         <v>750</v>
       </c>
       <c r="AD59" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I59,AC59/100))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AE59" s="3">
-        <f>ROUND(G59*(1+Q59/100)*(1+T59/100)*(1+W59/100)*(1+Z59/100),1)</f>
+        <f t="shared" si="15"/>
         <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D60" s="1">
-        <f>ROUND((J60*150/8 +(I60/1.5)^2)/ E60,0)</f>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G60" s="3">
         <v>5</v>
@@ -7814,10 +7816,10 @@
         <v>8</v>
       </c>
       <c r="K60" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>79</v>
@@ -7835,7 +7837,7 @@
         <v>100</v>
       </c>
       <c r="R60" s="21">
-        <f>IF(Q60&gt;0,IF($Q60+$T60+$W60+$Z60 &gt; 0,MAX(1,ROUND($AD60*Q60/($Q60+$T60+$W60+$Z60),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S60" s="9" t="s">
@@ -7845,7 +7847,7 @@
         <v>50</v>
       </c>
       <c r="U60" s="10">
-        <f>IF(T60&gt;0,IF($Q60+$T60+$W60+$Z60 &gt; 0,MAX(1,ROUND($AD60*T60/($Q60+$T60+$W60+$Z60),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V60" s="11" t="s">
@@ -7855,51 +7857,51 @@
         <v>200</v>
       </c>
       <c r="X60" s="22">
-        <f>IF(W60&gt;0,IF($Q60+$T60+$W60+$Z60 &gt; 0,MAX(1,ROUND($AD60*W60/($Q60+$T60+$W60+$Z60),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="AA60" s="14" t="str">
-        <f>IF(Z60&gt;0,IF($Q60+$T60+$W60+$Z60 &gt; 0,MAX(1,ROUND($AD60*Z60/($Q60+$T60+$W60+$Z60),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC60" s="3">
-        <f>(1+Q60/100)*(1+T60/100)*(1+W60/100)*(1+Z60/100)*100</f>
+        <f t="shared" si="13"/>
         <v>900</v>
       </c>
       <c r="AD60" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I60,AC60/100))</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AE60" s="3">
-        <f>ROUND(G60*(1+Q60/100)*(1+T60/100)*(1+W60/100)*(1+Z60/100),1)</f>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D61" s="1">
-        <f>ROUND((J61*150/8 +(I61/1.5)^2)/ E61,0)</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G61" s="3">
         <v>10</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I61" s="4">
         <v>10</v>
@@ -7908,7 +7910,7 @@
         <v>12</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>148</v>
@@ -7926,7 +7928,7 @@
         <v>200</v>
       </c>
       <c r="R61" s="21">
-        <f>IF(Q61&gt;0,IF($Q61+$T61+$W61+$Z61 &gt; 0,MAX(1,ROUND($AD61*Q61/($Q61+$T61+$W61+$Z61),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="S61" s="9" t="s">
@@ -7936,7 +7938,7 @@
         <v>75</v>
       </c>
       <c r="U61" s="10">
-        <f>IF(T61&gt;0,IF($Q61+$T61+$W61+$Z61 &gt; 0,MAX(1,ROUND($AD61*T61/($Q61+$T61+$W61+$Z61),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V61" s="11" t="s">
@@ -7946,45 +7948,45 @@
         <v>50</v>
       </c>
       <c r="X61" s="22">
-        <f>IF(W61&gt;0,IF($Q61+$T61+$W61+$Z61 &gt; 0,MAX(1,ROUND($AD61*W61/($Q61+$T61+$W61+$Z61),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA61" s="14" t="str">
-        <f>IF(Z61&gt;0,IF($Q61+$T61+$W61+$Z61 &gt; 0,MAX(1,ROUND($AD61*Z61/($Q61+$T61+$W61+$Z61),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC61" s="3">
-        <f>(1+Q61/100)*(1+T61/100)*(1+W61/100)*(1+Z61/100)*100</f>
+        <f t="shared" si="13"/>
         <v>787.5</v>
       </c>
       <c r="AD61" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I61,AC61/100))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AE61" s="3">
-        <f>ROUND(G61*(1+Q61/100)*(1+T61/100)*(1+W61/100)*(1+Z61/100),1)</f>
+        <f t="shared" si="15"/>
         <v>78.8</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>442</v>
-      </c>
-      <c r="D62" s="1">
-        <f>ROUND((J62*150/8 +(I62/1.5)^2)/ E62,0)</f>
-        <v>46</v>
-      </c>
-      <c r="E62" s="1">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -7999,7 +8001,7 @@
         <v>5</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>225</v>
@@ -8017,7 +8019,7 @@
         <v>50</v>
       </c>
       <c r="R62" s="21">
-        <f>IF(Q62&gt;0,IF($Q62+$T62+$W62+$Z62 &gt; 0,MAX(1,ROUND($AD62*Q62/($Q62+$T62+$W62+$Z62),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S62" s="9" t="s">
@@ -8027,7 +8029,7 @@
         <v>100</v>
       </c>
       <c r="U62" s="10">
-        <f>IF(T62&gt;0,IF($Q62+$T62+$W62+$Z62 &gt; 0,MAX(1,ROUND($AD62*T62/($Q62+$T62+$W62+$Z62),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V62" s="11" t="s">
@@ -8037,7 +8039,7 @@
         <v>25</v>
       </c>
       <c r="X62" s="22">
-        <f>IF(W62&gt;0,IF($Q62+$T62+$W62+$Z62 &gt; 0,MAX(1,ROUND($AD62*W62/($Q62+$T62+$W62+$Z62),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y62" s="13" t="s">
@@ -8047,47 +8049,47 @@
         <v>200</v>
       </c>
       <c r="AA62" s="14">
-        <f>IF(Z62&gt;0,IF($Q62+$T62+$W62+$Z62 &gt; 0,MAX(1,ROUND($AD62*Z62/($Q62+$T62+$W62+$Z62),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AC62" s="3">
-        <f>(1+Q62/100)*(1+T62/100)*(1+W62/100)*(1+Z62/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1125</v>
       </c>
       <c r="AD62" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I62,AC62/100))</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AE62" s="3">
-        <f>ROUND(G62*(1+Q62/100)*(1+T62/100)*(1+W62/100)*(1+Z62/100),1)</f>
+        <f t="shared" si="15"/>
         <v>11.3</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D63" s="1">
-        <f>ROUND((J63*150/8 +(I63/1.5)^2)/ E63,0)</f>
-        <v>1000</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="3">
+        <v>2</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="G63" s="3">
-        <v>2</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="I63" s="4">
         <v>15</v>
@@ -8096,13 +8098,13 @@
         <v>48</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>255</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N63" s="6" t="s">
         <v>89</v>
@@ -8114,7 +8116,7 @@
         <v>100</v>
       </c>
       <c r="R63" s="21">
-        <f>IF(Q63&gt;0,IF($Q63+$T63+$W63+$Z63 &gt; 0,MAX(1,ROUND($AD63*Q63/($Q63+$T63+$W63+$Z63),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S63" s="9" t="s">
@@ -8124,49 +8126,49 @@
         <v>50</v>
       </c>
       <c r="U63" s="10">
-        <f>IF(T63&gt;0,IF($Q63+$T63+$W63+$Z63 &gt; 0,MAX(1,ROUND($AD63*T63/($Q63+$T63+$W63+$Z63),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X63" s="22" t="str">
-        <f>IF(W63&gt;0,IF($Q63+$T63+$W63+$Z63 &gt; 0,MAX(1,ROUND($AD63*W63/($Q63+$T63+$W63+$Z63),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA63" s="14" t="str">
-        <f>IF(Z63&gt;0,IF($Q63+$T63+$W63+$Z63 &gt; 0,MAX(1,ROUND($AD63*Z63/($Q63+$T63+$W63+$Z63),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC63" s="3">
-        <f>(1+Q63/100)*(1+T63/100)*(1+W63/100)*(1+Z63/100)*100</f>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="AD63" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I63,AC63/100))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AE63" s="3">
-        <f>ROUND(G63*(1+Q63/100)*(1+T63/100)*(1+W63/100)*(1+Z63/100),1)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="D64" s="1">
-        <f>ROUND((J64*150/8 +(I64/1.5)^2)/ E64,0)</f>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G64" s="3">
         <v>5</v>
@@ -8181,10 +8183,10 @@
         <v>24</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>79</v>
@@ -8202,7 +8204,7 @@
         <v>100</v>
       </c>
       <c r="R64" s="21">
-        <f>IF(Q64&gt;0,IF($Q64+$T64+$W64+$Z64 &gt; 0,MAX(1,ROUND($AD64*Q64/($Q64+$T64+$W64+$Z64),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="S64" s="9" t="s">
@@ -8212,17 +8214,17 @@
         <v>50</v>
       </c>
       <c r="U64" s="10">
-        <f>IF(T64&gt;0,IF($Q64+$T64+$W64+$Z64 &gt; 0,MAX(1,ROUND($AD64*T64/($Q64+$T64+$W64+$Z64),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="V64" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W64" s="12">
         <v>75</v>
       </c>
       <c r="X64" s="22">
-        <f>IF(W64&gt;0,IF($Q64+$T64+$W64+$Z64 &gt; 0,MAX(1,ROUND($AD64*W64/($Q64+$T64+$W64+$Z64),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Y64" s="13" t="s">
@@ -8232,41 +8234,41 @@
         <v>200</v>
       </c>
       <c r="AA64" s="14">
-        <f>IF(Z64&gt;0,IF($Q64+$T64+$W64+$Z64 &gt; 0,MAX(1,ROUND($AD64*Z64/($Q64+$T64+$W64+$Z64),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AC64" s="3">
-        <f>(1+Q64/100)*(1+T64/100)*(1+W64/100)*(1+Z64/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1575</v>
       </c>
       <c r="AD64" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I64,AC64/100))</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AE64" s="3">
-        <f>ROUND(G64*(1+Q64/100)*(1+T64/100)*(1+W64/100)*(1+Z64/100),1)</f>
+        <f t="shared" si="15"/>
         <v>78.8</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D65" s="1">
-        <f>ROUND((J65*150/8 +(I65/1.5)^2)/ E65,0)</f>
-        <v>550</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="G65" s="3">
         <v>2</v>
@@ -8281,13 +8283,13 @@
         <v>24</v>
       </c>
       <c r="K65" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="L65" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="L65" s="6" t="s">
+      <c r="M65" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>208</v>
@@ -8299,7 +8301,7 @@
         <v>50</v>
       </c>
       <c r="R65" s="21">
-        <f>IF(Q65&gt;0,IF($Q65+$T65+$W65+$Z65 &gt; 0,MAX(1,ROUND($AD65*Q65/($Q65+$T65+$W65+$Z65),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S65" s="9" t="s">
@@ -8309,7 +8311,7 @@
         <v>100</v>
       </c>
       <c r="U65" s="10">
-        <f>IF(T65&gt;0,IF($Q65+$T65+$W65+$Z65 &gt; 0,MAX(1,ROUND($AD65*T65/($Q65+$T65+$W65+$Z65),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="V65" s="11" t="s">
@@ -8319,7 +8321,7 @@
         <v>75</v>
       </c>
       <c r="X65" s="22">
-        <f>IF(W65&gt;0,IF($Q65+$T65+$W65+$Z65 &gt; 0,MAX(1,ROUND($AD65*W65/($Q65+$T65+$W65+$Z65),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Y65" s="13" t="s">
@@ -8329,41 +8331,41 @@
         <v>50</v>
       </c>
       <c r="AA65" s="14">
-        <f>IF(Z65&gt;0,IF($Q65+$T65+$W65+$Z65 &gt; 0,MAX(1,ROUND($AD65*Z65/($Q65+$T65+$W65+$Z65),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC65" s="3">
-        <f>(1+Q65/100)*(1+T65/100)*(1+W65/100)*(1+Z65/100)*100</f>
+        <f t="shared" si="13"/>
         <v>787.5</v>
       </c>
       <c r="AD65" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I65,AC65/100))</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AE65" s="3">
-        <f>ROUND(G65*(1+Q65/100)*(1+T65/100)*(1+W65/100)*(1+Z65/100),1)</f>
+        <f t="shared" si="15"/>
         <v>15.8</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D66" s="1">
-        <f>ROUND((J66*150/8 +(I66/1.5)^2)/ E66,0)</f>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G66" s="3">
         <v>50</v>
@@ -8378,16 +8380,16 @@
         <v>5</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>179</v>
@@ -8396,7 +8398,7 @@
         <v>100</v>
       </c>
       <c r="R66" s="21">
-        <f>IF(Q66&gt;0,IF($Q66+$T66+$W66+$Z66 &gt; 0,MAX(1,ROUND($AD66*Q66/($Q66+$T66+$W66+$Z66),0)),""),"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="S66" s="9" t="s">
@@ -8406,17 +8408,17 @@
         <v>400</v>
       </c>
       <c r="U66" s="10">
-        <f>IF(T66&gt;0,IF($Q66+$T66+$W66+$Z66 &gt; 0,MAX(1,ROUND($AD66*T66/($Q66+$T66+$W66+$Z66),0)),""),"")</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="V66" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W66" s="12">
         <v>25</v>
       </c>
       <c r="X66" s="22">
-        <f>IF(W66&gt;0,IF($Q66+$T66+$W66+$Z66 &gt; 0,MAX(1,ROUND($AD66*W66/($Q66+$T66+$W66+$Z66),0)),""),"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Y66" s="23" t="s">
@@ -8426,47 +8428,47 @@
         <v>50</v>
       </c>
       <c r="AA66" s="14">
-        <f>IF(Z66&gt;0,IF($Q66+$T66+$W66+$Z66 &gt; 0,MAX(1,ROUND($AD66*Z66/($Q66+$T66+$W66+$Z66),0)),""),"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC66" s="3">
-        <f>(1+Q66/100)*(1+T66/100)*(1+W66/100)*(1+Z66/100)*100</f>
+        <f t="shared" si="13"/>
         <v>1875</v>
       </c>
       <c r="AD66" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I66,AC66/100))</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="AE66" s="3">
-        <f>ROUND(G66*(1+Q66/100)*(1+T66/100)*(1+W66/100)*(1+Z66/100),1)</f>
+        <f t="shared" si="15"/>
         <v>937.5</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>380</v>
-      </c>
       <c r="D67" s="1">
-        <f>ROUND((J67*150/8 +(I67/1.5)^2)/ E67,0)</f>
+        <f t="shared" ref="D67:D98" si="16">ROUND((J67*150/8 +(I67/1.5)^2)/ E67,0)</f>
         <v>465</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G67" s="3">
         <v>2</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I67" s="4">
         <v>10</v>
@@ -8475,7 +8477,7 @@
         <v>72</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>177</v>
@@ -8493,7 +8495,7 @@
         <v>500</v>
       </c>
       <c r="R67" s="21">
-        <f>IF(Q67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Q67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="R67:R98" si="17">IF(Q67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Q67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>7</v>
       </c>
       <c r="S67" s="9" t="s">
@@ -8503,7 +8505,7 @@
         <v>100</v>
       </c>
       <c r="U67" s="10">
-        <f>IF(T67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*T67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="U67:U98" si="18">IF(T67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*T67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="V67" s="11" t="s">
@@ -8513,7 +8515,7 @@
         <v>50</v>
       </c>
       <c r="X67" s="22">
-        <f>IF(W67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*W67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="X67:X98" si="19">IF(W67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*W67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="Y67" s="13" t="s">
@@ -8523,47 +8525,47 @@
         <v>25</v>
       </c>
       <c r="AA67" s="14">
-        <f>IF(Z67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Z67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="AA67:AA98" si="20">IF(Z67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Z67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="AC67" s="3">
-        <f>(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100)*100</f>
+        <f t="shared" ref="AC67:AC82" si="21">(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100)*100</f>
         <v>2250</v>
       </c>
       <c r="AD67" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I67,AC67/100))</f>
+        <f t="shared" ref="AD67:AD98" si="22">_xlfn.CEILING.MATH(MIN(I67,AC67/100))</f>
         <v>10</v>
       </c>
       <c r="AE67" s="3">
-        <f>ROUND(G67*(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100),1)</f>
+        <f t="shared" ref="AE67:AE82" si="23">ROUND(G67*(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100),1)</f>
         <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D68" s="1">
-        <f>ROUND((J68*150/8 +(I68/1.5)^2)/ E68,0)</f>
+        <f t="shared" si="16"/>
         <v>3250</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G68" s="3">
         <v>10</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I68" s="4">
         <v>15</v>
@@ -8573,7 +8575,7 @@
         <v>168</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>247</v>
@@ -8585,13 +8587,13 @@
         <v>137</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q68" s="8">
         <v>150</v>
       </c>
       <c r="R68" s="21">
-        <f>IF(Q68&gt;0,IF($Q68+$T68+$W68+$Z68 &gt; 0,MAX(1,ROUND($AD68*Q68/($Q68+$T68+$W68+$Z68),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="S68" s="9" t="s">
@@ -8601,7 +8603,7 @@
         <v>50</v>
       </c>
       <c r="U68" s="10">
-        <f>IF(T68&gt;0,IF($Q68+$T68+$W68+$Z68 &gt; 0,MAX(1,ROUND($AD68*T68/($Q68+$T68+$W68+$Z68),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="V68" s="11" t="s">
@@ -8611,7 +8613,7 @@
         <v>100</v>
       </c>
       <c r="X68" s="22">
-        <f>IF(W68&gt;0,IF($Q68+$T68+$W68+$Z68 &gt; 0,MAX(1,ROUND($AD68*W68/($Q68+$T68+$W68+$Z68),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Y68" s="13" t="s">
@@ -8621,41 +8623,41 @@
         <v>25</v>
       </c>
       <c r="AA68" s="14">
-        <f>IF(Z68&gt;0,IF($Q68+$T68+$W68+$Z68 &gt; 0,MAX(1,ROUND($AD68*Z68/($Q68+$T68+$W68+$Z68),0)),""),"")</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AC68" s="3">
-        <f>(1+Q68/100)*(1+T68/100)*(1+W68/100)*(1+Z68/100)*100</f>
+        <f t="shared" si="21"/>
         <v>937.5</v>
       </c>
       <c r="AD68" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I68,AC68/100))</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AE68" s="3">
-        <f>ROUND(G68*(1+Q68/100)*(1+T68/100)*(1+W68/100)*(1+Z68/100),1)</f>
+        <f t="shared" si="23"/>
         <v>93.8</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D69" s="1">
-        <f>ROUND((J69*150/8 +(I69/1.5)^2)/ E69,0)</f>
-        <v>27</v>
-      </c>
-      <c r="E69" s="1">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="G69" s="3">
         <v>5</v>
@@ -8676,10 +8678,10 @@
         <v>53</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>143</v>
@@ -8688,7 +8690,7 @@
         <v>150</v>
       </c>
       <c r="R69" s="21">
-        <f>IF(Q69&gt;0,IF($Q69+$T69+$W69+$Z69 &gt; 0,MAX(1,ROUND($AD69*Q69/($Q69+$T69+$W69+$Z69),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="S69" s="9" t="s">
@@ -8698,7 +8700,7 @@
         <v>150</v>
       </c>
       <c r="U69" s="10">
-        <f>IF(T69&gt;0,IF($Q69+$T69+$W69+$Z69 &gt; 0,MAX(1,ROUND($AD69*T69/($Q69+$T69+$W69+$Z69),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="V69" s="11" t="s">
@@ -8708,7 +8710,7 @@
         <v>50</v>
       </c>
       <c r="X69" s="22">
-        <f>IF(W69&gt;0,IF($Q69+$T69+$W69+$Z69 &gt; 0,MAX(1,ROUND($AD69*W69/($Q69+$T69+$W69+$Z69),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Y69" s="13" t="s">
@@ -8718,50 +8720,50 @@
         <v>75</v>
       </c>
       <c r="AA69" s="14">
-        <f>IF(Z69&gt;0,IF($Q69+$T69+$W69+$Z69 &gt; 0,MAX(1,ROUND($AD69*Z69/($Q69+$T69+$W69+$Z69),0)),""),"")</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AB69" s="15">
         <v>1</v>
       </c>
       <c r="AC69" s="3">
-        <f>(1+Q69/100)*(1+T69/100)*(1+W69/100)*(1+Z69/100)*100</f>
+        <f t="shared" si="21"/>
         <v>1640.625</v>
       </c>
       <c r="AD69" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I69,AC69/100))</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AE69" s="3">
-        <f>ROUND(G69*(1+Q69/100)*(1+T69/100)*(1+W69/100)*(1+Z69/100),1)</f>
+        <f t="shared" si="23"/>
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>383</v>
-      </c>
       <c r="D70" s="1">
-        <f>ROUND((J70*150/8 +(I70/1.5)^2)/ E70,0)</f>
+        <f t="shared" si="16"/>
         <v>183</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G70" s="3">
         <v>10</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I70" s="4">
         <v>15</v>
@@ -8770,10 +8772,10 @@
         <v>24</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M70" s="6" t="s">
         <v>79</v>
@@ -8791,17 +8793,17 @@
         <v>25</v>
       </c>
       <c r="R70" s="21">
-        <f>IF(Q70&gt;0,IF($Q70+$T70+$W70+$Z70 &gt; 0,MAX(1,ROUND($AD70*Q70/($Q70+$T70+$W70+$Z70),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S70" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T70" s="10">
         <v>50</v>
       </c>
       <c r="U70" s="10">
-        <f>IF(T70&gt;0,IF($Q70+$T70+$W70+$Z70 &gt; 0,MAX(1,ROUND($AD70*T70/($Q70+$T70+$W70+$Z70),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V70" s="11" t="s">
@@ -8811,7 +8813,7 @@
         <v>25</v>
       </c>
       <c r="X70" s="22">
-        <f>IF(W70&gt;0,IF($Q70+$T70+$W70+$Z70 &gt; 0,MAX(1,ROUND($AD70*W70/($Q70+$T70+$W70+$Z70),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Y70" s="13" t="s">
@@ -8821,41 +8823,41 @@
         <v>50</v>
       </c>
       <c r="AA70" s="14">
-        <f>IF(Z70&gt;0,IF($Q70+$T70+$W70+$Z70 &gt; 0,MAX(1,ROUND($AD70*Z70/($Q70+$T70+$W70+$Z70),0)),""),"")</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AC70" s="3">
-        <f>(1+Q70/100)*(1+T70/100)*(1+W70/100)*(1+Z70/100)*100</f>
+        <f t="shared" si="21"/>
         <v>351.5625</v>
       </c>
       <c r="AD70" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I70,AC70/100))</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="AE70" s="3">
-        <f>ROUND(G70*(1+Q70/100)*(1+T70/100)*(1+W70/100)*(1+Z70/100),1)</f>
+        <f t="shared" si="23"/>
         <v>35.200000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="E71" s="1">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D71" s="1">
-        <f>ROUND((J71*150/8 +(I71/1.5)^2)/ E71,0)</f>
-        <v>21</v>
-      </c>
-      <c r="E71" s="1">
-        <v>3</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="G71" s="3">
         <v>10</v>
@@ -8870,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L71" s="6" t="s">
         <v>125</v>
@@ -8882,13 +8884,13 @@
         <v>273</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q71" s="8">
         <v>50</v>
       </c>
       <c r="R71" s="21">
-        <f>IF(Q71&gt;0,IF($Q71+$T71+$W71+$Z71 &gt; 0,MAX(1,ROUND($AD71*Q71/($Q71+$T71+$W71+$Z71),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="S71" s="9" t="s">
@@ -8898,7 +8900,7 @@
         <v>200</v>
       </c>
       <c r="U71" s="10">
-        <f>IF(T71&gt;0,IF($Q71+$T71+$W71+$Z71 &gt; 0,MAX(1,ROUND($AD71*T71/($Q71+$T71+$W71+$Z71),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="V71" s="11" t="s">
@@ -8908,7 +8910,7 @@
         <v>25</v>
       </c>
       <c r="X71" s="22">
-        <f>IF(W71&gt;0,IF($Q71+$T71+$W71+$Z71 &gt; 0,MAX(1,ROUND($AD71*W71/($Q71+$T71+$W71+$Z71),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Y71" s="23" t="s">
@@ -8918,50 +8920,50 @@
         <v>25</v>
       </c>
       <c r="AA71" s="14">
-        <f>IF(Z71&gt;0,IF($Q71+$T71+$W71+$Z71 &gt; 0,MAX(1,ROUND($AD71*Z71/($Q71+$T71+$W71+$Z71),0)),""),"")</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AB71" s="15">
         <v>1</v>
       </c>
       <c r="AC71" s="3">
-        <f>(1+Q71/100)*(1+T71/100)*(1+W71/100)*(1+Z71/100)*100</f>
+        <f t="shared" si="21"/>
         <v>703.125</v>
       </c>
       <c r="AD71" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I71,AC71/100))</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="AE71" s="3">
-        <f>ROUND(G71*(1+Q71/100)*(1+T71/100)*(1+W71/100)*(1+Z71/100),1)</f>
+        <f t="shared" si="23"/>
         <v>70.3</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="16"/>
+        <v>1494</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D72" s="1">
-        <f>ROUND((J72*150/8 +(I72/1.5)^2)/ E72,0)</f>
-        <v>1494</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="G72" s="3">
         <v>1</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I72" s="4">
         <v>18</v>
@@ -8970,7 +8972,7 @@
         <v>72</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L72" s="6" t="s">
         <v>62</v>
@@ -8991,7 +8993,7 @@
         <v>500</v>
       </c>
       <c r="R72" s="21">
-        <f>IF(Q72&gt;0,IF($Q72+$T72+$W72+$Z72 &gt; 0,MAX(1,ROUND($AD72*Q72/($Q72+$T72+$W72+$Z72),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="S72" s="9" t="s">
@@ -9001,7 +9003,7 @@
         <v>50</v>
       </c>
       <c r="U72" s="10">
-        <f>IF(T72&gt;0,IF($Q72+$T72+$W72+$Z72 &gt; 0,MAX(1,ROUND($AD72*T72/($Q72+$T72+$W72+$Z72),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="V72" s="11" t="s">
@@ -9011,431 +9013,431 @@
         <v>75</v>
       </c>
       <c r="X72" s="22">
-        <f>IF(W72&gt;0,IF($Q72+$T72+$W72+$Z72 &gt; 0,MAX(1,ROUND($AD72*W72/($Q72+$T72+$W72+$Z72),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AC72" s="3">
-        <f>(1+Q72/100)*(1+T72/100)*(1+W72/100)*(1+Z72/100)*100</f>
+        <f t="shared" si="21"/>
         <v>1575</v>
       </c>
       <c r="AD72" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I72,AC72/100))</f>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="AE72" s="3">
-        <f>ROUND(G72*(1+Q72/100)*(1+T72/100)*(1+W72/100)*(1+Z72/100),1)</f>
+        <f t="shared" si="23"/>
         <v>15.8</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="e">
-        <f>ROUND((J73*150/8 +(I73/1.5)^2)/ E73,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R73" s="21" t="str">
-        <f>IF(Q73&gt;0,IF($Q73+$T73+$W73+$Z73 &gt; 0,MAX(1,ROUND($AD73*Q73/($Q73+$T73+$W73+$Z73),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U73" s="10" t="str">
-        <f>IF(T73&gt;0,IF($Q73+$T73+$W73+$Z73 &gt; 0,MAX(1,ROUND($AD73*T73/($Q73+$T73+$W73+$Z73),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X73" s="22" t="str">
-        <f>IF(W73&gt;0,IF($Q73+$T73+$W73+$Z73 &gt; 0,MAX(1,ROUND($AD73*W73/($Q73+$T73+$W73+$Z73),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC73" s="3">
-        <f>(1+Q73/100)*(1+T73/100)*(1+W73/100)*(1+Z73/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD73" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I73,AC73/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE73" s="3">
-        <f>ROUND(G73*(1+Q73/100)*(1+T73/100)*(1+W73/100)*(1+Z73/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="e">
-        <f>ROUND((J74*150/8 +(I74/1.5)^2)/ E74,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R74" s="21" t="str">
-        <f>IF(Q74&gt;0,IF($Q74+$T74+$W74+$Z74 &gt; 0,MAX(1,ROUND($AD74*Q74/($Q74+$T74+$W74+$Z74),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U74" s="10" t="str">
-        <f>IF(T74&gt;0,IF($Q74+$T74+$W74+$Z74 &gt; 0,MAX(1,ROUND($AD74*T74/($Q74+$T74+$W74+$Z74),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X74" s="22" t="str">
-        <f>IF(W74&gt;0,IF($Q74+$T74+$W74+$Z74 &gt; 0,MAX(1,ROUND($AD74*W74/($Q74+$T74+$W74+$Z74),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC74" s="3">
-        <f>(1+Q74/100)*(1+T74/100)*(1+W74/100)*(1+Z74/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD74" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I74,AC74/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE74" s="3">
-        <f>ROUND(G74*(1+Q74/100)*(1+T74/100)*(1+W74/100)*(1+Z74/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="e">
-        <f>ROUND((J75*150/8 +(I75/1.5)^2)/ E75,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R75" s="21" t="str">
-        <f>IF(Q75&gt;0,IF($Q75+$T75+$W75+$Z75 &gt; 0,MAX(1,ROUND($AD75*Q75/($Q75+$T75+$W75+$Z75),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U75" s="10" t="str">
-        <f>IF(T75&gt;0,IF($Q75+$T75+$W75+$Z75 &gt; 0,MAX(1,ROUND($AD75*T75/($Q75+$T75+$W75+$Z75),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X75" s="22" t="str">
-        <f>IF(W75&gt;0,IF($Q75+$T75+$W75+$Z75 &gt; 0,MAX(1,ROUND($AD75*W75/($Q75+$T75+$W75+$Z75),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC75" s="3">
-        <f>(1+Q75/100)*(1+T75/100)*(1+W75/100)*(1+Z75/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD75" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I75,AC75/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE75" s="3">
-        <f>ROUND(G75*(1+Q75/100)*(1+T75/100)*(1+W75/100)*(1+Z75/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="e">
-        <f>ROUND((J76*150/8 +(I76/1.5)^2)/ E76,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R76" s="21" t="str">
-        <f>IF(Q76&gt;0,IF($Q76+$T76+$W76+$Z76 &gt; 0,MAX(1,ROUND($AD76*Q76/($Q76+$T76+$W76+$Z76),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U76" s="10" t="str">
-        <f>IF(T76&gt;0,IF($Q76+$T76+$W76+$Z76 &gt; 0,MAX(1,ROUND($AD76*T76/($Q76+$T76+$W76+$Z76),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X76" s="22" t="str">
-        <f>IF(W76&gt;0,IF($Q76+$T76+$W76+$Z76 &gt; 0,MAX(1,ROUND($AD76*W76/($Q76+$T76+$W76+$Z76),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC76" s="3">
-        <f>(1+Q76/100)*(1+T76/100)*(1+W76/100)*(1+Z76/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD76" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I76,AC76/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE76" s="3">
-        <f>ROUND(G76*(1+Q76/100)*(1+T76/100)*(1+W76/100)*(1+Z76/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="e">
-        <f>ROUND((J77*150/8 +(I77/1.5)^2)/ E77,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R77" s="21" t="str">
-        <f>IF(Q77&gt;0,IF($Q77+$T77+$W77+$Z77 &gt; 0,MAX(1,ROUND($AD77*Q77/($Q77+$T77+$W77+$Z77),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U77" s="10" t="str">
-        <f>IF(T77&gt;0,IF($Q77+$T77+$W77+$Z77 &gt; 0,MAX(1,ROUND($AD77*T77/($Q77+$T77+$W77+$Z77),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X77" s="22" t="str">
-        <f>IF(W77&gt;0,IF($Q77+$T77+$W77+$Z77 &gt; 0,MAX(1,ROUND($AD77*W77/($Q77+$T77+$W77+$Z77),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC77" s="3">
-        <f>(1+Q77/100)*(1+T77/100)*(1+W77/100)*(1+Z77/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD77" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I77,AC77/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE77" s="3">
-        <f>ROUND(G77*(1+Q77/100)*(1+T77/100)*(1+W77/100)*(1+Z77/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D78" s="1" t="e">
-        <f>ROUND((J78*150/8 +(I78/1.5)^2)/ E78,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R78" s="21" t="str">
-        <f>IF(Q78&gt;0,IF($Q78+$T78+$W78+$Z78 &gt; 0,MAX(1,ROUND($AD78*Q78/($Q78+$T78+$W78+$Z78),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U78" s="10" t="str">
-        <f>IF(T78&gt;0,IF($Q78+$T78+$W78+$Z78 &gt; 0,MAX(1,ROUND($AD78*T78/($Q78+$T78+$W78+$Z78),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X78" s="22" t="str">
-        <f>IF(W78&gt;0,IF($Q78+$T78+$W78+$Z78 &gt; 0,MAX(1,ROUND($AD78*W78/($Q78+$T78+$W78+$Z78),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC78" s="3">
-        <f>(1+Q78/100)*(1+T78/100)*(1+W78/100)*(1+Z78/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD78" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I78,AC78/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE78" s="3">
-        <f>ROUND(G78*(1+Q78/100)*(1+T78/100)*(1+W78/100)*(1+Z78/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D79" s="1" t="e">
-        <f>ROUND((J79*150/8 +(I79/1.5)^2)/ E79,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R79" s="21" t="str">
-        <f>IF(Q79&gt;0,IF($Q79+$T79+$W79+$Z79 &gt; 0,MAX(1,ROUND($AD79*Q79/($Q79+$T79+$W79+$Z79),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U79" s="10" t="str">
-        <f>IF(T79&gt;0,IF($Q79+$T79+$W79+$Z79 &gt; 0,MAX(1,ROUND($AD79*T79/($Q79+$T79+$W79+$Z79),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X79" s="22" t="str">
-        <f>IF(W79&gt;0,IF($Q79+$T79+$W79+$Z79 &gt; 0,MAX(1,ROUND($AD79*W79/($Q79+$T79+$W79+$Z79),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC79" s="3">
-        <f>(1+Q79/100)*(1+T79/100)*(1+W79/100)*(1+Z79/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD79" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I79,AC79/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE79" s="3">
-        <f>ROUND(G79*(1+Q79/100)*(1+T79/100)*(1+W79/100)*(1+Z79/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="e">
-        <f>ROUND((J80*150/8 +(I80/1.5)^2)/ E80,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R80" s="21" t="str">
-        <f>IF(Q80&gt;0,IF($Q80+$T80+$W80+$Z80 &gt; 0,MAX(1,ROUND($AD80*Q80/($Q80+$T80+$W80+$Z80),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U80" s="10" t="str">
-        <f>IF(T80&gt;0,IF($Q80+$T80+$W80+$Z80 &gt; 0,MAX(1,ROUND($AD80*T80/($Q80+$T80+$W80+$Z80),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X80" s="22" t="str">
-        <f>IF(W80&gt;0,IF($Q80+$T80+$W80+$Z80 &gt; 0,MAX(1,ROUND($AD80*W80/($Q80+$T80+$W80+$Z80),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC80" s="3">
-        <f>(1+Q80/100)*(1+T80/100)*(1+W80/100)*(1+Z80/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD80" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I80,AC80/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE80" s="3">
-        <f>ROUND(G80*(1+Q80/100)*(1+T80/100)*(1+W80/100)*(1+Z80/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="e">
-        <f>ROUND((J81*150/8 +(I81/1.5)^2)/ E81,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R81" s="21" t="str">
-        <f>IF(Q81&gt;0,IF($Q81+$T81+$W81+$Z81 &gt; 0,MAX(1,ROUND($AD81*Q81/($Q81+$T81+$W81+$Z81),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U81" s="10" t="str">
-        <f>IF(T81&gt;0,IF($Q81+$T81+$W81+$Z81 &gt; 0,MAX(1,ROUND($AD81*T81/($Q81+$T81+$W81+$Z81),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X81" s="22" t="str">
-        <f>IF(W81&gt;0,IF($Q81+$T81+$W81+$Z81 &gt; 0,MAX(1,ROUND($AD81*W81/($Q81+$T81+$W81+$Z81),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC81" s="3">
-        <f>(1+Q81/100)*(1+T81/100)*(1+W81/100)*(1+Z81/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD81" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I81,AC81/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE81" s="3">
-        <f>ROUND(G81*(1+Q81/100)*(1+T81/100)*(1+W81/100)*(1+Z81/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="e">
-        <f>ROUND((J82*150/8 +(I82/1.5)^2)/ E82,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R82" s="21" t="str">
-        <f>IF(Q82&gt;0,IF($Q82+$T82+$W82+$Z82 &gt; 0,MAX(1,ROUND($AD82*Q82/($Q82+$T82+$W82+$Z82),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U82" s="10" t="str">
-        <f>IF(T82&gt;0,IF($Q82+$T82+$W82+$Z82 &gt; 0,MAX(1,ROUND($AD82*T82/($Q82+$T82+$W82+$Z82),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X82" s="22" t="str">
-        <f>IF(W82&gt;0,IF($Q82+$T82+$W82+$Z82 &gt; 0,MAX(1,ROUND($AD82*W82/($Q82+$T82+$W82+$Z82),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC82" s="3">
-        <f>(1+Q82/100)*(1+T82/100)*(1+W82/100)*(1+Z82/100)*100</f>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="AD82" s="3">
-        <f>_xlfn.CEILING.MATH(MIN(I82,AC82/100))</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE82" s="3">
-        <f>ROUND(G82*(1+Q82/100)*(1+T82/100)*(1+W82/100)*(1+Z82/100),1)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="e">
-        <f>ROUND((J83*150/8 +(I83/1.5)^2)/ E83,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R83" s="21" t="str">
-        <f>IF(Q83&gt;0,IF($Q83+$T83+$W83+$Z83 &gt; 0,MAX(1,ROUND($AD83*Q83/($Q83+$T83+$W83+$Z83),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U83" s="10" t="str">
-        <f>IF(T83&gt;0,IF($Q83+$T83+$W83+$Z83 &gt; 0,MAX(1,ROUND($AD83*T83/($Q83+$T83+$W83+$Z83),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X83" s="22" t="str">
-        <f>IF(W83&gt;0,IF($Q83+$T83+$W83+$Z83 &gt; 0,MAX(1,ROUND($AD83*W83/($Q83+$T83+$W83+$Z83),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="e">
-        <f>ROUND((J84*150/8 +(I84/1.5)^2)/ E84,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R84" s="21" t="str">
-        <f>IF(Q84&gt;0,IF($Q84+$T84+$W84+$Z84 &gt; 0,MAX(1,ROUND($AD84*Q84/($Q84+$T84+$W84+$Z84),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U84" s="10" t="str">
-        <f>IF(T84&gt;0,IF($Q84+$T84+$W84+$Z84 &gt; 0,MAX(1,ROUND($AD84*T84/($Q84+$T84+$W84+$Z84),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X84" s="22" t="str">
-        <f>IF(W84&gt;0,IF($Q84+$T84+$W84+$Z84 &gt; 0,MAX(1,ROUND($AD84*W84/($Q84+$T84+$W84+$Z84),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="e">
-        <f>ROUND((J85*150/8 +(I85/1.5)^2)/ E85,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R85" s="21" t="str">
-        <f>IF(Q85&gt;0,IF($Q85+$T85+$W85+$Z85 &gt; 0,MAX(1,ROUND($AD85*Q85/($Q85+$T85+$W85+$Z85),0)),""),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U85" s="10" t="str">
-        <f>IF(T85&gt;0,IF($Q85+$T85+$W85+$Z85 &gt; 0,MAX(1,ROUND($AD85*T85/($Q85+$T85+$W85+$Z85),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X85" s="22" t="str">
-        <f>IF(W85&gt;0,IF($Q85+$T85+$W85+$Z85 &gt; 0,MAX(1,ROUND($AD85*W85/($Q85+$T85+$W85+$Z85),0)),""),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="e">
-        <f>ROUND((J86*150/8 +(I86/1.5)^2)/ E86,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U86" s="10" t="str">
-        <f>IF(T86&gt;0,IF($Q86+$T86+$W86+$Z86 &gt; 0,MAX(1,ROUND($AD86*T86/($Q86+$T86+$W86+$Z86),0)),""),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="e">
-        <f>ROUND((J87*150/8 +(I87/1.5)^2)/ E87,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="e">
-        <f>ROUND((J88*150/8 +(I88/1.5)^2)/ E88,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="e">
-        <f>ROUND((J89*150/8 +(I89/1.5)^2)/ E89,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="90" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="e">
-        <f>ROUND((J90*150/8 +(I90/1.5)^2)/ E90,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="91" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="e">
-        <f>ROUND((J91*150/8 +(I91/1.5)^2)/ E91,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D92" s="1" t="e">
-        <f>ROUND((J92*150/8 +(I92/1.5)^2)/ E92,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="93" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D93" s="1" t="e">
-        <f>ROUND((J93*150/8 +(I93/1.5)^2)/ E93,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D94" s="1" t="e">
-        <f>ROUND((J94*150/8 +(I94/1.5)^2)/ E94,0)</f>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9446,13 +9448,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="C1:C2"/>
@@ -9469,6 +9464,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/CoreRulebook/Data/Potions/potions.xlsx
+++ b/CoreRulebook/Data/Potions/potions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Potions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F2852-70CB-427D-8A8B-17DDDEEBD031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC4350-7BB3-4BC4-AAB7-41C2139A7B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AE$308</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1837,12 +1837,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1871,6 +1865,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,10 +2257,10 @@
   <dimension ref="A1:AML94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2298,100 +2298,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="32" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="33" t="s">
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="34" t="s">
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="35" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="17" t="s">
         <v>21</v>
       </c>
@@ -2428,10 +2428,10 @@
       <c r="AA2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
     </row>
     <row r="3" spans="1:31" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2444,8 +2444,8 @@
         <v>380</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D34" si="0">ROUND((J3*150/8 +(I3/1.5)^2)/ E3,0)</f>
-        <v>46</v>
+        <f>ROUND((J3*150/8 +(I3/1.5)^2)/ (3*E3),0)</f>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -2487,7 +2487,7 @@
         <v>50</v>
       </c>
       <c r="R3" s="21">
-        <f t="shared" ref="R3:R34" si="1">IF(Q3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Q3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="R3:R34" si="0">IF(Q3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Q3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="S3" s="9" t="s">
@@ -2497,7 +2497,7 @@
         <v>100</v>
       </c>
       <c r="U3" s="10">
-        <f t="shared" ref="U3:U34" si="2">IF(T3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*T3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="U3:U34" si="1">IF(T3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*T3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>3</v>
       </c>
       <c r="V3" s="11" t="s">
@@ -2507,7 +2507,7 @@
         <v>50</v>
       </c>
       <c r="X3" s="22">
-        <f t="shared" ref="X3:X34" si="3">IF(W3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*W3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="X3:X34" si="2">IF(W3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*W3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="Y3" s="13" t="s">
@@ -2517,19 +2517,19 @@
         <v>75</v>
       </c>
       <c r="AA3" s="14">
-        <f t="shared" ref="AA3:AA34" si="4">IF(Z3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Z3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
+        <f t="shared" ref="AA3:AA34" si="3">IF(Z3&gt;0,IF($Q3+$T3+$W3+$Z3 &gt; 0,MAX(1,ROUND($AD3*Z3/($Q3+$T3+$W3+$Z3),0)),""),"")</f>
         <v>2</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC34" si="5">(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100)*100</f>
+        <f t="shared" ref="AC3:AC34" si="4">(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100)*100</f>
         <v>787.5</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" ref="AD3:AD34" si="6">_xlfn.CEILING.MATH(MIN(I3,AC3/100))</f>
+        <f t="shared" ref="AD3:AD34" si="5">_xlfn.CEILING.MATH(MIN(I3,AC3/100))</f>
         <v>8</v>
       </c>
       <c r="AE3" s="3">
-        <f t="shared" ref="AE3:AE34" si="7">ROUND(G3*(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100),1)</f>
+        <f t="shared" ref="AE3:AE34" si="6">ROUND(G3*(1+Q3/100)*(1+T3/100)*(1+W3/100)*(1+Z3/100),1)</f>
         <v>7.9</v>
       </c>
     </row>
@@ -2544,8 +2544,8 @@
         <v>384</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" ref="D4:D67" si="7">ROUND((J4*150/8 +(I4/1.5)^2)/ (3*E4),0)</f>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -2587,7 +2587,7 @@
         <v>200</v>
       </c>
       <c r="R4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="S4" s="9" t="s">
@@ -2597,7 +2597,7 @@
         <v>25</v>
       </c>
       <c r="U4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V4" s="11" t="s">
@@ -2607,7 +2607,7 @@
         <v>200</v>
       </c>
       <c r="X4" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Y4" s="13" t="s">
@@ -2617,19 +2617,19 @@
         <v>25</v>
       </c>
       <c r="AA4" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3">
+        <v>1406.25</v>
+      </c>
+      <c r="AD4" s="3">
         <f t="shared" si="5"/>
-        <v>1406.25</v>
-      </c>
-      <c r="AD4" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="3">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="AE4" s="3">
-        <f t="shared" si="7"/>
         <v>28.1</v>
       </c>
     </row>
@@ -2644,8 +2644,8 @@
         <v>385</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -2681,19 +2681,19 @@
         <v>100</v>
       </c>
       <c r="R5" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="10">
+        <v>100</v>
+      </c>
+      <c r="U5" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="10">
-        <v>100</v>
-      </c>
-      <c r="U5" s="10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="V5" s="11" t="s">
         <v>47</v>
       </c>
@@ -2701,23 +2701,23 @@
         <v>25</v>
       </c>
       <c r="X5" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA5" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC5" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC5" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD5" s="3">
         <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="AD5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AE5" s="3">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
@@ -2732,8 +2732,8 @@
         <v>386</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>325</v>
+        <f t="shared" si="7"/>
+        <v>108</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>150</v>
       </c>
       <c r="R6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S6" s="9" t="s">
@@ -2782,7 +2782,7 @@
         <v>75</v>
       </c>
       <c r="U6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V6" s="11" t="s">
@@ -2792,7 +2792,7 @@
         <v>200</v>
       </c>
       <c r="X6" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Y6" s="23" t="s">
@@ -2802,19 +2802,19 @@
         <v>50</v>
       </c>
       <c r="AA6" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC6" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AC6" s="3">
+        <v>1968.75</v>
+      </c>
+      <c r="AD6" s="3">
         <f t="shared" si="5"/>
-        <v>1968.75</v>
-      </c>
-      <c r="AD6" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE6" s="3">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" si="7"/>
         <v>59.1</v>
       </c>
     </row>
@@ -2829,8 +2829,8 @@
         <v>388</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -2866,7 +2866,7 @@
         <v>200</v>
       </c>
       <c r="R7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="S7" s="9" t="s">
@@ -2876,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="U7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V7" s="11" t="s">
@@ -2886,26 +2886,23 @@
         <v>25</v>
       </c>
       <c r="X7" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA7" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC7" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AB7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3">
+        <v>468.75</v>
+      </c>
+      <c r="AD7" s="3">
         <f t="shared" si="5"/>
-        <v>468.75</v>
-      </c>
-      <c r="AD7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="7"/>
         <v>117.2</v>
       </c>
     </row>
@@ -2920,8 +2917,8 @@
         <v>387</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -2960,7 +2957,7 @@
         <v>25</v>
       </c>
       <c r="R8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S8" s="9" t="s">
@@ -2970,7 +2967,7 @@
         <v>25</v>
       </c>
       <c r="U8" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V8" s="11" t="s">
@@ -2980,23 +2977,23 @@
         <v>100</v>
       </c>
       <c r="X8" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AA8" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AA8" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC8" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="AD8" s="3">
         <f t="shared" si="5"/>
-        <v>312.5</v>
-      </c>
-      <c r="AD8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
     </row>
@@ -3011,8 +3008,8 @@
         <v>447</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3051,7 +3048,7 @@
         <v>50</v>
       </c>
       <c r="R9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S9" s="9" t="s">
@@ -3061,7 +3058,7 @@
         <v>75</v>
       </c>
       <c r="U9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V9" s="11" t="s">
@@ -3071,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="X9" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Y9" s="13" t="s">
@@ -3081,19 +3078,19 @@
         <v>100</v>
       </c>
       <c r="AA9" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AC9" s="3">
+        <v>918.75</v>
+      </c>
+      <c r="AD9" s="3">
         <f t="shared" si="5"/>
-        <v>918.75</v>
-      </c>
-      <c r="AD9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="7"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -3108,8 +3105,8 @@
         <v>389</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -3148,7 +3145,7 @@
         <v>200</v>
       </c>
       <c r="R10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="S10" s="9" t="s">
@@ -3158,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V10" s="11" t="s">
@@ -3168,23 +3165,23 @@
         <v>25</v>
       </c>
       <c r="X10" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA10" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC10" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC10" s="3">
+        <v>378.75000000000006</v>
+      </c>
+      <c r="AD10" s="3">
         <f t="shared" si="5"/>
-        <v>378.75000000000006</v>
-      </c>
-      <c r="AD10" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="7"/>
         <v>7.6</v>
       </c>
     </row>
@@ -3199,8 +3196,8 @@
         <v>390</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -3239,7 +3236,7 @@
         <v>100</v>
       </c>
       <c r="R11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S11" s="9" t="s">
@@ -3249,7 +3246,7 @@
         <v>75</v>
       </c>
       <c r="U11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V11" s="11" t="s">
@@ -3259,23 +3256,23 @@
         <v>25</v>
       </c>
       <c r="X11" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA11" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC11" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC11" s="3">
+        <v>437.5</v>
+      </c>
+      <c r="AD11" s="3">
         <f t="shared" si="5"/>
-        <v>437.5</v>
-      </c>
-      <c r="AD11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AE11" s="3">
-        <f t="shared" si="7"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -3290,8 +3287,8 @@
         <v>391</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -3330,7 +3327,7 @@
         <v>75</v>
       </c>
       <c r="R12" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S12" s="9" t="s">
@@ -3340,7 +3337,7 @@
         <v>150</v>
       </c>
       <c r="U12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V12" s="11" t="s">
@@ -3350,29 +3347,29 @@
         <v>50</v>
       </c>
       <c r="X12" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="14">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>50</v>
-      </c>
-      <c r="AA12" s="14">
+      <c r="AC12" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AC12" s="3">
+        <v>984.375</v>
+      </c>
+      <c r="AD12" s="3">
         <f t="shared" si="5"/>
-        <v>984.375</v>
-      </c>
-      <c r="AD12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="7"/>
         <v>49.2</v>
       </c>
     </row>
@@ -3387,8 +3384,8 @@
         <v>392</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -3427,7 +3424,7 @@
         <v>50</v>
       </c>
       <c r="R13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S13" s="9" t="s">
@@ -3437,7 +3434,7 @@
         <v>75</v>
       </c>
       <c r="U13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V13" s="11" t="s">
@@ -3447,23 +3444,23 @@
         <v>200</v>
       </c>
       <c r="X13" s="22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AA13" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AA13" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC13" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC13" s="3">
+        <v>787.5</v>
+      </c>
+      <c r="AD13" s="3">
         <f t="shared" si="5"/>
-        <v>787.5</v>
-      </c>
-      <c r="AD13" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="3">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="7"/>
         <v>15.8</v>
       </c>
     </row>
@@ -3478,8 +3475,8 @@
         <v>393</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -3518,7 +3515,7 @@
         <v>50</v>
       </c>
       <c r="R14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S14" s="9" t="s">
@@ -3528,7 +3525,7 @@
         <v>150</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="V14" s="11" t="s">
@@ -3538,23 +3535,23 @@
         <v>50</v>
       </c>
       <c r="X14" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC14" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC14" s="3">
+        <v>562.5</v>
+      </c>
+      <c r="AD14" s="3">
         <f t="shared" si="5"/>
-        <v>562.5</v>
-      </c>
-      <c r="AD14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="3">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="7"/>
         <v>11.3</v>
       </c>
     </row>
@@ -3569,8 +3566,8 @@
         <v>394</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -3609,7 +3606,7 @@
         <v>200</v>
       </c>
       <c r="R15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S15" s="9" t="s">
@@ -3619,7 +3616,7 @@
         <v>25</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V15" s="11" t="s">
@@ -3629,7 +3626,7 @@
         <v>50</v>
       </c>
       <c r="X15" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y15" s="13" t="s">
@@ -3639,19 +3636,19 @@
         <v>100</v>
       </c>
       <c r="AA15" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC15" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AC15" s="3">
+        <v>1125</v>
+      </c>
+      <c r="AD15" s="3">
         <f t="shared" si="5"/>
-        <v>1125</v>
-      </c>
-      <c r="AD15" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="3">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="7"/>
         <v>22.5</v>
       </c>
     </row>
@@ -3666,8 +3663,8 @@
         <v>395</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -3706,7 +3703,7 @@
         <v>100</v>
       </c>
       <c r="R16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S16" s="9" t="s">
@@ -3716,7 +3713,7 @@
         <v>150</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V16" s="11" t="s">
@@ -3726,7 +3723,7 @@
         <v>50</v>
       </c>
       <c r="X16" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y16" s="13" t="s">
@@ -3736,19 +3733,19 @@
         <v>25</v>
       </c>
       <c r="AA16" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AC16" s="3">
+        <v>937.5</v>
+      </c>
+      <c r="AD16" s="3">
         <f t="shared" si="5"/>
-        <v>937.5</v>
-      </c>
-      <c r="AD16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="7"/>
         <v>18.8</v>
       </c>
     </row>
@@ -3763,8 +3760,8 @@
         <v>398</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -3803,7 +3800,7 @@
         <v>200</v>
       </c>
       <c r="R17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S17" s="9" t="s">
@@ -3813,7 +3810,7 @@
         <v>75</v>
       </c>
       <c r="U17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V17" s="11" t="s">
@@ -3823,7 +3820,7 @@
         <v>25</v>
       </c>
       <c r="X17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y17" s="13" t="s">
@@ -3833,19 +3830,19 @@
         <v>75</v>
       </c>
       <c r="AA17" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC17" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AC17" s="3">
+        <v>1148.4375</v>
+      </c>
+      <c r="AD17" s="3">
         <f t="shared" si="5"/>
-        <v>1148.4375</v>
-      </c>
-      <c r="AD17" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE17" s="3">
-        <f t="shared" si="7"/>
         <v>23</v>
       </c>
     </row>
@@ -3860,8 +3857,8 @@
         <v>399</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>3328</v>
+        <f t="shared" si="7"/>
+        <v>1109</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3900,7 +3897,7 @@
         <v>100</v>
       </c>
       <c r="R18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S18" s="9" t="s">
@@ -3910,7 +3907,7 @@
         <v>100</v>
       </c>
       <c r="U18" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V18" s="11" t="s">
@@ -3920,23 +3917,23 @@
         <v>75</v>
       </c>
       <c r="X18" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA18" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA18" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC18" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC18" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD18" s="3">
         <f t="shared" si="5"/>
-        <v>700</v>
-      </c>
-      <c r="AD18" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE18" s="3">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="AE18" s="3">
-        <f t="shared" si="7"/>
         <v>210</v>
       </c>
     </row>
@@ -3951,8 +3948,8 @@
         <v>400</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>550</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -3991,7 +3988,7 @@
         <v>25</v>
       </c>
       <c r="R19" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S19" s="9" t="s">
@@ -4001,7 +3998,7 @@
         <v>50</v>
       </c>
       <c r="U19" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V19" s="11" t="s">
@@ -4011,23 +4008,23 @@
         <v>100</v>
       </c>
       <c r="X19" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA19" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA19" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC19" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC19" s="3">
+        <v>375</v>
+      </c>
+      <c r="AD19" s="3">
         <f t="shared" si="5"/>
-        <v>375</v>
-      </c>
-      <c r="AD19" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE19" s="3">
-        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
     </row>
@@ -4042,8 +4039,8 @@
         <v>401</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -4082,7 +4079,7 @@
         <v>50</v>
       </c>
       <c r="R20" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S20" s="9" t="s">
@@ -4092,7 +4089,7 @@
         <v>25</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V20" s="11" t="s">
@@ -4102,23 +4099,23 @@
         <v>150</v>
       </c>
       <c r="X20" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AA20" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AA20" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC20" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC20" s="3">
+        <v>468.75</v>
+      </c>
+      <c r="AD20" s="3">
         <f t="shared" si="5"/>
-        <v>468.75</v>
-      </c>
-      <c r="AD20" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AE20" s="3">
-        <f t="shared" si="7"/>
         <v>9.4</v>
       </c>
     </row>
@@ -4133,8 +4130,8 @@
         <v>402</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -4176,7 +4173,7 @@
         <v>100</v>
       </c>
       <c r="R21" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S21" s="9" t="s">
@@ -4186,33 +4183,33 @@
         <v>75</v>
       </c>
       <c r="U21" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" s="12">
+        <v>75</v>
+      </c>
+      <c r="X21" s="22">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="V21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="W21" s="12">
-        <v>75</v>
-      </c>
-      <c r="X21" s="22">
+      <c r="AA21" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA21" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC21" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC21" s="3">
+        <v>612.5</v>
+      </c>
+      <c r="AD21" s="3">
         <f t="shared" si="5"/>
-        <v>612.5</v>
-      </c>
-      <c r="AD21" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE21" s="3">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="AE21" s="3">
-        <f t="shared" si="7"/>
         <v>183.8</v>
       </c>
     </row>
@@ -4227,8 +4224,8 @@
         <v>403</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>194</v>
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -4267,7 +4264,7 @@
         <v>25</v>
       </c>
       <c r="R22" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S22" s="9" t="s">
@@ -4277,7 +4274,7 @@
         <v>200</v>
       </c>
       <c r="U22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V22" s="11" t="s">
@@ -4287,7 +4284,7 @@
         <v>50</v>
       </c>
       <c r="X22" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y22" s="23" t="s">
@@ -4297,22 +4294,19 @@
         <v>75</v>
       </c>
       <c r="AA22" s="14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AC22" s="3">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB22" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="3">
+        <v>984.375</v>
+      </c>
+      <c r="AD22" s="3">
         <f t="shared" si="5"/>
-        <v>984.375</v>
-      </c>
-      <c r="AD22" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE22" s="3">
-        <f t="shared" si="7"/>
         <v>49.2</v>
       </c>
     </row>
@@ -4327,8 +4321,8 @@
         <v>404</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -4370,7 +4364,7 @@
         <v>200</v>
       </c>
       <c r="R23" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="S23" s="9" t="s">
@@ -4380,27 +4374,27 @@
         <v>75</v>
       </c>
       <c r="U23" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X23" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X23" s="22" t="str">
+        <v/>
+      </c>
+      <c r="AA23" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA23" s="14" t="str">
+      <c r="AC23" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC23" s="3">
+        <v>525</v>
+      </c>
+      <c r="AD23" s="3">
         <f t="shared" si="5"/>
-        <v>525</v>
-      </c>
-      <c r="AD23" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="3">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AE23" s="3">
-        <f t="shared" si="7"/>
         <v>26.3</v>
       </c>
     </row>
@@ -4415,8 +4409,8 @@
         <v>405</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>1450</v>
+        <f t="shared" si="7"/>
+        <v>483</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -4455,7 +4449,7 @@
         <v>100</v>
       </c>
       <c r="R24" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S24" s="9" t="s">
@@ -4465,7 +4459,7 @@
         <v>50</v>
       </c>
       <c r="U24" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V24" s="11" t="s">
@@ -4475,23 +4469,23 @@
         <v>75</v>
       </c>
       <c r="X24" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA24" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA24" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC24" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC24" s="3">
+        <v>525</v>
+      </c>
+      <c r="AD24" s="3">
         <f t="shared" si="5"/>
-        <v>525</v>
-      </c>
-      <c r="AD24" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE24" s="3">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AE24" s="3">
-        <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
     </row>
@@ -4506,8 +4500,8 @@
         <v>406</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -4546,7 +4540,7 @@
         <v>75</v>
       </c>
       <c r="R25" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S25" s="9" t="s">
@@ -4556,7 +4550,7 @@
         <v>50</v>
       </c>
       <c r="U25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V25" s="11" t="s">
@@ -4566,23 +4560,23 @@
         <v>50</v>
       </c>
       <c r="X25" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA25" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC25" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC25" s="3">
+        <v>393.75</v>
+      </c>
+      <c r="AD25" s="3">
         <f t="shared" si="5"/>
-        <v>393.75</v>
-      </c>
-      <c r="AD25" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE25" s="3">
-        <f t="shared" si="7"/>
         <v>19.7</v>
       </c>
     </row>
@@ -4597,8 +4591,8 @@
         <v>407</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -4637,7 +4631,7 @@
         <v>100</v>
       </c>
       <c r="R26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S26" s="9" t="s">
@@ -4647,7 +4641,7 @@
         <v>75</v>
       </c>
       <c r="U26" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V26" s="11" t="s">
@@ -4657,23 +4651,23 @@
         <v>50</v>
       </c>
       <c r="X26" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC26" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC26" s="3">
+        <v>525</v>
+      </c>
+      <c r="AD26" s="3">
         <f t="shared" si="5"/>
-        <v>525</v>
-      </c>
-      <c r="AD26" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="3">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AE26" s="3">
-        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
     </row>
@@ -4688,8 +4682,8 @@
         <v>408</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>6478</v>
+        <f t="shared" si="7"/>
+        <v>2159</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -4729,7 +4723,7 @@
         <v>150</v>
       </c>
       <c r="R27" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="S27" s="9" t="s">
@@ -4739,7 +4733,7 @@
         <v>50</v>
       </c>
       <c r="U27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V27" s="11" t="s">
@@ -4749,23 +4743,23 @@
         <v>100</v>
       </c>
       <c r="X27" s="22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AA27" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AA27" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC27" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC27" s="3">
+        <v>750</v>
+      </c>
+      <c r="AD27" s="3">
         <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="AD27" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="3">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE27" s="3">
-        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
@@ -4780,8 +4774,8 @@
         <v>409</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>3328</v>
+        <f t="shared" si="7"/>
+        <v>1109</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -4823,7 +4817,7 @@
         <v>200</v>
       </c>
       <c r="R28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S28" s="9" t="s">
@@ -4833,7 +4827,7 @@
         <v>50</v>
       </c>
       <c r="U28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V28" s="11" t="s">
@@ -4843,23 +4837,23 @@
         <v>75</v>
       </c>
       <c r="X28" s="22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AA28" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AA28" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC28" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC28" s="3">
+        <v>787.5</v>
+      </c>
+      <c r="AD28" s="3">
         <f t="shared" si="5"/>
-        <v>787.5</v>
-      </c>
-      <c r="AD28" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE28" s="3">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE28" s="3">
-        <f t="shared" si="7"/>
         <v>393.8</v>
       </c>
     </row>
@@ -4874,8 +4868,8 @@
         <v>410</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>971</v>
+        <f t="shared" si="7"/>
+        <v>324</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -4914,7 +4908,7 @@
         <v>75</v>
       </c>
       <c r="R29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S29" s="9" t="s">
@@ -4924,7 +4918,7 @@
         <v>25</v>
       </c>
       <c r="U29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V29" s="11" t="s">
@@ -4934,23 +4928,23 @@
         <v>50</v>
       </c>
       <c r="X29" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC29" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC29" s="3">
+        <v>328.125</v>
+      </c>
+      <c r="AD29" s="3">
         <f t="shared" si="5"/>
-        <v>328.125</v>
-      </c>
-      <c r="AD29" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE29" s="3">
-        <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
@@ -4965,8 +4959,8 @@
         <v>445</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>550</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -5005,7 +4999,7 @@
         <v>25</v>
       </c>
       <c r="R30" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S30" s="9" t="s">
@@ -5015,7 +5009,7 @@
         <v>50</v>
       </c>
       <c r="U30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V30" s="11" t="s">
@@ -5025,7 +5019,7 @@
         <v>100</v>
       </c>
       <c r="X30" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Y30" s="13" t="s">
@@ -5035,19 +5029,19 @@
         <v>100</v>
       </c>
       <c r="AA30" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC30" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AC30" s="3">
+        <v>750</v>
+      </c>
+      <c r="AD30" s="3">
         <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="AD30" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE30" s="3">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE30" s="3">
-        <f t="shared" si="7"/>
         <v>30</v>
       </c>
     </row>
@@ -5062,8 +5056,8 @@
         <v>411</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -5102,7 +5096,7 @@
         <v>50</v>
       </c>
       <c r="R31" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S31" s="9" t="s">
@@ -5112,7 +5106,7 @@
         <v>75</v>
       </c>
       <c r="U31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V31" s="11" t="s">
@@ -5122,23 +5116,23 @@
         <v>50</v>
       </c>
       <c r="X31" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA31" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC31" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC31" s="3">
+        <v>393.75</v>
+      </c>
+      <c r="AD31" s="3">
         <f t="shared" si="5"/>
-        <v>393.75</v>
-      </c>
-      <c r="AD31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE31" s="3">
-        <f t="shared" si="7"/>
         <v>118.1</v>
       </c>
     </row>
@@ -5153,8 +5147,8 @@
         <v>412</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>1528</v>
+        <f t="shared" si="7"/>
+        <v>509</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -5193,37 +5187,37 @@
         <v>75</v>
       </c>
       <c r="R32" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="T32" s="10">
+        <v>100</v>
+      </c>
+      <c r="U32" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S32" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="T32" s="10">
-        <v>100</v>
-      </c>
-      <c r="U32" s="24">
+      <c r="X32" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="X32" s="22" t="str">
+        <v/>
+      </c>
+      <c r="AA32" s="14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA32" s="14" t="str">
+      <c r="AC32" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC32" s="3">
+        <v>350</v>
+      </c>
+      <c r="AD32" s="3">
         <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="AD32" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE32" s="3">
-        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
@@ -5238,8 +5232,8 @@
         <v>413</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -5278,7 +5272,7 @@
         <v>50</v>
       </c>
       <c r="R33" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S33" s="9" t="s">
@@ -5288,7 +5282,7 @@
         <v>75</v>
       </c>
       <c r="U33" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="V33" s="11" t="s">
@@ -5298,7 +5292,7 @@
         <v>100</v>
       </c>
       <c r="X33" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Y33" s="13" t="s">
@@ -5308,19 +5302,19 @@
         <v>75</v>
       </c>
       <c r="AA33" s="14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AC33" s="3">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AC33" s="3">
+        <v>918.75</v>
+      </c>
+      <c r="AD33" s="3">
         <f t="shared" si="5"/>
-        <v>918.75</v>
-      </c>
-      <c r="AD33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE33" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE33" s="3">
-        <f t="shared" si="7"/>
         <v>275.60000000000002</v>
       </c>
     </row>
@@ -5335,8 +5329,8 @@
         <v>414</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -5378,7 +5372,7 @@
         <v>50</v>
       </c>
       <c r="R34" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S34" s="9" t="s">
@@ -5388,7 +5382,7 @@
         <v>100</v>
       </c>
       <c r="U34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V34" s="11" t="s">
@@ -5398,23 +5392,23 @@
         <v>25</v>
       </c>
       <c r="X34" s="22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AA34" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC34" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AC34" s="3">
+        <v>375</v>
+      </c>
+      <c r="AD34" s="3">
         <f t="shared" si="5"/>
-        <v>375</v>
-      </c>
-      <c r="AD34" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE34" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE34" s="3">
-        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
     </row>
@@ -5429,8 +5423,8 @@
         <v>415</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D66" si="8">ROUND((J35*150/8 +(I35/1.5)^2)/ E35,0)</f>
-        <v>54</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -5463,7 +5457,7 @@
         <v>100</v>
       </c>
       <c r="R35" s="21">
-        <f t="shared" ref="R35:R66" si="9">IF(Q35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Q35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="R35:R66" si="8">IF(Q35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Q35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>3</v>
       </c>
       <c r="S35" s="9" t="s">
@@ -5473,7 +5467,7 @@
         <v>25</v>
       </c>
       <c r="U35" s="10">
-        <f t="shared" ref="U35:U66" si="10">IF(T35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*T35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="U35:U66" si="9">IF(T35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*T35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="V35" s="11" t="s">
@@ -5483,7 +5477,7 @@
         <v>25</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" ref="X35:X66" si="11">IF(W35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*W35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="X35:X66" si="10">IF(W35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*W35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="Y35" s="13" t="s">
@@ -5493,19 +5487,19 @@
         <v>100</v>
       </c>
       <c r="AA35" s="14">
-        <f t="shared" ref="AA35:AA66" si="12">IF(Z35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Z35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
+        <f t="shared" ref="AA35:AA66" si="11">IF(Z35&gt;0,IF($Q35+$T35+$W35+$Z35 &gt; 0,MAX(1,ROUND($AD35*Z35/($Q35+$T35+$W35+$Z35),0)),""),"")</f>
         <v>3</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" ref="AC35:AC66" si="13">(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100)*100</f>
+        <f t="shared" ref="AC35:AC66" si="12">(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100)*100</f>
         <v>625</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" ref="AD35:AD66" si="14">_xlfn.CEILING.MATH(MIN(I35,AC35/100))</f>
+        <f t="shared" ref="AD35:AD66" si="13">_xlfn.CEILING.MATH(MIN(I35,AC35/100))</f>
         <v>7</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" ref="AE35:AE66" si="15">ROUND(G35*(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100),1)</f>
+        <f t="shared" ref="AE35:AE66" si="14">ROUND(G35*(1+Q35/100)*(1+T35/100)*(1+W35/100)*(1+Z35/100),1)</f>
         <v>3.1</v>
       </c>
     </row>
@@ -5520,8 +5514,8 @@
         <v>416</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="8"/>
-        <v>550</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -5530,7 +5524,7 @@
         <v>258</v>
       </c>
       <c r="G36" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>41</v>
@@ -5560,41 +5554,38 @@
         <v>100</v>
       </c>
       <c r="R36" s="21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T36" s="10">
+        <v>100</v>
+      </c>
+      <c r="U36" s="10">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T36" s="10">
-        <v>100</v>
-      </c>
-      <c r="U36" s="10">
+      <c r="X36" s="22" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="X36" s="22" t="str">
+        <v/>
+      </c>
+      <c r="AA36" s="14" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA36" s="14" t="str">
+      <c r="AC36" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AB36" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD36" s="3">
         <f t="shared" si="13"/>
-        <v>400</v>
-      </c>
-      <c r="AD36" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE36" s="3">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AE36" s="3">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="51" x14ac:dyDescent="0.2">
@@ -5608,8 +5599,8 @@
         <v>417</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -5642,7 +5633,7 @@
         <v>50</v>
       </c>
       <c r="R37" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S37" s="9" t="s">
@@ -5652,7 +5643,7 @@
         <v>100</v>
       </c>
       <c r="U37" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V37" s="11" t="s">
@@ -5662,23 +5653,23 @@
         <v>50</v>
       </c>
       <c r="X37" s="22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA37" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC37" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC37" s="3">
+        <v>450</v>
+      </c>
+      <c r="AD37" s="3">
         <f t="shared" si="13"/>
-        <v>450</v>
-      </c>
-      <c r="AD37" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="3">
         <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="AE37" s="3">
-        <f t="shared" si="15"/>
         <v>4.5</v>
       </c>
     </row>
@@ -5693,8 +5684,8 @@
         <v>418</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="8"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
@@ -5733,7 +5724,7 @@
         <v>50</v>
       </c>
       <c r="R38" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S38" s="9" t="s">
@@ -5743,7 +5734,7 @@
         <v>25</v>
       </c>
       <c r="U38" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V38" s="11" t="s">
@@ -5753,7 +5744,7 @@
         <v>100</v>
       </c>
       <c r="X38" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="Y38" s="13" t="s">
@@ -5763,19 +5754,19 @@
         <v>100</v>
       </c>
       <c r="AA38" s="25">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AC38" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AC38" s="3">
+        <v>750</v>
+      </c>
+      <c r="AD38" s="3">
         <f t="shared" si="13"/>
-        <v>750</v>
-      </c>
-      <c r="AD38" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE38" s="3">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AE38" s="3">
-        <f t="shared" si="15"/>
         <v>375</v>
       </c>
     </row>
@@ -5790,8 +5781,8 @@
         <v>419</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -5830,7 +5821,7 @@
         <v>300</v>
       </c>
       <c r="R39" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="S39" s="9" t="s">
@@ -5840,7 +5831,7 @@
         <v>50</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V39" s="11" t="s">
@@ -5850,23 +5841,23 @@
         <v>100</v>
       </c>
       <c r="X39" s="22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AA39" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA39" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC39" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC39" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AD39" s="3">
         <f t="shared" si="13"/>
-        <v>1200</v>
-      </c>
-      <c r="AD39" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE39" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AE39" s="3">
-        <f t="shared" si="15"/>
         <v>60</v>
       </c>
     </row>
@@ -5881,8 +5872,8 @@
         <v>420</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -5921,7 +5912,7 @@
         <v>100</v>
       </c>
       <c r="R40" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S40" s="9" t="s">
@@ -5931,7 +5922,7 @@
         <v>25</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V40" s="11" t="s">
@@ -5941,7 +5932,7 @@
         <v>100</v>
       </c>
       <c r="X40" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="Y40" s="13" t="s">
@@ -5951,19 +5942,19 @@
         <v>10</v>
       </c>
       <c r="AA40" s="14">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AC40" s="3">
+        <v>550</v>
+      </c>
+      <c r="AD40" s="3">
         <f t="shared" si="13"/>
-        <v>550</v>
-      </c>
-      <c r="AD40" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE40" s="3">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="AE40" s="3">
-        <f t="shared" si="15"/>
         <v>55</v>
       </c>
     </row>
@@ -5978,8 +5969,8 @@
         <v>421</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="8"/>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -6018,7 +6009,7 @@
         <v>100</v>
       </c>
       <c r="R41" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S41" s="9" t="s">
@@ -6028,7 +6019,7 @@
         <v>25</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V41" s="11" t="s">
@@ -6038,23 +6029,23 @@
         <v>25</v>
       </c>
       <c r="X41" s="22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA41" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA41" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC41" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC41" s="3">
+        <v>312.5</v>
+      </c>
+      <c r="AD41" s="3">
         <f t="shared" si="13"/>
-        <v>312.5</v>
-      </c>
-      <c r="AD41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="3">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AE41" s="3">
-        <f t="shared" si="15"/>
         <v>6.3</v>
       </c>
     </row>
@@ -6069,8 +6060,8 @@
         <v>443</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -6109,7 +6100,7 @@
         <v>75</v>
       </c>
       <c r="R42" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S42" s="9" t="s">
@@ -6119,7 +6110,7 @@
         <v>50</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V42" s="11" t="s">
@@ -6129,7 +6120,7 @@
         <v>75</v>
       </c>
       <c r="X42" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="Y42" s="13" t="s">
@@ -6139,19 +6130,19 @@
         <v>100</v>
       </c>
       <c r="AA42" s="14">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AC42" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AC42" s="3">
+        <v>918.75</v>
+      </c>
+      <c r="AD42" s="3">
         <f t="shared" si="13"/>
-        <v>918.75</v>
-      </c>
-      <c r="AD42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE42" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AE42" s="3">
-        <f t="shared" si="15"/>
         <v>91.9</v>
       </c>
     </row>
@@ -6166,8 +6157,8 @@
         <v>422</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="8"/>
-        <v>240</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
@@ -6209,7 +6200,7 @@
         <v>100</v>
       </c>
       <c r="R43" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S43" s="9" t="s">
@@ -6219,7 +6210,7 @@
         <v>100</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V43" s="11" t="s">
@@ -6229,23 +6220,23 @@
         <v>75</v>
       </c>
       <c r="X43" s="22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AA43" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA43" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC43" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC43" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD43" s="3">
         <f t="shared" si="13"/>
-        <v>700</v>
-      </c>
-      <c r="AD43" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE43" s="3">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AE43" s="3">
-        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
@@ -6260,8 +6251,8 @@
         <v>423</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="8"/>
-        <v>333</v>
+        <f t="shared" si="7"/>
+        <v>111</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -6300,7 +6291,7 @@
         <v>150</v>
       </c>
       <c r="R44" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S44" s="9" t="s">
@@ -6310,7 +6301,7 @@
         <v>75</v>
       </c>
       <c r="U44" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V44" s="11" t="s">
@@ -6320,7 +6311,7 @@
         <v>50</v>
       </c>
       <c r="X44" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Y44" s="13" t="s">
@@ -6330,19 +6321,19 @@
         <v>75</v>
       </c>
       <c r="AA44" s="14">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AC44" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AC44" s="3">
+        <v>1148.4375</v>
+      </c>
+      <c r="AD44" s="3">
         <f t="shared" si="13"/>
-        <v>1148.4375</v>
-      </c>
-      <c r="AD44" s="3">
+        <v>12</v>
+      </c>
+      <c r="AE44" s="3">
         <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="AE44" s="3">
-        <f t="shared" si="15"/>
         <v>11.5</v>
       </c>
     </row>
@@ -6357,8 +6348,8 @@
         <v>424</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="8"/>
-        <v>1000</v>
+        <f t="shared" si="7"/>
+        <v>333</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -6400,7 +6391,7 @@
         <v>50</v>
       </c>
       <c r="R45" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S45" s="9" t="s">
@@ -6410,7 +6401,7 @@
         <v>25</v>
       </c>
       <c r="U45" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V45" s="11" t="s">
@@ -6420,7 +6411,7 @@
         <v>100</v>
       </c>
       <c r="X45" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="Y45" s="13" t="s">
@@ -6430,19 +6421,19 @@
         <v>150</v>
       </c>
       <c r="AA45" s="14">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
+        <v>937.5</v>
+      </c>
+      <c r="AD45" s="3">
         <f t="shared" si="13"/>
-        <v>937.5</v>
-      </c>
-      <c r="AD45" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AE45" s="3">
-        <f t="shared" si="15"/>
         <v>9.4</v>
       </c>
     </row>
@@ -6457,8 +6448,8 @@
         <v>377</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="8"/>
-        <v>4903</v>
+        <f t="shared" si="7"/>
+        <v>1634</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -6501,7 +6492,7 @@
         <v>150</v>
       </c>
       <c r="R46" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S46" s="9" t="s">
@@ -6511,7 +6502,7 @@
         <v>25</v>
       </c>
       <c r="U46" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V46" s="11" t="s">
@@ -6521,7 +6512,7 @@
         <v>75</v>
       </c>
       <c r="X46" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Y46" s="13" t="s">
@@ -6531,19 +6522,19 @@
         <v>25</v>
       </c>
       <c r="AA46" s="14">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AC46" s="3">
+        <v>683.59375</v>
+      </c>
+      <c r="AD46" s="3">
         <f t="shared" si="13"/>
-        <v>683.59375</v>
-      </c>
-      <c r="AD46" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE46" s="3">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AE46" s="3">
-        <f t="shared" si="15"/>
         <v>6.8</v>
       </c>
     </row>
@@ -6558,8 +6549,8 @@
         <v>425</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="8"/>
-        <v>165</v>
+        <f t="shared" si="7"/>
+        <v>55</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -6598,7 +6589,7 @@
         <v>50</v>
       </c>
       <c r="R47" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S47" s="9" t="s">
@@ -6608,7 +6599,7 @@
         <v>100</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V47" s="11" t="s">
@@ -6618,23 +6609,23 @@
         <v>75</v>
       </c>
       <c r="X47" s="22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AA47" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA47" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC47" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC47" s="3">
+        <v>525</v>
+      </c>
+      <c r="AD47" s="3">
         <f t="shared" si="13"/>
-        <v>525</v>
-      </c>
-      <c r="AD47" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE47" s="3">
         <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="AE47" s="3">
-        <f t="shared" si="15"/>
         <v>10.5</v>
       </c>
     </row>
@@ -6649,8 +6640,8 @@
         <v>453</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="8"/>
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -6689,7 +6680,7 @@
         <v>25</v>
       </c>
       <c r="R48" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S48" s="9" t="s">
@@ -6699,7 +6690,7 @@
         <v>100</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V48" s="11" t="s">
@@ -6709,7 +6700,7 @@
         <v>150</v>
       </c>
       <c r="X48" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="Y48" s="13" t="s">
@@ -6719,19 +6710,19 @@
         <v>75</v>
       </c>
       <c r="AA48" s="14">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC48" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AC48" s="3">
+        <v>1093.75</v>
+      </c>
+      <c r="AD48" s="3">
         <f t="shared" si="13"/>
-        <v>1093.75</v>
-      </c>
-      <c r="AD48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE48" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AE48" s="3">
-        <f t="shared" si="15"/>
         <v>10.9</v>
       </c>
     </row>
@@ -6746,8 +6737,8 @@
         <v>426</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="8"/>
-        <v>52</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -6786,19 +6777,19 @@
         <v>50</v>
       </c>
       <c r="R49" s="21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="T49" s="10">
+        <v>75</v>
+      </c>
+      <c r="U49" s="10">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="S49" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="T49" s="10">
-        <v>75</v>
-      </c>
-      <c r="U49" s="10">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="V49" s="11" t="s">
         <v>118</v>
       </c>
@@ -6806,7 +6797,7 @@
         <v>25</v>
       </c>
       <c r="X49" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y49" s="13" t="s">
@@ -6816,19 +6807,19 @@
         <v>150</v>
       </c>
       <c r="AA49" s="14">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3">
+        <v>820.3125</v>
+      </c>
+      <c r="AD49" s="3">
         <f t="shared" si="13"/>
-        <v>820.3125</v>
-      </c>
-      <c r="AD49" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE49" s="3">
         <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="AE49" s="3">
-        <f t="shared" si="15"/>
         <v>123</v>
       </c>
     </row>
@@ -6843,8 +6834,8 @@
         <v>427</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -6883,7 +6874,7 @@
         <v>100</v>
       </c>
       <c r="R50" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S50" s="9" t="s">
@@ -6893,7 +6884,7 @@
         <v>25</v>
       </c>
       <c r="U50" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V50" s="11" t="s">
@@ -6903,7 +6894,7 @@
         <v>150</v>
       </c>
       <c r="X50" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="Y50" s="23" t="s">
@@ -6913,22 +6904,22 @@
         <v>50</v>
       </c>
       <c r="AA50" s="14">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB50" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AB50" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="3">
+        <v>937.5</v>
+      </c>
+      <c r="AD50" s="3">
         <f t="shared" si="13"/>
-        <v>937.5</v>
-      </c>
-      <c r="AD50" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE50" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AE50" s="3">
-        <f t="shared" si="15"/>
         <v>93.8</v>
       </c>
     </row>
@@ -6943,8 +6934,8 @@
         <v>428</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="8"/>
-        <v>493150</v>
+        <f t="shared" si="7"/>
+        <v>164383</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -6987,31 +6978,31 @@
         <v>50</v>
       </c>
       <c r="R51" s="21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="U51" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="U51" s="10" t="str">
+        <v/>
+      </c>
+      <c r="X51" s="22" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X51" s="22" t="str">
+      <c r="AA51" s="14" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA51" s="14" t="str">
+      <c r="AC51" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC51" s="3">
+        <v>150</v>
+      </c>
+      <c r="AD51" s="3">
         <f t="shared" si="13"/>
-        <v>150</v>
-      </c>
-      <c r="AD51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE51" s="3">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AE51" s="3">
-        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
     </row>
@@ -7026,8 +7017,8 @@
         <v>429</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="8"/>
-        <v>550</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -7069,7 +7060,7 @@
         <v>25</v>
       </c>
       <c r="R52" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S52" s="9" t="s">
@@ -7079,7 +7070,7 @@
         <v>50</v>
       </c>
       <c r="U52" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V52" s="11" t="s">
@@ -7089,26 +7080,26 @@
         <v>100</v>
       </c>
       <c r="X52" s="22">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AA52" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AA52" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AB52" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AB52" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="3">
+        <v>375</v>
+      </c>
+      <c r="AD52" s="3">
         <f t="shared" si="13"/>
-        <v>375</v>
-      </c>
-      <c r="AD52" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AE52" s="3">
-        <f t="shared" si="15"/>
         <v>3.8</v>
       </c>
     </row>
@@ -7123,8 +7114,8 @@
         <v>430</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -7163,7 +7154,7 @@
         <v>100</v>
       </c>
       <c r="R53" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S53" s="9" t="s">
@@ -7173,7 +7164,7 @@
         <v>50</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V53" s="11" t="s">
@@ -7183,7 +7174,7 @@
         <v>75</v>
       </c>
       <c r="X53" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Y53" s="13" t="s">
@@ -7193,19 +7184,19 @@
         <v>25</v>
       </c>
       <c r="AA53" s="14">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC53" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AC53" s="3">
+        <v>656.25</v>
+      </c>
+      <c r="AD53" s="3">
         <f t="shared" si="13"/>
-        <v>656.25</v>
-      </c>
-      <c r="AD53" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE53" s="3">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AE53" s="3">
-        <f t="shared" si="15"/>
         <v>13.1</v>
       </c>
     </row>
@@ -7220,8 +7211,8 @@
         <v>374</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="8"/>
-        <v>333</v>
+        <f t="shared" si="7"/>
+        <v>111</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -7260,7 +7251,7 @@
         <v>150</v>
       </c>
       <c r="R54" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S54" s="9" t="s">
@@ -7270,7 +7261,7 @@
         <v>75</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V54" s="11" t="s">
@@ -7280,23 +7271,23 @@
         <v>50</v>
       </c>
       <c r="X54" s="22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA54" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA54" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC54" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC54" s="3">
+        <v>656.25</v>
+      </c>
+      <c r="AD54" s="3">
         <f t="shared" si="13"/>
-        <v>656.25</v>
-      </c>
-      <c r="AD54" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE54" s="3">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AE54" s="3">
-        <f t="shared" si="15"/>
         <v>32.799999999999997</v>
       </c>
     </row>
@@ -7311,8 +7302,8 @@
         <v>449</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="8"/>
-        <v>509</v>
+        <f t="shared" si="7"/>
+        <v>170</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -7351,7 +7342,7 @@
         <v>75</v>
       </c>
       <c r="R55" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S55" s="9" t="s">
@@ -7361,7 +7352,7 @@
         <v>25</v>
       </c>
       <c r="U55" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V55" s="11" t="s">
@@ -7371,29 +7362,29 @@
         <v>150</v>
       </c>
       <c r="X55" s="22">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Y55" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>150</v>
+      </c>
+      <c r="AA55" s="25">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="Y55" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z55" s="14">
-        <v>150</v>
-      </c>
-      <c r="AA55" s="25">
+      <c r="AC55" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AC55" s="3">
+        <v>1367.1875</v>
+      </c>
+      <c r="AD55" s="3">
         <f t="shared" si="13"/>
-        <v>1367.1875</v>
-      </c>
-      <c r="AD55" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE55" s="3">
         <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AE55" s="3">
-        <f t="shared" si="15"/>
         <v>27.3</v>
       </c>
     </row>
@@ -7408,8 +7399,8 @@
         <v>372</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="8"/>
-        <v>2350</v>
+        <f t="shared" si="7"/>
+        <v>783</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -7452,7 +7443,7 @@
         <v>100</v>
       </c>
       <c r="R56" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S56" s="9" t="s">
@@ -7462,7 +7453,7 @@
         <v>50</v>
       </c>
       <c r="U56" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V56" s="11" t="s">
@@ -7472,7 +7463,7 @@
         <v>25</v>
       </c>
       <c r="X56" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y56" s="13" t="s">
@@ -7482,19 +7473,19 @@
         <v>75</v>
       </c>
       <c r="AA56" s="25">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC56" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AC56" s="3">
+        <v>656.25</v>
+      </c>
+      <c r="AD56" s="3">
         <f t="shared" si="13"/>
-        <v>656.25</v>
-      </c>
-      <c r="AD56" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE56" s="3">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AE56" s="3">
-        <f t="shared" si="15"/>
         <v>19.7</v>
       </c>
     </row>
@@ -7509,8 +7500,8 @@
         <v>431</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="8"/>
-        <v>550</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -7549,7 +7540,7 @@
         <v>75</v>
       </c>
       <c r="R57" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S57" s="9" t="s">
@@ -7559,7 +7550,7 @@
         <v>50</v>
       </c>
       <c r="U57" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V57" s="11" t="s">
@@ -7569,23 +7560,23 @@
         <v>150</v>
       </c>
       <c r="X57" s="22">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA57" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="AA57" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC57" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC57" s="3">
+        <v>656.25</v>
+      </c>
+      <c r="AD57" s="3">
         <f t="shared" si="13"/>
-        <v>656.25</v>
-      </c>
-      <c r="AD57" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE57" s="3">
         <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="AE57" s="3">
-        <f t="shared" si="15"/>
         <v>13.1</v>
       </c>
     </row>
@@ -7600,8 +7591,8 @@
         <v>396</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="8"/>
-        <v>333</v>
+        <f t="shared" si="7"/>
+        <v>111</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
@@ -7640,19 +7631,19 @@
         <v>150</v>
       </c>
       <c r="R58" s="21">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="10">
+        <v>150</v>
+      </c>
+      <c r="U58" s="10">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="S58" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T58" s="10">
-        <v>150</v>
-      </c>
-      <c r="U58" s="10">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
       <c r="V58" s="11" t="s">
         <v>53</v>
       </c>
@@ -7660,7 +7651,7 @@
         <v>25</v>
       </c>
       <c r="X58" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y58" s="13" t="s">
@@ -7670,19 +7661,19 @@
         <v>75</v>
       </c>
       <c r="AA58" s="14">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AC58" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AC58" s="3">
+        <v>1367.1875</v>
+      </c>
+      <c r="AD58" s="3">
         <f t="shared" si="13"/>
-        <v>1367.1875</v>
-      </c>
-      <c r="AD58" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE58" s="3">
         <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="AE58" s="3">
-        <f t="shared" si="15"/>
         <v>136.69999999999999</v>
       </c>
     </row>
@@ -7697,8 +7688,8 @@
         <v>432</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="8"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -7737,7 +7728,7 @@
         <v>100</v>
       </c>
       <c r="R59" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S59" s="9" t="s">
@@ -7747,7 +7738,7 @@
         <v>25</v>
       </c>
       <c r="U59" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V59" s="11" t="s">
@@ -7757,7 +7748,7 @@
         <v>50</v>
       </c>
       <c r="X59" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y59" s="13" t="s">
@@ -7767,19 +7758,19 @@
         <v>100</v>
       </c>
       <c r="AA59" s="14">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AC59" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AC59" s="3">
+        <v>750</v>
+      </c>
+      <c r="AD59" s="3">
         <f t="shared" si="13"/>
-        <v>750</v>
-      </c>
-      <c r="AD59" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE59" s="3">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AE59" s="3">
-        <f t="shared" si="15"/>
         <v>375</v>
       </c>
     </row>
@@ -7794,8 +7785,8 @@
         <v>433</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="8"/>
-        <v>83</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -7837,7 +7828,7 @@
         <v>100</v>
       </c>
       <c r="R60" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S60" s="9" t="s">
@@ -7847,7 +7838,7 @@
         <v>50</v>
       </c>
       <c r="U60" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V60" s="11" t="s">
@@ -7857,23 +7848,23 @@
         <v>200</v>
       </c>
       <c r="X60" s="22">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AA60" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="AA60" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC60" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC60" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD60" s="3">
         <f t="shared" si="13"/>
-        <v>900</v>
-      </c>
-      <c r="AD60" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE60" s="3">
         <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="AE60" s="3">
-        <f t="shared" si="15"/>
         <v>45</v>
       </c>
     </row>
@@ -7888,8 +7879,8 @@
         <v>434</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="8"/>
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>30</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -7928,7 +7919,7 @@
         <v>200</v>
       </c>
       <c r="R61" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S61" s="9" t="s">
@@ -7938,7 +7929,7 @@
         <v>75</v>
       </c>
       <c r="U61" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V61" s="11" t="s">
@@ -7948,23 +7939,23 @@
         <v>50</v>
       </c>
       <c r="X61" s="22">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA61" s="14" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA61" s="14" t="str">
+        <v/>
+      </c>
+      <c r="AC61" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC61" s="3">
+        <v>787.5</v>
+      </c>
+      <c r="AD61" s="3">
         <f t="shared" si="13"/>
-        <v>787.5</v>
-      </c>
-      <c r="AD61" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE61" s="3">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AE61" s="3">
-        <f t="shared" si="15"/>
         <v>78.8</v>
       </c>
     </row>
@@ -7979,8 +7970,8 @@
         <v>441</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -8019,7 +8010,7 @@
         <v>50</v>
       </c>
       <c r="R62" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S62" s="9" t="s">
@@ -8029,7 +8020,7 @@
         <v>100</v>
       </c>
       <c r="U62" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V62" s="11" t="s">
@@ -8039,7 +8030,7 @@
         <v>25</v>
       </c>
       <c r="X62" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y62" s="13" t="s">
@@ -8049,19 +8040,19 @@
         <v>200</v>
       </c>
       <c r="AA62" s="14">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AC62" s="3">
+        <v>1125</v>
+      </c>
+      <c r="AD62" s="3">
         <f t="shared" si="13"/>
-        <v>1125</v>
-      </c>
-      <c r="AD62" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE62" s="3">
         <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="AE62" s="3">
-        <f t="shared" si="15"/>
         <v>11.3</v>
       </c>
     </row>
@@ -8076,8 +8067,8 @@
         <v>435</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="8"/>
-        <v>1000</v>
+        <f t="shared" si="7"/>
+        <v>333</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -8116,7 +8107,7 @@
         <v>100</v>
       </c>
       <c r="R63" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S63" s="9" t="s">
@@ -8126,27 +8117,27 @@
         <v>50</v>
       </c>
       <c r="U63" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X63" s="22" t="str">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="X63" s="22" t="str">
+        <v/>
+      </c>
+      <c r="AA63" s="14" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA63" s="14" t="str">
+      <c r="AC63" s="3">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC63" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD63" s="3">
         <f t="shared" si="13"/>
-        <v>300</v>
-      </c>
-      <c r="AD63" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE63" s="3">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AE63" s="3">
-        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
@@ -8161,8 +8152,8 @@
         <v>451</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="8"/>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -8204,7 +8195,7 @@
         <v>100</v>
       </c>
       <c r="R64" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S64" s="9" t="s">
@@ -8214,7 +8205,7 @@
         <v>50</v>
       </c>
       <c r="U64" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V64" s="11" t="s">
@@ -8224,7 +8215,7 @@
         <v>75</v>
       </c>
       <c r="X64" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="Y64" s="13" t="s">
@@ -8234,19 +8225,19 @@
         <v>200</v>
       </c>
       <c r="AA64" s="14">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AC64" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AC64" s="3">
+        <v>1575</v>
+      </c>
+      <c r="AD64" s="3">
         <f t="shared" si="13"/>
-        <v>1575</v>
-      </c>
-      <c r="AD64" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE64" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AE64" s="3">
-        <f t="shared" si="15"/>
         <v>78.8</v>
       </c>
     </row>
@@ -8261,8 +8252,8 @@
         <v>436</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="8"/>
-        <v>550</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -8301,7 +8292,7 @@
         <v>50</v>
       </c>
       <c r="R65" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S65" s="9" t="s">
@@ -8311,7 +8302,7 @@
         <v>100</v>
       </c>
       <c r="U65" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V65" s="11" t="s">
@@ -8321,7 +8312,7 @@
         <v>75</v>
       </c>
       <c r="X65" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Y65" s="13" t="s">
@@ -8331,19 +8322,19 @@
         <v>50</v>
       </c>
       <c r="AA65" s="14">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC65" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AC65" s="3">
+        <v>787.5</v>
+      </c>
+      <c r="AD65" s="3">
         <f t="shared" si="13"/>
-        <v>787.5</v>
-      </c>
-      <c r="AD65" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE65" s="3">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AE65" s="3">
-        <f t="shared" si="15"/>
         <v>15.8</v>
       </c>
     </row>
@@ -8358,8 +8349,8 @@
         <v>437</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="8"/>
-        <v>194</v>
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -8398,7 +8389,7 @@
         <v>100</v>
       </c>
       <c r="R66" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S66" s="9" t="s">
@@ -8408,7 +8399,7 @@
         <v>400</v>
       </c>
       <c r="U66" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="V66" s="11" t="s">
@@ -8418,7 +8409,7 @@
         <v>25</v>
       </c>
       <c r="X66" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y66" s="23" t="s">
@@ -8428,19 +8419,19 @@
         <v>50</v>
       </c>
       <c r="AA66" s="14">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC66" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AC66" s="3">
+        <v>1875</v>
+      </c>
+      <c r="AD66" s="3">
         <f t="shared" si="13"/>
-        <v>1875</v>
-      </c>
-      <c r="AD66" s="3">
+        <v>15</v>
+      </c>
+      <c r="AE66" s="3">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AE66" s="3">
-        <f t="shared" si="15"/>
         <v>937.5</v>
       </c>
     </row>
@@ -8455,8 +8446,8 @@
         <v>379</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D98" si="16">ROUND((J67*150/8 +(I67/1.5)^2)/ E67,0)</f>
-        <v>465</v>
+        <f t="shared" si="7"/>
+        <v>155</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -8495,7 +8486,7 @@
         <v>500</v>
       </c>
       <c r="R67" s="21">
-        <f t="shared" ref="R67:R98" si="17">IF(Q67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Q67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="R67:R85" si="15">IF(Q67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Q67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>7</v>
       </c>
       <c r="S67" s="9" t="s">
@@ -8505,7 +8496,7 @@
         <v>100</v>
       </c>
       <c r="U67" s="10">
-        <f t="shared" ref="U67:U98" si="18">IF(T67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*T67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="U67:U86" si="16">IF(T67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*T67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="V67" s="11" t="s">
@@ -8515,7 +8506,7 @@
         <v>50</v>
       </c>
       <c r="X67" s="22">
-        <f t="shared" ref="X67:X98" si="19">IF(W67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*W67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="X67:X85" si="17">IF(W67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*W67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="Y67" s="13" t="s">
@@ -8525,19 +8516,19 @@
         <v>25</v>
       </c>
       <c r="AA67" s="14">
-        <f t="shared" ref="AA67:AA98" si="20">IF(Z67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Z67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
+        <f t="shared" ref="AA67:AA71" si="18">IF(Z67&gt;0,IF($Q67+$T67+$W67+$Z67 &gt; 0,MAX(1,ROUND($AD67*Z67/($Q67+$T67+$W67+$Z67),0)),""),"")</f>
         <v>1</v>
       </c>
       <c r="AC67" s="3">
-        <f t="shared" ref="AC67:AC82" si="21">(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100)*100</f>
+        <f t="shared" ref="AC67:AC82" si="19">(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100)*100</f>
         <v>2250</v>
       </c>
       <c r="AD67" s="3">
-        <f t="shared" ref="AD67:AD98" si="22">_xlfn.CEILING.MATH(MIN(I67,AC67/100))</f>
+        <f t="shared" ref="AD67:AD82" si="20">_xlfn.CEILING.MATH(MIN(I67,AC67/100))</f>
         <v>10</v>
       </c>
       <c r="AE67" s="3">
-        <f t="shared" ref="AE67:AE82" si="23">ROUND(G67*(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100),1)</f>
+        <f t="shared" ref="AE67:AE82" si="21">ROUND(G67*(1+Q67/100)*(1+T67/100)*(1+W67/100)*(1+Z67/100),1)</f>
         <v>45</v>
       </c>
     </row>
@@ -8552,8 +8543,8 @@
         <v>438</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="16"/>
-        <v>3250</v>
+        <f t="shared" ref="D68:D91" si="22">ROUND((J68*150/8 +(I68/1.5)^2)/ (3*E68),0)</f>
+        <v>1083</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -8593,7 +8584,7 @@
         <v>150</v>
       </c>
       <c r="R68" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="S68" s="9" t="s">
@@ -8603,7 +8594,7 @@
         <v>50</v>
       </c>
       <c r="U68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="V68" s="11" t="s">
@@ -8613,7 +8604,7 @@
         <v>100</v>
       </c>
       <c r="X68" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="Y68" s="13" t="s">
@@ -8623,19 +8614,19 @@
         <v>25</v>
       </c>
       <c r="AA68" s="14">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AC68" s="3">
+        <f t="shared" si="19"/>
+        <v>937.5</v>
+      </c>
+      <c r="AD68" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AC68" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE68" s="3">
         <f t="shared" si="21"/>
-        <v>937.5</v>
-      </c>
-      <c r="AD68" s="3">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="AE68" s="3">
-        <f t="shared" si="23"/>
         <v>93.8</v>
       </c>
     </row>
@@ -8650,8 +8641,8 @@
         <v>439</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="16"/>
-        <v>27</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
@@ -8690,7 +8681,7 @@
         <v>150</v>
       </c>
       <c r="R69" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="S69" s="9" t="s">
@@ -8700,7 +8691,7 @@
         <v>150</v>
       </c>
       <c r="U69" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="V69" s="11" t="s">
@@ -8710,7 +8701,7 @@
         <v>50</v>
       </c>
       <c r="X69" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y69" s="13" t="s">
@@ -8720,22 +8711,22 @@
         <v>75</v>
       </c>
       <c r="AA69" s="14">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB69" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="3">
+        <f t="shared" si="19"/>
+        <v>1640.625</v>
+      </c>
+      <c r="AD69" s="3">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AB69" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE69" s="3">
         <f t="shared" si="21"/>
-        <v>1640.625</v>
-      </c>
-      <c r="AD69" s="3">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="AE69" s="3">
-        <f t="shared" si="23"/>
         <v>82</v>
       </c>
     </row>
@@ -8750,8 +8741,8 @@
         <v>382</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="16"/>
-        <v>183</v>
+        <f t="shared" si="22"/>
+        <v>61</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
@@ -8793,7 +8784,7 @@
         <v>25</v>
       </c>
       <c r="R70" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="S70" s="9" t="s">
@@ -8803,7 +8794,7 @@
         <v>50</v>
       </c>
       <c r="U70" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V70" s="11" t="s">
@@ -8813,7 +8804,7 @@
         <v>25</v>
       </c>
       <c r="X70" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y70" s="13" t="s">
@@ -8823,19 +8814,19 @@
         <v>50</v>
       </c>
       <c r="AA70" s="14">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AC70" s="3">
+        <f t="shared" si="19"/>
+        <v>351.5625</v>
+      </c>
+      <c r="AD70" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AC70" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE70" s="3">
         <f t="shared" si="21"/>
-        <v>351.5625</v>
-      </c>
-      <c r="AD70" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="AE70" s="3">
-        <f t="shared" si="23"/>
         <v>35.200000000000003</v>
       </c>
     </row>
@@ -8850,8 +8841,8 @@
         <v>440</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="E71" s="1">
         <v>3</v>
@@ -8890,7 +8881,7 @@
         <v>50</v>
       </c>
       <c r="R71" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="S71" s="9" t="s">
@@ -8900,7 +8891,7 @@
         <v>200</v>
       </c>
       <c r="U71" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="V71" s="11" t="s">
@@ -8910,7 +8901,7 @@
         <v>25</v>
       </c>
       <c r="X71" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Y71" s="23" t="s">
@@ -8920,22 +8911,22 @@
         <v>25</v>
       </c>
       <c r="AA71" s="14">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB71" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="3">
+        <f t="shared" si="19"/>
+        <v>703.125</v>
+      </c>
+      <c r="AD71" s="3">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AB71" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE71" s="3">
         <f t="shared" si="21"/>
-        <v>703.125</v>
-      </c>
-      <c r="AD71" s="3">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="AE71" s="3">
-        <f t="shared" si="23"/>
         <v>70.3</v>
       </c>
     </row>
@@ -8950,8 +8941,8 @@
         <v>474</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="16"/>
-        <v>1494</v>
+        <f t="shared" si="22"/>
+        <v>498</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -8993,7 +8984,7 @@
         <v>500</v>
       </c>
       <c r="R72" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="S72" s="9" t="s">
@@ -9003,7 +8994,7 @@
         <v>50</v>
       </c>
       <c r="U72" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V72" s="11" t="s">
@@ -9013,431 +9004,431 @@
         <v>75</v>
       </c>
       <c r="X72" s="22">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AC72" s="3">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AC72" s="3">
+        <v>1575</v>
+      </c>
+      <c r="AD72" s="3">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="AE72" s="3">
         <f t="shared" si="21"/>
-        <v>1575</v>
-      </c>
-      <c r="AD72" s="3">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="AE72" s="3">
-        <f t="shared" si="23"/>
         <v>15.8</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R73" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U73" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R73" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X73" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U73" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X73" s="22" t="str">
+      <c r="AC73" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC73" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD73" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE73" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD73" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE73" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R74" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U74" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R74" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X74" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U74" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X74" s="22" t="str">
+      <c r="AC74" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC74" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD74" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE74" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD74" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE74" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R75" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U75" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R75" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X75" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U75" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X75" s="22" t="str">
+      <c r="AC75" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC75" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD75" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE75" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD75" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE75" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R76" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U76" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R76" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X76" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U76" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X76" s="22" t="str">
+      <c r="AC76" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD76" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE76" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD76" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE76" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R77" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U77" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R77" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X77" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U77" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X77" s="22" t="str">
+      <c r="AC77" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC77" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD77" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE77" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD77" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE77" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D78" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R78" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U78" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R78" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X78" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U78" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X78" s="22" t="str">
+      <c r="AC78" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC78" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD78" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE78" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD78" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE78" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D79" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R79" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U79" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R79" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X79" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U79" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X79" s="22" t="str">
+      <c r="AC79" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC79" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD79" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE79" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD79" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE79" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R80" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U80" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R80" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X80" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U80" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X80" s="22" t="str">
+      <c r="AC80" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC80" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD80" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE80" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD80" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE80" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R81" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U81" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R81" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X81" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U81" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X81" s="22" t="str">
+      <c r="AC81" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE81" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD81" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE81" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R82" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U82" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R82" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X82" s="22" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U82" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X82" s="22" t="str">
+      <c r="AC82" s="3">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC82" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD82" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AE82" s="3">
         <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="AD82" s="3">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AE82" s="3">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R83" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U83" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R83" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X83" s="22" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U83" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X83" s="22" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R84" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U84" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R84" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X84" s="22" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U84" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X84" s="22" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R85" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U85" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R85" s="21" t="str">
+        <v/>
+      </c>
+      <c r="X85" s="22" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U85" s="10" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="X85" s="22" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U86" s="10" t="str">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U86" s="10" t="str">
-        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="90" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="91" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D92" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D67:D94" si="23">ROUND((J92*150/8 +(I92/1.5)^2)/ E92,0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="93" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D93" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="4:31" x14ac:dyDescent="0.2">
       <c r="D94" s="1" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9448,6 +9439,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="23">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="C1:C2"/>
@@ -9464,13 +9462,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
